--- a/outputs/wl_sales_monthly.xlsx
+++ b/outputs/wl_sales_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>41341.01857807842</v>
       </c>
       <c r="D2" t="n">
-        <v>38970.19623297334</v>
+        <v>39342.13215927594</v>
       </c>
       <c r="E2" t="n">
-        <v>45928.40370264309</v>
+        <v>45657.63638854918</v>
       </c>
       <c r="F2" t="n">
         <v>41341.01857807842</v>
@@ -583,10 +583,10 @@
         <v>41215.76437435042</v>
       </c>
       <c r="D3" t="n">
-        <v>35529.68054916071</v>
+        <v>35671.38263480637</v>
       </c>
       <c r="E3" t="n">
-        <v>42345.09041642624</v>
+        <v>42276.60219665132</v>
       </c>
       <c r="F3" t="n">
         <v>41215.76437435042</v>
@@ -636,10 +636,10 @@
         <v>41098.59108699196</v>
       </c>
       <c r="D4" t="n">
-        <v>38458.97779871034</v>
+        <v>38760.29517110637</v>
       </c>
       <c r="E4" t="n">
-        <v>45133.62237931097</v>
+        <v>45407.63821594926</v>
       </c>
       <c r="F4" t="n">
         <v>41098.59108699196</v>
@@ -689,10 +689,10 @@
         <v>40973.33688376282</v>
       </c>
       <c r="D5" t="n">
-        <v>34420.24494580676</v>
+        <v>34603.23681831355</v>
       </c>
       <c r="E5" t="n">
-        <v>41239.86603333817</v>
+        <v>41420.65633186486</v>
       </c>
       <c r="F5" t="n">
         <v>40973.33688376282</v>
@@ -742,10 +742,10 @@
         <v>40852.12313815514</v>
       </c>
       <c r="D6" t="n">
-        <v>35874.52468310385</v>
+        <v>35976.50856218793</v>
       </c>
       <c r="E6" t="n">
-        <v>42807.28319186799</v>
+        <v>42691.90765489028</v>
       </c>
       <c r="F6" t="n">
         <v>40852.12313815514</v>
@@ -795,10 +795,10 @@
         <v>40726.86893436054</v>
       </c>
       <c r="D7" t="n">
-        <v>39111.25251615267</v>
+        <v>39057.08584117144</v>
       </c>
       <c r="E7" t="n">
-        <v>45561.49564093579</v>
+        <v>45626.56639207217</v>
       </c>
       <c r="F7" t="n">
         <v>40726.86893436054</v>
@@ -848,10 +848,10 @@
         <v>40605.65518826458</v>
       </c>
       <c r="D8" t="n">
-        <v>37054.28720687934</v>
+        <v>36722.68746129231</v>
       </c>
       <c r="E8" t="n">
-        <v>43762.76549320385</v>
+        <v>43458.05420448302</v>
       </c>
       <c r="F8" t="n">
         <v>40605.65518826458</v>
@@ -901,10 +901,10 @@
         <v>40480.40098396541</v>
       </c>
       <c r="D9" t="n">
-        <v>41551.4062911031</v>
+        <v>41252.13317087439</v>
       </c>
       <c r="E9" t="n">
-        <v>48177.87192871</v>
+        <v>48016.77210280263</v>
       </c>
       <c r="F9" t="n">
         <v>40480.40098396541</v>
@@ -954,10 +954,10 @@
         <v>40355.14677981727</v>
       </c>
       <c r="D10" t="n">
-        <v>38273.96855145036</v>
+        <v>38427.31374056895</v>
       </c>
       <c r="E10" t="n">
-        <v>44867.67248914532</v>
+        <v>44962.2976149797</v>
       </c>
       <c r="F10" t="n">
         <v>40355.14677981727</v>
@@ -1007,10 +1007,10 @@
         <v>40233.93303348569</v>
       </c>
       <c r="D11" t="n">
-        <v>36545.25114401188</v>
+        <v>36544.28217563242</v>
       </c>
       <c r="E11" t="n">
-        <v>43235.48422484333</v>
+        <v>43504.30908848725</v>
       </c>
       <c r="F11" t="n">
         <v>40233.93303348569</v>
@@ -1060,10 +1060,10 @@
         <v>40108.67882894304</v>
       </c>
       <c r="D12" t="n">
-        <v>35108.64137595949</v>
+        <v>34918.19438222112</v>
       </c>
       <c r="E12" t="n">
-        <v>41690.56615038293</v>
+        <v>41623.45032953315</v>
       </c>
       <c r="F12" t="n">
         <v>40108.67882894304</v>
@@ -1113,10 +1113,10 @@
         <v>39987.4650824863</v>
       </c>
       <c r="D13" t="n">
-        <v>35831.22647169485</v>
+        <v>35891.62348401129</v>
       </c>
       <c r="E13" t="n">
-        <v>42369.76516394033</v>
+        <v>42661.17033584206</v>
       </c>
       <c r="F13" t="n">
         <v>39987.4650824863</v>
@@ -1166,10 +1166,10 @@
         <v>39862.21087781432</v>
       </c>
       <c r="D14" t="n">
-        <v>38846.76816965441</v>
+        <v>38919.49577988577</v>
       </c>
       <c r="E14" t="n">
-        <v>45637.85936320284</v>
+        <v>45710.33805015947</v>
       </c>
       <c r="F14" t="n">
         <v>39862.21087781432</v>
@@ -1219,10 +1219,10 @@
         <v>39736.95667536461</v>
       </c>
       <c r="D15" t="n">
-        <v>30301.56038944598</v>
+        <v>30417.32164462803</v>
       </c>
       <c r="E15" t="n">
-        <v>37254.28695128498</v>
+        <v>37063.60369248458</v>
       </c>
       <c r="F15" t="n">
         <v>39736.95667536461</v>
@@ -1272,10 +1272,10 @@
         <v>39623.8238469336</v>
       </c>
       <c r="D16" t="n">
-        <v>35901.91172651805</v>
+        <v>36314.63612454941</v>
       </c>
       <c r="E16" t="n">
-        <v>42581.59713061646</v>
+        <v>42673.62788814714</v>
       </c>
       <c r="F16" t="n">
         <v>39623.8238469336</v>
@@ -1325,10 +1325,10 @@
         <v>39498.56964402784</v>
       </c>
       <c r="D17" t="n">
-        <v>33364.43042974137</v>
+        <v>33527.52899278652</v>
       </c>
       <c r="E17" t="n">
-        <v>40063.61355862871</v>
+        <v>40290.25474981827</v>
       </c>
       <c r="F17" t="n">
         <v>39498.56964402784</v>
@@ -1378,10 +1378,10 @@
         <v>39377.35589887048</v>
       </c>
       <c r="D18" t="n">
-        <v>34764.62531111258</v>
+        <v>34568.45847738376</v>
       </c>
       <c r="E18" t="n">
-        <v>41215.55899429894</v>
+        <v>41199.96820931672</v>
       </c>
       <c r="F18" t="n">
         <v>39377.35589887048</v>
@@ -1431,10 +1431,10 @@
         <v>39252.10169554121</v>
       </c>
       <c r="D19" t="n">
-        <v>36673.99458821184</v>
+        <v>36701.91245542645</v>
       </c>
       <c r="E19" t="n">
-        <v>42973.01922042304</v>
+        <v>42990.76820891814</v>
       </c>
       <c r="F19" t="n">
         <v>39252.10169554121</v>
@@ -1484,10 +1484,10 @@
         <v>39130.88795038386</v>
       </c>
       <c r="D20" t="n">
-        <v>36485.45145350968</v>
+        <v>36332.16597563404</v>
       </c>
       <c r="E20" t="n">
-        <v>42900.38480227587</v>
+        <v>42841.19146638247</v>
       </c>
       <c r="F20" t="n">
         <v>39130.88795038386</v>
@@ -1537,10 +1537,10 @@
         <v>39005.63374705458</v>
       </c>
       <c r="D21" t="n">
-        <v>40394.44961731887</v>
+        <v>40411.90777117351</v>
       </c>
       <c r="E21" t="n">
-        <v>46965.45247674218</v>
+        <v>46608.35945654053</v>
       </c>
       <c r="F21" t="n">
         <v>39005.63374705458</v>
@@ -1590,10 +1590,10 @@
         <v>38880.37954372532</v>
       </c>
       <c r="D22" t="n">
-        <v>36061.09662005895</v>
+        <v>36099.02745572762</v>
       </c>
       <c r="E22" t="n">
-        <v>42703.47837170384</v>
+        <v>42711.02178847139</v>
       </c>
       <c r="F22" t="n">
         <v>38880.37954372532</v>
@@ -1643,10 +1643,10 @@
         <v>38759.16579856796</v>
       </c>
       <c r="D23" t="n">
-        <v>35980.6493062747</v>
+        <v>36060.55764391272</v>
       </c>
       <c r="E23" t="n">
-        <v>42540.49482787791</v>
+        <v>42608.0717574326</v>
       </c>
       <c r="F23" t="n">
         <v>38759.16579856796</v>
@@ -1696,10 +1696,10 @@
         <v>38633.91159523869</v>
       </c>
       <c r="D24" t="n">
-        <v>32807.24425560164</v>
+        <v>32783.76967286426</v>
       </c>
       <c r="E24" t="n">
-        <v>39696.37182665171</v>
+        <v>39681.88673709441</v>
       </c>
       <c r="F24" t="n">
         <v>38633.91159523869</v>
@@ -1749,10 +1749,10 @@
         <v>38512.69785008133</v>
       </c>
       <c r="D25" t="n">
-        <v>34825.08219958471</v>
+        <v>35059.30780366361</v>
       </c>
       <c r="E25" t="n">
-        <v>41336.04627577689</v>
+        <v>41402.69760514031</v>
       </c>
       <c r="F25" t="n">
         <v>38512.69785008133</v>
@@ -1802,10 +1802,10 @@
         <v>38387.44364675207</v>
       </c>
       <c r="D26" t="n">
-        <v>36971.5186861917</v>
+        <v>36732.42099024131</v>
       </c>
       <c r="E26" t="n">
-        <v>43550.55948014984</v>
+        <v>43609.48310389696</v>
       </c>
       <c r="F26" t="n">
         <v>38387.44364675207</v>
@@ -1855,10 +1855,10 @@
         <v>38262.35766693469</v>
       </c>
       <c r="D27" t="n">
-        <v>30330.59793870651</v>
+        <v>30352.87732935125</v>
       </c>
       <c r="E27" t="n">
-        <v>36905.53940502602</v>
+        <v>36984.86125169091</v>
       </c>
       <c r="F27" t="n">
         <v>38262.35766693469</v>
@@ -1908,10 +1908,10 @@
         <v>38149.77524389738</v>
       </c>
       <c r="D28" t="n">
-        <v>33768.73651463218</v>
+        <v>33541.3560778413</v>
       </c>
       <c r="E28" t="n">
-        <v>40183.42423830708</v>
+        <v>40362.46022678886</v>
       </c>
       <c r="F28" t="n">
         <v>38149.77524389738</v>
@@ -1961,10 +1961,10 @@
         <v>38025.13041839179</v>
       </c>
       <c r="D29" t="n">
-        <v>32334.83064388358</v>
+        <v>32301.84155850261</v>
       </c>
       <c r="E29" t="n">
-        <v>38751.51275317743</v>
+        <v>38875.4128108208</v>
       </c>
       <c r="F29" t="n">
         <v>38025.13041839179</v>
@@ -2014,10 +2014,10 @@
         <v>37904.62372900884</v>
       </c>
       <c r="D30" t="n">
-        <v>33372.68966911596</v>
+        <v>33384.00146549186</v>
       </c>
       <c r="E30" t="n">
-        <v>39753.59935474733</v>
+        <v>39944.76272849676</v>
       </c>
       <c r="F30" t="n">
         <v>37904.62372900884</v>
@@ -2067,10 +2067,10 @@
         <v>37780.10014997979</v>
       </c>
       <c r="D31" t="n">
-        <v>33781.79129606752</v>
+        <v>34137.6432328053</v>
       </c>
       <c r="E31" t="n">
-        <v>40485.46477730609</v>
+        <v>40787.44035504455</v>
       </c>
       <c r="F31" t="n">
         <v>37780.10014997979</v>
@@ -2120,10 +2120,10 @@
         <v>37756.55653498114</v>
       </c>
       <c r="D32" t="n">
-        <v>36012.58235432283</v>
+        <v>36061.06001072167</v>
       </c>
       <c r="E32" t="n">
-        <v>42402.52555323175</v>
+        <v>42672.55211707129</v>
       </c>
       <c r="F32" t="n">
         <v>37756.55653498114</v>
@@ -2173,10 +2173,10 @@
         <v>37732.22813281589</v>
       </c>
       <c r="D33" t="n">
-        <v>39318.33102996185</v>
+        <v>39532.79213758538</v>
       </c>
       <c r="E33" t="n">
-        <v>46005.83475302569</v>
+        <v>45899.021518826</v>
       </c>
       <c r="F33" t="n">
         <v>37732.22813281589</v>
@@ -2226,10 +2226,10 @@
         <v>37707.99772208308</v>
       </c>
       <c r="D34" t="n">
-        <v>33988.40410555733</v>
+        <v>34187.70551832479</v>
       </c>
       <c r="E34" t="n">
-        <v>40907.10347747777</v>
+        <v>40692.20108251413</v>
       </c>
       <c r="F34" t="n">
         <v>37707.99772208308</v>
@@ -2279,10 +2279,10 @@
         <v>37684.94408797597</v>
       </c>
       <c r="D35" t="n">
-        <v>35821.96380652262</v>
+        <v>35260.08774301927</v>
       </c>
       <c r="E35" t="n">
-        <v>42557.35100808167</v>
+        <v>42232.70699521695</v>
       </c>
       <c r="F35" t="n">
         <v>37684.94408797597</v>
@@ -2332,10 +2332,10 @@
         <v>37661.12199939863</v>
       </c>
       <c r="D36" t="n">
-        <v>31055.62899110946</v>
+        <v>30919.91614176943</v>
       </c>
       <c r="E36" t="n">
-        <v>37584.87180447421</v>
+        <v>37773.82325959018</v>
       </c>
       <c r="F36" t="n">
         <v>37661.12199939863</v>
@@ -2385,10 +2385,10 @@
         <v>37638.35498800543</v>
       </c>
       <c r="D37" t="n">
-        <v>33942.54330557695</v>
+        <v>34301.20983236944</v>
       </c>
       <c r="E37" t="n">
-        <v>40803.93269544356</v>
+        <v>40710.21352393909</v>
       </c>
       <c r="F37" t="n">
         <v>37638.35498800543</v>
@@ -2438,10 +2438,10 @@
         <v>37614.82907623246</v>
       </c>
       <c r="D38" t="n">
-        <v>35924.98686936144</v>
+        <v>35846.7580863046</v>
       </c>
       <c r="E38" t="n">
-        <v>42312.66535836286</v>
+        <v>42502.65159071307</v>
       </c>
       <c r="F38" t="n">
         <v>37614.82907623246</v>
@@ -2491,10 +2491,10 @@
         <v>37591.38057949747</v>
       </c>
       <c r="D39" t="n">
-        <v>30723.08911564513</v>
+        <v>30718.79540888723</v>
       </c>
       <c r="E39" t="n">
-        <v>37503.51242562628</v>
+        <v>37516.76794085658</v>
       </c>
       <c r="F39" t="n">
         <v>37591.38057949747</v>
@@ -2544,10 +2544,10 @@
         <v>37570.70878221507</v>
       </c>
       <c r="D40" t="n">
-        <v>32111.09511851854</v>
+        <v>32047.07582167551</v>
       </c>
       <c r="E40" t="n">
-        <v>38766.14818365108</v>
+        <v>38592.25375221797</v>
       </c>
       <c r="F40" t="n">
         <v>37570.70878221507</v>
@@ -2597,10 +2597,10 @@
         <v>37547.82214950956</v>
       </c>
       <c r="D41" t="n">
-        <v>32283.4388779621</v>
+        <v>32081.05935870282</v>
       </c>
       <c r="E41" t="n">
-        <v>38828.67856315804</v>
+        <v>38766.47466986842</v>
       </c>
       <c r="F41" t="n">
         <v>37547.82214950956</v>
@@ -2650,10 +2650,10 @@
         <v>37638.4592884378</v>
       </c>
       <c r="D42" t="n">
-        <v>33002.47049853535</v>
+        <v>33140.89646555155</v>
       </c>
       <c r="E42" t="n">
-        <v>39618.06721819485</v>
+        <v>39593.72877123741</v>
       </c>
       <c r="F42" t="n">
         <v>37638.4592884378</v>
@@ -2703,10 +2703,10 @@
         <v>37732.11766533033</v>
       </c>
       <c r="D43" t="n">
-        <v>33102.0087158297</v>
+        <v>33010.12114959922</v>
       </c>
       <c r="E43" t="n">
-        <v>39508.66155086906</v>
+        <v>39700.60432199852</v>
       </c>
       <c r="F43" t="n">
         <v>37732.11766533033</v>
@@ -2756,10 +2756,10 @@
         <v>37822.9805892697</v>
       </c>
       <c r="D44" t="n">
-        <v>37272.70752067833</v>
+        <v>36971.18350934738</v>
       </c>
       <c r="E44" t="n">
-        <v>43724.04509212209</v>
+        <v>43626.52697220725</v>
       </c>
       <c r="F44" t="n">
         <v>37822.9805892697</v>
@@ -2809,10 +2809,10 @@
         <v>37917.22608306733</v>
       </c>
       <c r="D45" t="n">
-        <v>39918.97940865832</v>
+        <v>40055.50268714627</v>
       </c>
       <c r="E45" t="n">
-        <v>46668.82108684601</v>
+        <v>46617.41782619874</v>
       </c>
       <c r="F45" t="n">
         <v>37917.22608306733</v>
@@ -2862,10 +2862,10 @@
         <v>38011.47157686497</v>
       </c>
       <c r="D46" t="n">
-        <v>33478.31325551202</v>
+        <v>33630.42383812465</v>
       </c>
       <c r="E46" t="n">
-        <v>40176.7241589898</v>
+        <v>40130.41672825276</v>
       </c>
       <c r="F46" t="n">
         <v>38011.47157686497</v>
@@ -2915,10 +2915,10 @@
         <v>38102.68333701755</v>
       </c>
       <c r="D47" t="n">
-        <v>36518.11214881982</v>
+        <v>36645.59805075751</v>
       </c>
       <c r="E47" t="n">
-        <v>43388.16207736933</v>
+        <v>43313.67901527374</v>
       </c>
       <c r="F47" t="n">
         <v>38102.68333701755</v>
@@ -2968,10 +2968,10 @@
         <v>38196.93548917523</v>
       </c>
       <c r="D48" t="n">
-        <v>30740.63035182181</v>
+        <v>30771.44496337063</v>
       </c>
       <c r="E48" t="n">
-        <v>37421.60042380032</v>
+        <v>37608.33696365785</v>
       </c>
       <c r="F48" t="n">
         <v>38196.93548917523</v>
@@ -3021,10 +3021,10 @@
         <v>38288.21297865607</v>
       </c>
       <c r="D49" t="n">
-        <v>35057.06942111182</v>
+        <v>35095.41473837724</v>
       </c>
       <c r="E49" t="n">
-        <v>41801.42910904565</v>
+        <v>41675.33420638872</v>
       </c>
       <c r="F49" t="n">
         <v>38288.21297865607</v>
@@ -3074,10 +3074,10 @@
         <v>38382.53305190056</v>
       </c>
       <c r="D50" t="n">
-        <v>36455.0248662934</v>
+        <v>36222.29967097855</v>
       </c>
       <c r="E50" t="n">
-        <v>42679.8865133114</v>
+        <v>42874.2107364357</v>
       </c>
       <c r="F50" t="n">
         <v>38382.53305190056</v>
@@ -3127,10 +3127,10 @@
         <v>38476.85312514504</v>
       </c>
       <c r="D51" t="n">
-        <v>32975.91146657804</v>
+        <v>32839.07741654007</v>
       </c>
       <c r="E51" t="n">
-        <v>39832.95589614044</v>
+        <v>39710.61110929085</v>
       </c>
       <c r="F51" t="n">
         <v>38476.85312514504</v>
@@ -3180,10 +3180,10 @@
         <v>38565.08803613963</v>
       </c>
       <c r="D52" t="n">
-        <v>36167.47420188139</v>
+        <v>36067.98522812573</v>
       </c>
       <c r="E52" t="n">
-        <v>42522.39605893828</v>
+        <v>42614.26832633957</v>
       </c>
       <c r="F52" t="n">
         <v>38565.08803613963</v>
@@ -3233,10 +3233,10 @@
         <v>38659.40811340972</v>
       </c>
       <c r="D53" t="n">
-        <v>32144.49045888059</v>
+        <v>32202.83299949524</v>
       </c>
       <c r="E53" t="n">
-        <v>38635.05723221674</v>
+        <v>38892.28915165772</v>
       </c>
       <c r="F53" t="n">
         <v>38659.40811340972</v>
@@ -3286,10 +3286,10 @@
         <v>38750.68560754206</v>
       </c>
       <c r="D54" t="n">
-        <v>33925.80010014478</v>
+        <v>33771.74797434897</v>
       </c>
       <c r="E54" t="n">
-        <v>40622.73510589475</v>
+        <v>40761.96026828221</v>
       </c>
       <c r="F54" t="n">
         <v>38750.68560754206</v>
@@ -3339,10 +3339,10 @@
         <v>38845.00568481214</v>
       </c>
       <c r="D55" t="n">
-        <v>37283.64724674338</v>
+        <v>37161.07954824789</v>
       </c>
       <c r="E55" t="n">
-        <v>43705.93825655508</v>
+        <v>43663.56529370716</v>
       </c>
       <c r="F55" t="n">
         <v>38845.00568481214</v>
@@ -3392,10 +3392,10 @@
         <v>38936.28317894448</v>
       </c>
       <c r="D56" t="n">
-        <v>35254.63390953679</v>
+        <v>35157.650629257</v>
       </c>
       <c r="E56" t="n">
-        <v>41971.29489513894</v>
+        <v>41679.82742005</v>
       </c>
       <c r="F56" t="n">
         <v>38936.28317894448</v>
@@ -3445,10 +3445,10 @@
         <v>39030.60325621456</v>
       </c>
       <c r="D57" t="n">
-        <v>39956.67340993555</v>
+        <v>40107.74220812423</v>
       </c>
       <c r="E57" t="n">
-        <v>47010.74893746884</v>
+        <v>46812.56905534831</v>
       </c>
       <c r="F57" t="n">
         <v>39030.60325621456</v>
@@ -3498,10 +3498,10 @@
         <v>39124.92333348464</v>
       </c>
       <c r="D58" t="n">
-        <v>37163.3387106673</v>
+        <v>36909.78524049134</v>
       </c>
       <c r="E58" t="n">
-        <v>43702.20808425876</v>
+        <v>43571.74492785758</v>
       </c>
       <c r="F58" t="n">
         <v>39124.92333348464</v>
@@ -3551,10 +3551,10 @@
         <v>39216.20082761698</v>
       </c>
       <c r="D59" t="n">
-        <v>35584.26612698197</v>
+        <v>35755.90479047868</v>
       </c>
       <c r="E59" t="n">
-        <v>42172.3508056685</v>
+        <v>42312.73768746027</v>
       </c>
       <c r="F59" t="n">
         <v>39216.20082761698</v>
@@ -3604,10 +3604,10 @@
         <v>39310.52090488706</v>
       </c>
       <c r="D60" t="n">
-        <v>34419.54711642258</v>
+        <v>34441.54931349994</v>
       </c>
       <c r="E60" t="n">
-        <v>40911.55249147299</v>
+        <v>41152.718710704</v>
       </c>
       <c r="F60" t="n">
         <v>39310.52090488706</v>
@@ -3657,10 +3657,10 @@
         <v>39401.7983990194</v>
       </c>
       <c r="D61" t="n">
-        <v>35489.98181271289</v>
+        <v>35528.07950265821</v>
       </c>
       <c r="E61" t="n">
-        <v>41996.39303598113</v>
+        <v>41979.88975255172</v>
       </c>
       <c r="F61" t="n">
         <v>39401.7983990194</v>
@@ -3710,10 +3710,10 @@
         <v>39496.11847628948</v>
       </c>
       <c r="D62" t="n">
-        <v>38289.9161495907</v>
+        <v>38257.24589739231</v>
       </c>
       <c r="E62" t="n">
-        <v>45133.99072300725</v>
+        <v>45189.2716744811</v>
       </c>
       <c r="F62" t="n">
         <v>39496.11847628948</v>
@@ -3763,10 +3763,10 @@
         <v>39590.43855355956</v>
       </c>
       <c r="D63" t="n">
-        <v>30204.72821063123</v>
+        <v>30596.83852429794</v>
       </c>
       <c r="E63" t="n">
-        <v>37132.28893196912</v>
+        <v>36806.11885685086</v>
       </c>
       <c r="F63" t="n">
         <v>39590.43855355956</v>
@@ -3816,10 +3816,10 @@
         <v>39675.63088141641</v>
       </c>
       <c r="D64" t="n">
-        <v>35995.50494322143</v>
+        <v>36120.63431592046</v>
       </c>
       <c r="E64" t="n">
-        <v>42919.9548151234</v>
+        <v>42605.84932942025</v>
       </c>
       <c r="F64" t="n">
         <v>39675.63088141641</v>
@@ -3869,10 +3869,10 @@
         <v>39769.95095868649</v>
       </c>
       <c r="D65" t="n">
-        <v>33935.06833974335</v>
+        <v>33928.95423301429</v>
       </c>
       <c r="E65" t="n">
-        <v>40223.83185250426</v>
+        <v>40639.9108166427</v>
       </c>
       <c r="F65" t="n">
         <v>39769.95095868649</v>
@@ -3922,10 +3922,10 @@
         <v>39861.22845281883</v>
       </c>
       <c r="D66" t="n">
-        <v>35225.92444418474</v>
+        <v>34850.3532761211</v>
       </c>
       <c r="E66" t="n">
-        <v>41545.81637642174</v>
+        <v>41889.12210277392</v>
       </c>
       <c r="F66" t="n">
         <v>39861.22845281883</v>
@@ -3975,10 +3975,10 @@
         <v>39955.5485300889</v>
       </c>
       <c r="D67" t="n">
-        <v>37119.61519832421</v>
+        <v>37300.34963072768</v>
       </c>
       <c r="E67" t="n">
-        <v>44338.72211049302</v>
+        <v>43607.47555520603</v>
       </c>
       <c r="F67" t="n">
         <v>39955.5485300889</v>
@@ -4028,10 +4028,10 @@
         <v>40046.82602422125</v>
       </c>
       <c r="D68" t="n">
-        <v>37100.77188812866</v>
+        <v>37299.85997046382</v>
       </c>
       <c r="E68" t="n">
-        <v>44022.46860144938</v>
+        <v>43995.98732740819</v>
       </c>
       <c r="F68" t="n">
         <v>40046.82602422125</v>
@@ -4081,10 +4081,10 @@
         <v>40141.14610149133</v>
       </c>
       <c r="D69" t="n">
-        <v>41583.9806849954</v>
+        <v>41316.48497291763</v>
       </c>
       <c r="E69" t="n">
-        <v>48159.28249082043</v>
+        <v>48290.41233505895</v>
       </c>
       <c r="F69" t="n">
         <v>40141.14610149133</v>
@@ -4134,10 +4134,10 @@
         <v>40235.46617876141</v>
       </c>
       <c r="D70" t="n">
-        <v>37185.90645292174</v>
+        <v>37365.18575708484</v>
       </c>
       <c r="E70" t="n">
-        <v>43989.04749335931</v>
+        <v>43785.92095160943</v>
       </c>
       <c r="F70" t="n">
         <v>40235.46617876141</v>
@@ -4187,10 +4187,10 @@
         <v>40326.74367289375</v>
       </c>
       <c r="D71" t="n">
-        <v>37710.0769120056</v>
+        <v>37606.75464932666</v>
       </c>
       <c r="E71" t="n">
-        <v>44111.89527195441</v>
+        <v>44046.51745805184</v>
       </c>
       <c r="F71" t="n">
         <v>40326.74367289375</v>
@@ -4240,10 +4240,10 @@
         <v>40421.06375016383</v>
       </c>
       <c r="D72" t="n">
-        <v>34638.95158584633</v>
+        <v>34629.23809338768</v>
       </c>
       <c r="E72" t="n">
-        <v>41474.91564093465</v>
+        <v>41277.00937746187</v>
       </c>
       <c r="F72" t="n">
         <v>40421.06375016383</v>
@@ -4293,10 +4293,10 @@
         <v>40512.34124429617</v>
       </c>
       <c r="D73" t="n">
-        <v>36979.58642442247</v>
+        <v>36652.60176005925</v>
       </c>
       <c r="E73" t="n">
-        <v>43768.9378636827</v>
+        <v>43265.33554787985</v>
       </c>
       <c r="F73" t="n">
         <v>40512.34124429617</v>
@@ -4346,10 +4346,10 @@
         <v>40606.66132156625</v>
       </c>
       <c r="D74" t="n">
-        <v>39294.0582588967</v>
+        <v>39147.85286892</v>
       </c>
       <c r="E74" t="n">
-        <v>45883.69415953881</v>
+        <v>46020.29796498991</v>
       </c>
       <c r="F74" t="n">
         <v>40606.66132156625</v>
@@ -4399,10 +4399,10 @@
         <v>40700.98139883633</v>
       </c>
       <c r="D75" t="n">
-        <v>32467.03337653136</v>
+        <v>32663.86307743042</v>
       </c>
       <c r="E75" t="n">
-        <v>39484.15003482412</v>
+        <v>39418.45829674129</v>
       </c>
       <c r="F75" t="n">
         <v>40700.98139883633</v>
@@ -4452,10 +4452,10 @@
         <v>40786.17372669318</v>
       </c>
       <c r="D76" t="n">
-        <v>36377.44224622405</v>
+        <v>36073.67591447123</v>
       </c>
       <c r="E76" t="n">
-        <v>42857.74184443904</v>
+        <v>42942.95237023268</v>
       </c>
       <c r="F76" t="n">
         <v>40786.17372669318</v>
@@ -4505,10 +4505,10 @@
         <v>40880.49380396326</v>
       </c>
       <c r="D77" t="n">
-        <v>35058.11233095004</v>
+        <v>35196.62605710245</v>
       </c>
       <c r="E77" t="n">
-        <v>41768.42341470935</v>
+        <v>41800.71504441067</v>
       </c>
       <c r="F77" t="n">
         <v>40880.49380396326</v>
@@ -4558,16 +4558,16 @@
         <v>40971.77129809561</v>
       </c>
       <c r="D78" t="n">
-        <v>36254.42313068416</v>
+        <v>36506.45227787403</v>
       </c>
       <c r="E78" t="n">
-        <v>42829.48015886114</v>
+        <v>42872.5179757291</v>
       </c>
       <c r="F78" t="n">
-        <v>40970.54657486954</v>
+        <v>40970.17162990745</v>
       </c>
       <c r="G78" t="n">
-        <v>40973.60282444797</v>
+        <v>40972.87677122407</v>
       </c>
       <c r="H78" t="n">
         <v>-1354.752303139179</v>
@@ -4611,16 +4611,16 @@
         <v>41066.09137536568</v>
       </c>
       <c r="D79" t="n">
-        <v>37375.01984722548</v>
+        <v>37255.35846164494</v>
       </c>
       <c r="E79" t="n">
-        <v>44258.64278239107</v>
+        <v>43849.93730399235</v>
       </c>
       <c r="F79" t="n">
-        <v>41057.00001957137</v>
+        <v>41055.4267063762</v>
       </c>
       <c r="G79" t="n">
-        <v>41075.24733045294</v>
+        <v>41075.53017783003</v>
       </c>
       <c r="H79" t="n">
         <v>-396.0191734072602</v>
@@ -4664,16 +4664,16 @@
         <v>41157.36886949802</v>
       </c>
       <c r="D80" t="n">
-        <v>39263.31452688827</v>
+        <v>39283.41973007807</v>
       </c>
       <c r="E80" t="n">
-        <v>46016.5780623438</v>
+        <v>46145.3674236369</v>
       </c>
       <c r="F80" t="n">
-        <v>41136.62488431743</v>
+        <v>41134.84480347447</v>
       </c>
       <c r="G80" t="n">
-        <v>41178.03603599779</v>
+        <v>41179.14753571078</v>
       </c>
       <c r="H80" t="n">
         <v>1608.583719829312</v>
@@ -4717,16 +4717,16 @@
         <v>41251.6889467681</v>
       </c>
       <c r="D81" t="n">
-        <v>43075.64858894486</v>
+        <v>43071.55545574297</v>
       </c>
       <c r="E81" t="n">
-        <v>49800.41517009311</v>
+        <v>49813.3482025773</v>
       </c>
       <c r="F81" t="n">
-        <v>41214.53903687996</v>
+        <v>41214.73906610669</v>
       </c>
       <c r="G81" t="n">
-        <v>41285.49603267153</v>
+        <v>41285.54109234941</v>
       </c>
       <c r="H81" t="n">
         <v>4990.430882333844</v>
@@ -4770,16 +4770,16 @@
         <v>41346.00902403818</v>
       </c>
       <c r="D82" t="n">
-        <v>37459.41848166137</v>
+        <v>37726.76920440386</v>
       </c>
       <c r="E82" t="n">
-        <v>44273.07631123837</v>
+        <v>44403.09190679613</v>
       </c>
       <c r="F82" t="n">
-        <v>41292.97657927802</v>
+        <v>41289.60335694246</v>
       </c>
       <c r="G82" t="n">
-        <v>41397.12231728427</v>
+        <v>41394.01402017749</v>
       </c>
       <c r="H82" t="n">
         <v>-341.7680503843694</v>
@@ -4823,16 +4823,16 @@
         <v>41437.28651817052</v>
       </c>
       <c r="D83" t="n">
-        <v>38934.03891107817</v>
+        <v>39354.51716529674</v>
       </c>
       <c r="E83" t="n">
-        <v>45840.16790032142</v>
+        <v>45991.0660218136</v>
       </c>
       <c r="F83" t="n">
-        <v>41365.51091639831</v>
+        <v>41362.5479860167</v>
       </c>
       <c r="G83" t="n">
-        <v>41504.97673931322</v>
+        <v>41503.96535829176</v>
       </c>
       <c r="H83" t="n">
         <v>1195.501825247604</v>
@@ -4876,16 +4876,16 @@
         <v>41531.6065954406</v>
       </c>
       <c r="D84" t="n">
-        <v>35008.90647929184</v>
+        <v>34824.96163146289</v>
       </c>
       <c r="E84" t="n">
-        <v>41855.54684765534</v>
+        <v>41525.85690596921</v>
       </c>
       <c r="F84" t="n">
-        <v>41439.30080981345</v>
+        <v>41439.91192263635</v>
       </c>
       <c r="G84" t="n">
-        <v>41617.50408944966</v>
+        <v>41615.34138284607</v>
       </c>
       <c r="H84" t="n">
         <v>-3249.494739644947</v>
@@ -4929,16 +4929,16 @@
         <v>41622.88408957294</v>
       </c>
       <c r="D85" t="n">
-        <v>38286.7452652226</v>
+        <v>38183.73376461455</v>
       </c>
       <c r="E85" t="n">
-        <v>44665.6033497155</v>
+        <v>44855.365087339</v>
       </c>
       <c r="F85" t="n">
-        <v>41510.82912763482</v>
+        <v>41506.92137374662</v>
       </c>
       <c r="G85" t="n">
-        <v>41726.44019811997</v>
+        <v>41723.43290905497</v>
       </c>
       <c r="H85" t="n">
         <v>-157.6749561105401</v>
@@ -4982,16 +4982,16 @@
         <v>41717.20416684302</v>
       </c>
       <c r="D86" t="n">
-        <v>40034.21164812631</v>
+        <v>39691.5470771423</v>
       </c>
       <c r="E86" t="n">
-        <v>46573.14782393201</v>
+        <v>46296.72542009675</v>
       </c>
       <c r="F86" t="n">
-        <v>41581.97934740865</v>
+        <v>41579.29404743554</v>
       </c>
       <c r="G86" t="n">
-        <v>41844.75558976312</v>
+        <v>41834.25534732532</v>
       </c>
       <c r="H86" t="n">
         <v>1521.154834419779</v>
@@ -5035,16 +5035,16 @@
         <v>41811.5242441131</v>
       </c>
       <c r="D87" t="n">
-        <v>35082.16115811466</v>
+        <v>35016.50386846234</v>
       </c>
       <c r="E87" t="n">
-        <v>41724.2796055431</v>
+        <v>41872.10253784594</v>
       </c>
       <c r="F87" t="n">
-        <v>41651.37655629007</v>
+        <v>41650.67960156647</v>
       </c>
       <c r="G87" t="n">
-        <v>41963.90211259044</v>
+        <v>41946.77513181676</v>
       </c>
       <c r="H87" t="n">
         <v>-3421.141258969477</v>
@@ -5088,16 +5088,16 @@
         <v>41896.71657196996</v>
       </c>
       <c r="D88" t="n">
-        <v>36516.98191506247</v>
+        <v>36265.55869596159</v>
       </c>
       <c r="E88" t="n">
-        <v>43148.51462980721</v>
+        <v>42985.13767629126</v>
       </c>
       <c r="F88" t="n">
-        <v>41714.01896169592</v>
+        <v>41712.19990422585</v>
       </c>
       <c r="G88" t="n">
-        <v>42066.58339575928</v>
+        <v>42053.50967057861</v>
       </c>
       <c r="H88" t="n">
         <v>-2217.764702667935</v>
@@ -5141,16 +5141,16 @@
         <v>41991.03664924004</v>
       </c>
       <c r="D89" t="n">
-        <v>36719.58665112228</v>
+        <v>36433.93455601514</v>
       </c>
       <c r="E89" t="n">
-        <v>43365.35646813334</v>
+        <v>43154.77328785143</v>
       </c>
       <c r="F89" t="n">
-        <v>41784.22228692953</v>
+        <v>41780.40990383057</v>
       </c>
       <c r="G89" t="n">
-        <v>42184.00067665408</v>
+        <v>42168.10288723428</v>
       </c>
       <c r="H89" t="n">
         <v>-2054.652543718245</v>
@@ -5194,16 +5194,16 @@
         <v>42082.31414337237</v>
       </c>
       <c r="D90" t="n">
-        <v>37295.78719308917</v>
+        <v>37457.85112172837</v>
       </c>
       <c r="E90" t="n">
-        <v>44159.44690067098</v>
+        <v>44178.25353563426</v>
       </c>
       <c r="F90" t="n">
-        <v>41842.24043744046</v>
+        <v>41845.3157959559</v>
       </c>
       <c r="G90" t="n">
-        <v>42298.80845810604</v>
+        <v>42283.97809118342</v>
       </c>
       <c r="H90" t="n">
         <v>-1302.437075859541</v>
@@ -5247,16 +5247,16 @@
         <v>42176.63422064245</v>
       </c>
       <c r="D91" t="n">
-        <v>37384.12203000968</v>
+        <v>37480.62747813843</v>
       </c>
       <c r="E91" t="n">
-        <v>44323.4700197033</v>
+        <v>44187.03211800658</v>
       </c>
       <c r="F91" t="n">
-        <v>41905.97108397754</v>
+        <v>41908.26313910843</v>
       </c>
       <c r="G91" t="n">
-        <v>42418.04576806276</v>
+        <v>42405.94098967227</v>
       </c>
       <c r="H91" t="n">
         <v>-1350.257601683536</v>
@@ -5300,16 +5300,16 @@
         <v>42267.91171477479</v>
       </c>
       <c r="D92" t="n">
-        <v>41462.77119054826</v>
+        <v>41366.38886906777</v>
       </c>
       <c r="E92" t="n">
-        <v>48198.53256754415</v>
+        <v>47940.60276928453</v>
       </c>
       <c r="F92" t="n">
-        <v>41969.50444758021</v>
+        <v>41966.51986544242</v>
       </c>
       <c r="G92" t="n">
-        <v>42531.27361574494</v>
+        <v>42529.62350359361</v>
       </c>
       <c r="H92" t="n">
         <v>2601.486494319928</v>
@@ -5353,16 +5353,16 @@
         <v>42362.23179204488</v>
       </c>
       <c r="D93" t="n">
-        <v>44366.44187084158</v>
+        <v>44258.56122007047</v>
       </c>
       <c r="E93" t="n">
-        <v>51134.94893123872</v>
+        <v>50971.43964700842</v>
       </c>
       <c r="F93" t="n">
-        <v>42034.20299386547</v>
+        <v>42025.39871620025</v>
       </c>
       <c r="G93" t="n">
-        <v>42650.85961689719</v>
+        <v>42652.78828025987</v>
       </c>
       <c r="H93" t="n">
         <v>5298.150733467012</v>
@@ -5406,16 +5406,16 @@
         <v>42456.55186931496</v>
       </c>
       <c r="D94" t="n">
-        <v>38018.39227711483</v>
+        <v>37863.532459905</v>
       </c>
       <c r="E94" t="n">
-        <v>44735.16375164462</v>
+        <v>44688.08610125327</v>
       </c>
       <c r="F94" t="n">
-        <v>42096.19835998027</v>
+        <v>42087.23185378214</v>
       </c>
       <c r="G94" t="n">
-        <v>42781.76910381967</v>
+        <v>42777.57672249683</v>
       </c>
       <c r="H94" t="n">
         <v>-1113.54925328291</v>

--- a/outputs/wl_sales_monthly.xlsx
+++ b/outputs/wl_sales_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>41341.01857807842</v>
+        <v>39029.74680719076</v>
       </c>
       <c r="D2" t="n">
-        <v>39342.13215927594</v>
+        <v>31883.12790672134</v>
       </c>
       <c r="E2" t="n">
-        <v>45657.63638854918</v>
+        <v>45111.54623238136</v>
       </c>
       <c r="F2" t="n">
-        <v>41341.01857807842</v>
+        <v>39029.74680719076</v>
       </c>
       <c r="G2" t="n">
-        <v>41341.01857807842</v>
+        <v>39029.74680719076</v>
       </c>
       <c r="H2" t="n">
-        <v>1108.482700251426</v>
+        <v>-672.2060238956976</v>
       </c>
       <c r="I2" t="n">
-        <v>1108.482700251426</v>
+        <v>-672.2060238956976</v>
       </c>
       <c r="J2" t="n">
-        <v>1108.482700251426</v>
+        <v>-672.2060238956976</v>
       </c>
       <c r="K2" t="n">
-        <v>1108.482700251426</v>
+        <v>-672.2060238956976</v>
       </c>
       <c r="L2" t="n">
-        <v>1108.482700251426</v>
+        <v>-672.2060238956976</v>
       </c>
       <c r="M2" t="n">
-        <v>1108.482700251426</v>
+        <v>-672.2060238956976</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>42449.50127832984</v>
+        <v>38357.54078329507</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>41215.76437435042</v>
+        <v>39121.15698757137</v>
       </c>
       <c r="D3" t="n">
-        <v>35671.38263480637</v>
+        <v>24260.4207786482</v>
       </c>
       <c r="E3" t="n">
-        <v>42276.60219665132</v>
+        <v>36498.09148748103</v>
       </c>
       <c r="F3" t="n">
-        <v>41215.76437435042</v>
+        <v>39121.15698757137</v>
       </c>
       <c r="G3" t="n">
-        <v>41215.76437435042</v>
+        <v>39121.15698757137</v>
       </c>
       <c r="H3" t="n">
-        <v>-2181.457569926726</v>
+        <v>-8188.646334896782</v>
       </c>
       <c r="I3" t="n">
-        <v>-2181.457569926726</v>
+        <v>-8188.646334896782</v>
       </c>
       <c r="J3" t="n">
-        <v>-2181.457569926726</v>
+        <v>-8188.646334896782</v>
       </c>
       <c r="K3" t="n">
-        <v>-2181.457569926726</v>
+        <v>-8188.646334896782</v>
       </c>
       <c r="L3" t="n">
-        <v>-2181.457569926726</v>
+        <v>-8188.646334896782</v>
       </c>
       <c r="M3" t="n">
-        <v>-2181.457569926726</v>
+        <v>-8188.646334896782</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39034.30680442369</v>
+        <v>30932.51065267459</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>41098.59108699196</v>
+        <v>39203.72102146352</v>
       </c>
       <c r="D4" t="n">
-        <v>38760.29517110637</v>
+        <v>33996.90044050047</v>
       </c>
       <c r="E4" t="n">
-        <v>45407.63821594926</v>
+        <v>46632.78638174808</v>
       </c>
       <c r="F4" t="n">
-        <v>41098.59108699196</v>
+        <v>39203.72102146352</v>
       </c>
       <c r="G4" t="n">
-        <v>41098.59108699196</v>
+        <v>39203.72102146352</v>
       </c>
       <c r="H4" t="n">
-        <v>787.8224444949359</v>
+        <v>1170.504512808975</v>
       </c>
       <c r="I4" t="n">
-        <v>787.8224444949359</v>
+        <v>1170.504512808975</v>
       </c>
       <c r="J4" t="n">
-        <v>787.8224444949359</v>
+        <v>1170.504512808975</v>
       </c>
       <c r="K4" t="n">
-        <v>787.8224444949359</v>
+        <v>1170.504512808975</v>
       </c>
       <c r="L4" t="n">
-        <v>787.8224444949359</v>
+        <v>1170.504512808975</v>
       </c>
       <c r="M4" t="n">
-        <v>787.8224444949359</v>
+        <v>1170.504512808975</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41886.4135314869</v>
+        <v>40374.2255342725</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>40973.33688376282</v>
+        <v>39295.13120183012</v>
       </c>
       <c r="D5" t="n">
-        <v>34603.23681831355</v>
+        <v>30906.40515283105</v>
       </c>
       <c r="E5" t="n">
-        <v>41420.65633186486</v>
+        <v>43645.0033262116</v>
       </c>
       <c r="F5" t="n">
-        <v>40973.33688376282</v>
+        <v>39295.13120183012</v>
       </c>
       <c r="G5" t="n">
-        <v>40973.33688376282</v>
+        <v>39295.13120183012</v>
       </c>
       <c r="H5" t="n">
-        <v>-2992.479681748095</v>
+        <v>-2145.834170271637</v>
       </c>
       <c r="I5" t="n">
-        <v>-2992.479681748095</v>
+        <v>-2145.834170271637</v>
       </c>
       <c r="J5" t="n">
-        <v>-2992.479681748095</v>
+        <v>-2145.834170271637</v>
       </c>
       <c r="K5" t="n">
-        <v>-2992.479681748095</v>
+        <v>-2145.834170271637</v>
       </c>
       <c r="L5" t="n">
-        <v>-2992.479681748095</v>
+        <v>-2145.834170271637</v>
       </c>
       <c r="M5" t="n">
-        <v>-2992.479681748095</v>
+        <v>-2145.834170271637</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>37980.85720201473</v>
+        <v>37149.29703155848</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>40852.12313815514</v>
+        <v>39383.59266670102</v>
       </c>
       <c r="D6" t="n">
-        <v>35976.50856218793</v>
+        <v>31509.58941037713</v>
       </c>
       <c r="E6" t="n">
-        <v>42691.90765489028</v>
+        <v>43800.68117620948</v>
       </c>
       <c r="F6" t="n">
-        <v>40852.12313815514</v>
+        <v>39383.59266670102</v>
       </c>
       <c r="G6" t="n">
-        <v>40852.12313815514</v>
+        <v>39383.59266670102</v>
       </c>
       <c r="H6" t="n">
-        <v>-1488.631489767075</v>
+        <v>-1784.685457033464</v>
       </c>
       <c r="I6" t="n">
-        <v>-1488.631489767075</v>
+        <v>-1784.685457033464</v>
       </c>
       <c r="J6" t="n">
-        <v>-1488.631489767075</v>
+        <v>-1784.685457033464</v>
       </c>
       <c r="K6" t="n">
-        <v>-1488.631489767075</v>
+        <v>-1784.685457033464</v>
       </c>
       <c r="L6" t="n">
-        <v>-1488.631489767075</v>
+        <v>-1784.685457033464</v>
       </c>
       <c r="M6" t="n">
-        <v>-1488.631489767075</v>
+        <v>-1784.685457033464</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39363.49164838807</v>
+        <v>37598.90720966756</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>40726.86893436054</v>
+        <v>39475.00284741898</v>
       </c>
       <c r="D7" t="n">
-        <v>39057.08584117144</v>
+        <v>31824.03989480373</v>
       </c>
       <c r="E7" t="n">
-        <v>45626.56639207217</v>
+        <v>44244.19299006835</v>
       </c>
       <c r="F7" t="n">
-        <v>40726.86893436054</v>
+        <v>39475.00284741898</v>
       </c>
       <c r="G7" t="n">
-        <v>40726.86893436054</v>
+        <v>39475.00284741898</v>
       </c>
       <c r="H7" t="n">
-        <v>1551.59973270475</v>
+        <v>-1347.824953590778</v>
       </c>
       <c r="I7" t="n">
-        <v>1551.59973270475</v>
+        <v>-1347.824953590778</v>
       </c>
       <c r="J7" t="n">
-        <v>1551.59973270475</v>
+        <v>-1347.824953590778</v>
       </c>
       <c r="K7" t="n">
-        <v>1551.59973270475</v>
+        <v>-1347.824953590778</v>
       </c>
       <c r="L7" t="n">
-        <v>1551.59973270475</v>
+        <v>-1347.824953590778</v>
       </c>
       <c r="M7" t="n">
-        <v>1551.59973270475</v>
+        <v>-1347.824953590778</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42278.4686670653</v>
+        <v>38127.17789382821</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>40605.65518826458</v>
+        <v>39563.46431262993</v>
       </c>
       <c r="D8" t="n">
-        <v>36722.68746129231</v>
+        <v>34356.86792840978</v>
       </c>
       <c r="E8" t="n">
-        <v>43458.05420448302</v>
+        <v>46982.9256565006</v>
       </c>
       <c r="F8" t="n">
-        <v>40605.65518826458</v>
+        <v>39563.46431262993</v>
       </c>
       <c r="G8" t="n">
-        <v>40605.65518826458</v>
+        <v>39563.46431262993</v>
       </c>
       <c r="H8" t="n">
-        <v>-334.4993233884692</v>
+        <v>1331.651963446973</v>
       </c>
       <c r="I8" t="n">
-        <v>-334.4993233884692</v>
+        <v>1331.651963446973</v>
       </c>
       <c r="J8" t="n">
-        <v>-334.4993233884692</v>
+        <v>1331.651963446973</v>
       </c>
       <c r="K8" t="n">
-        <v>-334.4993233884692</v>
+        <v>1331.651963446973</v>
       </c>
       <c r="L8" t="n">
-        <v>-334.4993233884692</v>
+        <v>1331.651963446973</v>
       </c>
       <c r="M8" t="n">
-        <v>-334.4993233884692</v>
+        <v>1331.651963446973</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>40271.15586487611</v>
+        <v>40895.1162760769</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>40480.40098396541</v>
+        <v>39654.87449376826</v>
       </c>
       <c r="D9" t="n">
-        <v>41252.13317087439</v>
+        <v>37520.06976770348</v>
       </c>
       <c r="E9" t="n">
-        <v>48016.77210280263</v>
+        <v>50075.88729043158</v>
       </c>
       <c r="F9" t="n">
-        <v>40480.40098396541</v>
+        <v>39654.87449376826</v>
       </c>
       <c r="G9" t="n">
-        <v>40480.40098396541</v>
+        <v>39654.87449376826</v>
       </c>
       <c r="H9" t="n">
-        <v>4312.835292610857</v>
+        <v>4196.27697012477</v>
       </c>
       <c r="I9" t="n">
-        <v>4312.835292610857</v>
+        <v>4196.27697012477</v>
       </c>
       <c r="J9" t="n">
-        <v>4312.835292610857</v>
+        <v>4196.27697012477</v>
       </c>
       <c r="K9" t="n">
-        <v>4312.835292610857</v>
+        <v>4196.27697012477</v>
       </c>
       <c r="L9" t="n">
-        <v>4312.835292610857</v>
+        <v>4196.27697012477</v>
       </c>
       <c r="M9" t="n">
-        <v>4312.835292610857</v>
+        <v>4196.27697012477</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44793.23627657627</v>
+        <v>43851.15146389303</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>40355.14677981727</v>
+        <v>39746.28467490661</v>
       </c>
       <c r="D10" t="n">
-        <v>38427.31374056895</v>
+        <v>34714.1577865795</v>
       </c>
       <c r="E10" t="n">
-        <v>44962.2976149797</v>
+        <v>47406.06963054092</v>
       </c>
       <c r="F10" t="n">
-        <v>40355.14677981727</v>
+        <v>39746.28467490661</v>
       </c>
       <c r="G10" t="n">
-        <v>40355.14677981727</v>
+        <v>39746.28467490661</v>
       </c>
       <c r="H10" t="n">
-        <v>1197.863171887744</v>
+        <v>1122.495287460273</v>
       </c>
       <c r="I10" t="n">
-        <v>1197.863171887744</v>
+        <v>1122.495287460273</v>
       </c>
       <c r="J10" t="n">
-        <v>1197.863171887744</v>
+        <v>1122.495287460273</v>
       </c>
       <c r="K10" t="n">
-        <v>1197.863171887744</v>
+        <v>1122.495287460273</v>
       </c>
       <c r="L10" t="n">
-        <v>1197.863171887744</v>
+        <v>1122.495287460273</v>
       </c>
       <c r="M10" t="n">
-        <v>1197.863171887744</v>
+        <v>1122.495287460273</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41553.00995170502</v>
+        <v>40868.77996236688</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>40233.93303348569</v>
+        <v>39834.74614035399</v>
       </c>
       <c r="D11" t="n">
-        <v>36544.28217563242</v>
+        <v>34682.53880413866</v>
       </c>
       <c r="E11" t="n">
-        <v>43504.30908848725</v>
+        <v>47644.05983852028</v>
       </c>
       <c r="F11" t="n">
-        <v>40233.93303348569</v>
+        <v>39834.74614035399</v>
       </c>
       <c r="G11" t="n">
-        <v>40233.93303348569</v>
+        <v>39834.74614035399</v>
       </c>
       <c r="H11" t="n">
-        <v>-255.460811062183</v>
+        <v>1304.849874359284</v>
       </c>
       <c r="I11" t="n">
-        <v>-255.460811062183</v>
+        <v>1304.849874359284</v>
       </c>
       <c r="J11" t="n">
-        <v>-255.460811062183</v>
+        <v>1304.849874359284</v>
       </c>
       <c r="K11" t="n">
-        <v>-255.460811062183</v>
+        <v>1304.849874359284</v>
       </c>
       <c r="L11" t="n">
-        <v>-255.460811062183</v>
+        <v>1304.849874359284</v>
       </c>
       <c r="M11" t="n">
-        <v>-255.460811062183</v>
+        <v>1304.849874359284</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>39978.4722224235</v>
+        <v>41139.59601471327</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>40108.67882894304</v>
+        <v>39926.15632131627</v>
       </c>
       <c r="D12" t="n">
-        <v>34918.19438222112</v>
+        <v>31099.98557947409</v>
       </c>
       <c r="E12" t="n">
-        <v>41623.45032953315</v>
+        <v>44167.98019566842</v>
       </c>
       <c r="F12" t="n">
-        <v>40108.67882894304</v>
+        <v>39926.15632131627</v>
       </c>
       <c r="G12" t="n">
-        <v>40108.67882894304</v>
+        <v>39926.15632131627</v>
       </c>
       <c r="H12" t="n">
-        <v>-1668.184391286061</v>
+        <v>-2166.257453243524</v>
       </c>
       <c r="I12" t="n">
-        <v>-1668.184391286061</v>
+        <v>-2166.257453243524</v>
       </c>
       <c r="J12" t="n">
-        <v>-1668.184391286061</v>
+        <v>-2166.257453243524</v>
       </c>
       <c r="K12" t="n">
-        <v>-1668.184391286061</v>
+        <v>-2166.257453243524</v>
       </c>
       <c r="L12" t="n">
-        <v>-1668.184391286061</v>
+        <v>-2166.257453243524</v>
       </c>
       <c r="M12" t="n">
-        <v>-1668.184391286061</v>
+        <v>-2166.257453243524</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>38440.49443765698</v>
+        <v>37759.89886807275</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>39987.4650824863</v>
+        <v>40014.6177872585</v>
       </c>
       <c r="D13" t="n">
-        <v>35891.62348401129</v>
+        <v>29817.19429024295</v>
       </c>
       <c r="E13" t="n">
-        <v>42661.17033584206</v>
+        <v>42598.8309618211</v>
       </c>
       <c r="F13" t="n">
-        <v>39987.4650824863</v>
+        <v>40014.6177872585</v>
       </c>
       <c r="G13" t="n">
-        <v>39987.4650824863</v>
+        <v>40014.6177872585</v>
       </c>
       <c r="H13" t="n">
-        <v>-710.9075659156065</v>
+        <v>-3744.499957515473</v>
       </c>
       <c r="I13" t="n">
-        <v>-710.9075659156065</v>
+        <v>-3744.499957515473</v>
       </c>
       <c r="J13" t="n">
-        <v>-710.9075659156065</v>
+        <v>-3744.499957515473</v>
       </c>
       <c r="K13" t="n">
-        <v>-710.9075659156065</v>
+        <v>-3744.499957515473</v>
       </c>
       <c r="L13" t="n">
-        <v>-710.9075659156065</v>
+        <v>-3744.499957515473</v>
       </c>
       <c r="M13" t="n">
-        <v>-710.9075659156065</v>
+        <v>-3744.499957515473</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39276.55751657069</v>
+        <v>36270.11782974302</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>39862.21087781432</v>
+        <v>40106.02796873212</v>
       </c>
       <c r="D14" t="n">
-        <v>38919.49577988577</v>
+        <v>33550.00039273855</v>
       </c>
       <c r="E14" t="n">
-        <v>45710.33805015947</v>
+        <v>46166.90340024461</v>
       </c>
       <c r="F14" t="n">
-        <v>39862.21087781432</v>
+        <v>40106.02796873212</v>
       </c>
       <c r="G14" t="n">
-        <v>39862.21087781432</v>
+        <v>40106.02796873212</v>
       </c>
       <c r="H14" t="n">
-        <v>2383.509151640631</v>
+        <v>-105.1862578564026</v>
       </c>
       <c r="I14" t="n">
-        <v>2383.509151640631</v>
+        <v>-105.1862578564026</v>
       </c>
       <c r="J14" t="n">
-        <v>2383.509151640631</v>
+        <v>-105.1862578564026</v>
       </c>
       <c r="K14" t="n">
-        <v>2383.509151640631</v>
+        <v>-105.1862578564026</v>
       </c>
       <c r="L14" t="n">
-        <v>2383.509151640631</v>
+        <v>-105.1862578564026</v>
       </c>
       <c r="M14" t="n">
-        <v>2383.509151640631</v>
+        <v>-105.1862578564026</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>42245.72002945495</v>
+        <v>40000.84171087572</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>39736.95667536461</v>
+        <v>40197.43815064738</v>
       </c>
       <c r="D15" t="n">
-        <v>30417.32164462803</v>
+        <v>27207.62335045318</v>
       </c>
       <c r="E15" t="n">
-        <v>37063.60369248458</v>
+        <v>39583.66403935091</v>
       </c>
       <c r="F15" t="n">
-        <v>39736.95667536461</v>
+        <v>40197.43815064738</v>
       </c>
       <c r="G15" t="n">
-        <v>39736.95667536461</v>
+        <v>40197.43815064738</v>
       </c>
       <c r="H15" t="n">
-        <v>-5907.83864716884</v>
+        <v>-6820.499373239668</v>
       </c>
       <c r="I15" t="n">
-        <v>-5907.83864716884</v>
+        <v>-6820.499373239668</v>
       </c>
       <c r="J15" t="n">
-        <v>-5907.83864716884</v>
+        <v>-6820.499373239668</v>
       </c>
       <c r="K15" t="n">
-        <v>-5907.83864716884</v>
+        <v>-6820.499373239668</v>
       </c>
       <c r="L15" t="n">
-        <v>-5907.83864716884</v>
+        <v>-6820.499373239668</v>
       </c>
       <c r="M15" t="n">
-        <v>-5907.83864716884</v>
+        <v>-6820.499373239668</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>33829.11802819577</v>
+        <v>33376.93877740771</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>39623.8238469336</v>
+        <v>40280.00218592567</v>
       </c>
       <c r="D16" t="n">
-        <v>36314.63612454941</v>
+        <v>32436.39597769508</v>
       </c>
       <c r="E16" t="n">
-        <v>42673.62788814714</v>
+        <v>45704.50204852426</v>
       </c>
       <c r="F16" t="n">
-        <v>39623.8238469336</v>
+        <v>40280.00218592567</v>
       </c>
       <c r="G16" t="n">
-        <v>39623.8238469336</v>
+        <v>40280.00218592567</v>
       </c>
       <c r="H16" t="n">
-        <v>-202.6984475136257</v>
+        <v>-1161.131389163308</v>
       </c>
       <c r="I16" t="n">
-        <v>-202.6984475136257</v>
+        <v>-1161.131389163308</v>
       </c>
       <c r="J16" t="n">
-        <v>-202.6984475136257</v>
+        <v>-1161.131389163308</v>
       </c>
       <c r="K16" t="n">
-        <v>-202.6984475136257</v>
+        <v>-1161.131389163308</v>
       </c>
       <c r="L16" t="n">
-        <v>-202.6984475136257</v>
+        <v>-1161.131389163308</v>
       </c>
       <c r="M16" t="n">
-        <v>-202.6984475136257</v>
+        <v>-1161.131389163308</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39421.12539941997</v>
+        <v>39118.87079676236</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>39498.56964402784</v>
+        <v>40371.41236831893</v>
       </c>
       <c r="D17" t="n">
-        <v>33527.52899278652</v>
+        <v>30803.80675802646</v>
       </c>
       <c r="E17" t="n">
-        <v>40290.25474981827</v>
+        <v>43700.48904688619</v>
       </c>
       <c r="F17" t="n">
-        <v>39498.56964402784</v>
+        <v>40371.41236831893</v>
       </c>
       <c r="G17" t="n">
-        <v>39498.56964402784</v>
+        <v>40371.41236831893</v>
       </c>
       <c r="H17" t="n">
-        <v>-2687.716674367266</v>
+        <v>-2881.305588001644</v>
       </c>
       <c r="I17" t="n">
-        <v>-2687.716674367266</v>
+        <v>-2881.305588001644</v>
       </c>
       <c r="J17" t="n">
-        <v>-2687.716674367266</v>
+        <v>-2881.305588001644</v>
       </c>
       <c r="K17" t="n">
-        <v>-2687.716674367266</v>
+        <v>-2881.305588001644</v>
       </c>
       <c r="L17" t="n">
-        <v>-2687.716674367266</v>
+        <v>-2881.305588001644</v>
       </c>
       <c r="M17" t="n">
-        <v>-2687.716674367266</v>
+        <v>-2881.305588001644</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>36810.85296966058</v>
+        <v>37490.10678031728</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>39377.35589887048</v>
+        <v>40459.87383515111</v>
       </c>
       <c r="D18" t="n">
-        <v>34568.45847738376</v>
+        <v>33582.31869295907</v>
       </c>
       <c r="E18" t="n">
-        <v>41199.96820931672</v>
+        <v>46519.84012419479</v>
       </c>
       <c r="F18" t="n">
-        <v>39377.35589887048</v>
+        <v>40459.87383515111</v>
       </c>
       <c r="G18" t="n">
-        <v>39377.35589887048</v>
+        <v>40459.87383515111</v>
       </c>
       <c r="H18" t="n">
-        <v>-1416.776281378731</v>
+        <v>-187.6686915771462</v>
       </c>
       <c r="I18" t="n">
-        <v>-1416.776281378731</v>
+        <v>-187.6686915771462</v>
       </c>
       <c r="J18" t="n">
-        <v>-1416.776281378731</v>
+        <v>-187.6686915771462</v>
       </c>
       <c r="K18" t="n">
-        <v>-1416.776281378731</v>
+        <v>-187.6686915771462</v>
       </c>
       <c r="L18" t="n">
-        <v>-1416.776281378731</v>
+        <v>-187.6686915771462</v>
       </c>
       <c r="M18" t="n">
-        <v>-1416.776281378731</v>
+        <v>-187.6686915771462</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>37960.57961749175</v>
+        <v>40272.20514357396</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>39252.10169554121</v>
+        <v>40551.36355638873</v>
       </c>
       <c r="D19" t="n">
-        <v>36701.91245542645</v>
+        <v>33192.77519387602</v>
       </c>
       <c r="E19" t="n">
-        <v>42990.76820891814</v>
+        <v>45824.42187934842</v>
       </c>
       <c r="F19" t="n">
-        <v>39252.10169554121</v>
+        <v>40551.36355638873</v>
       </c>
       <c r="G19" t="n">
-        <v>39252.10169554121</v>
+        <v>40551.36355638873</v>
       </c>
       <c r="H19" t="n">
-        <v>571.54629912451</v>
+        <v>-932.7781336108295</v>
       </c>
       <c r="I19" t="n">
-        <v>571.54629912451</v>
+        <v>-932.7781336108295</v>
       </c>
       <c r="J19" t="n">
-        <v>571.54629912451</v>
+        <v>-932.7781336108295</v>
       </c>
       <c r="K19" t="n">
-        <v>571.54629912451</v>
+        <v>-932.7781336108295</v>
       </c>
       <c r="L19" t="n">
-        <v>571.54629912451</v>
+        <v>-932.7781336108295</v>
       </c>
       <c r="M19" t="n">
-        <v>571.54629912451</v>
+        <v>-932.7781336108295</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>39823.64799466572</v>
+        <v>39618.5854227779</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>39130.88795038386</v>
+        <v>40639.9019962961</v>
       </c>
       <c r="D20" t="n">
-        <v>36332.16597563404</v>
+        <v>35783.32534454601</v>
       </c>
       <c r="E20" t="n">
-        <v>42841.19146638247</v>
+        <v>47960.2462400153</v>
       </c>
       <c r="F20" t="n">
-        <v>39130.88795038386</v>
+        <v>40639.9019962961</v>
       </c>
       <c r="G20" t="n">
-        <v>39130.88795038386</v>
+        <v>40639.9019962961</v>
       </c>
       <c r="H20" t="n">
-        <v>629.5778074343359</v>
+        <v>1244.447906507757</v>
       </c>
       <c r="I20" t="n">
-        <v>629.5778074343359</v>
+        <v>1244.447906507757</v>
       </c>
       <c r="J20" t="n">
-        <v>629.5778074343359</v>
+        <v>1244.447906507757</v>
       </c>
       <c r="K20" t="n">
-        <v>629.5778074343359</v>
+        <v>1244.447906507757</v>
       </c>
       <c r="L20" t="n">
-        <v>629.5778074343359</v>
+        <v>1244.447906507757</v>
       </c>
       <c r="M20" t="n">
-        <v>629.5778074343359</v>
+        <v>1244.447906507757</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>39760.46575781819</v>
+        <v>41884.34990280386</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>39005.63374705458</v>
+        <v>40731.40560053493</v>
       </c>
       <c r="D21" t="n">
-        <v>40411.90777117351</v>
+        <v>38967.12479883767</v>
       </c>
       <c r="E21" t="n">
-        <v>46608.35945654053</v>
+        <v>51593.85253507749</v>
       </c>
       <c r="F21" t="n">
-        <v>39005.63374705458</v>
+        <v>40731.40560053493</v>
       </c>
       <c r="G21" t="n">
-        <v>39005.63374705458</v>
+        <v>40731.40560053493</v>
       </c>
       <c r="H21" t="n">
-        <v>4661.840545078653</v>
+        <v>4529.028639917326</v>
       </c>
       <c r="I21" t="n">
-        <v>4661.840545078653</v>
+        <v>4529.028639917326</v>
       </c>
       <c r="J21" t="n">
-        <v>4661.840545078653</v>
+        <v>4529.028639917326</v>
       </c>
       <c r="K21" t="n">
-        <v>4661.840545078653</v>
+        <v>4529.028639917326</v>
       </c>
       <c r="L21" t="n">
-        <v>4661.840545078653</v>
+        <v>4529.028639917326</v>
       </c>
       <c r="M21" t="n">
-        <v>4661.840545078653</v>
+        <v>4529.028639917326</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>43667.47429213324</v>
+        <v>45260.43424045226</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>38880.37954372532</v>
+        <v>40822.90920477376</v>
       </c>
       <c r="D22" t="n">
-        <v>36099.02745572762</v>
+        <v>34655.30029022265</v>
       </c>
       <c r="E22" t="n">
-        <v>42711.02178847139</v>
+        <v>46696.02229519275</v>
       </c>
       <c r="F22" t="n">
-        <v>38880.37954372532</v>
+        <v>40822.90920477376</v>
       </c>
       <c r="G22" t="n">
-        <v>38880.37954372532</v>
+        <v>40822.90920477376</v>
       </c>
       <c r="H22" t="n">
-        <v>428.9117164168155</v>
+        <v>-315.8830493013035</v>
       </c>
       <c r="I22" t="n">
-        <v>428.9117164168155</v>
+        <v>-315.8830493013035</v>
       </c>
       <c r="J22" t="n">
-        <v>428.9117164168155</v>
+        <v>-315.8830493013035</v>
       </c>
       <c r="K22" t="n">
-        <v>428.9117164168155</v>
+        <v>-315.8830493013035</v>
       </c>
       <c r="L22" t="n">
-        <v>428.9117164168155</v>
+        <v>-315.8830493013035</v>
       </c>
       <c r="M22" t="n">
-        <v>428.9117164168155</v>
+        <v>-315.8830493013035</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>39309.29126014213</v>
+        <v>40507.02615547246</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>38759.16579856796</v>
+        <v>40911.51760274783</v>
       </c>
       <c r="D23" t="n">
-        <v>36060.55764391272</v>
+        <v>36553.02088905196</v>
       </c>
       <c r="E23" t="n">
-        <v>42608.0717574326</v>
+        <v>48857.86015134647</v>
       </c>
       <c r="F23" t="n">
-        <v>38759.16579856796</v>
+        <v>40911.51760274783</v>
       </c>
       <c r="G23" t="n">
-        <v>38759.16579856796</v>
+        <v>40911.51760274783</v>
       </c>
       <c r="H23" t="n">
-        <v>471.5636716251319</v>
+        <v>1759.501069444576</v>
       </c>
       <c r="I23" t="n">
-        <v>471.5636716251319</v>
+        <v>1759.501069444576</v>
       </c>
       <c r="J23" t="n">
-        <v>471.5636716251319</v>
+        <v>1759.501069444576</v>
       </c>
       <c r="K23" t="n">
-        <v>471.5636716251319</v>
+        <v>1759.501069444576</v>
       </c>
       <c r="L23" t="n">
-        <v>471.5636716251319</v>
+        <v>1759.501069444576</v>
       </c>
       <c r="M23" t="n">
-        <v>471.5636716251319</v>
+        <v>1759.501069444576</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>39230.7294701931</v>
+        <v>42671.0186721924</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>38633.91159523869</v>
+        <v>41003.07961398771</v>
       </c>
       <c r="D24" t="n">
-        <v>32783.76967286426</v>
+        <v>32693.12354328931</v>
       </c>
       <c r="E24" t="n">
-        <v>39681.88673709441</v>
+        <v>43853.95070152239</v>
       </c>
       <c r="F24" t="n">
-        <v>38633.91159523869</v>
+        <v>41003.07961398771</v>
       </c>
       <c r="G24" t="n">
-        <v>38633.91159523869</v>
+        <v>41003.07961398771</v>
       </c>
       <c r="H24" t="n">
-        <v>-2457.144321695757</v>
+        <v>-2547.346556763513</v>
       </c>
       <c r="I24" t="n">
-        <v>-2457.144321695757</v>
+        <v>-2547.346556763513</v>
       </c>
       <c r="J24" t="n">
-        <v>-2457.144321695757</v>
+        <v>-2547.346556763513</v>
       </c>
       <c r="K24" t="n">
-        <v>-2457.144321695757</v>
+        <v>-2547.346556763513</v>
       </c>
       <c r="L24" t="n">
-        <v>-2457.144321695757</v>
+        <v>-2547.346556763513</v>
       </c>
       <c r="M24" t="n">
-        <v>-2457.144321695757</v>
+        <v>-2547.346556763513</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>36176.76727354294</v>
+        <v>38455.7330572242</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>38512.69785008133</v>
+        <v>41091.74256651555</v>
       </c>
       <c r="D25" t="n">
-        <v>35059.30780366361</v>
+        <v>31685.274283426</v>
       </c>
       <c r="E25" t="n">
-        <v>41402.69760514031</v>
+        <v>44298.38165785222</v>
       </c>
       <c r="F25" t="n">
-        <v>38512.69785008133</v>
+        <v>41091.74256651555</v>
       </c>
       <c r="G25" t="n">
-        <v>38512.69785008133</v>
+        <v>41091.74256651555</v>
       </c>
       <c r="H25" t="n">
-        <v>-438.3231525409211</v>
+        <v>-3278.8540370642</v>
       </c>
       <c r="I25" t="n">
-        <v>-438.3231525409211</v>
+        <v>-3278.8540370642</v>
       </c>
       <c r="J25" t="n">
-        <v>-438.3231525409211</v>
+        <v>-3278.8540370642</v>
       </c>
       <c r="K25" t="n">
-        <v>-438.3231525409211</v>
+        <v>-3278.8540370642</v>
       </c>
       <c r="L25" t="n">
-        <v>-438.3231525409211</v>
+        <v>-3278.8540370642</v>
       </c>
       <c r="M25" t="n">
-        <v>-438.3231525409211</v>
+        <v>-3278.8540370642</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38074.37469754041</v>
+        <v>37812.88852945135</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>38387.44364675207</v>
+        <v>41183.36095079432</v>
       </c>
       <c r="D26" t="n">
-        <v>36732.42099024131</v>
+        <v>35306.99565950671</v>
       </c>
       <c r="E26" t="n">
-        <v>43609.48310389696</v>
+        <v>47895.05578998345</v>
       </c>
       <c r="F26" t="n">
-        <v>38387.44364675207</v>
+        <v>41183.36095079432</v>
       </c>
       <c r="G26" t="n">
-        <v>38387.44364675207</v>
+        <v>41183.36095079432</v>
       </c>
       <c r="H26" t="n">
-        <v>1946.1960736938</v>
+        <v>462.8406670215804</v>
       </c>
       <c r="I26" t="n">
-        <v>1946.1960736938</v>
+        <v>462.8406670215804</v>
       </c>
       <c r="J26" t="n">
-        <v>1946.1960736938</v>
+        <v>462.8406670215804</v>
       </c>
       <c r="K26" t="n">
-        <v>1946.1960736938</v>
+        <v>462.8406670215804</v>
       </c>
       <c r="L26" t="n">
-        <v>1946.1960736938</v>
+        <v>462.8406670215804</v>
       </c>
       <c r="M26" t="n">
-        <v>1946.1960736938</v>
+        <v>462.8406670215804</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>40333.63972044587</v>
+        <v>41646.2016178159</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>38262.35766693469</v>
+        <v>41275.00291887982</v>
       </c>
       <c r="D27" t="n">
-        <v>30352.87732935125</v>
+        <v>29249.04258278382</v>
       </c>
       <c r="E27" t="n">
-        <v>36984.86125169091</v>
+        <v>41858.77728756656</v>
       </c>
       <c r="F27" t="n">
-        <v>38262.35766693469</v>
+        <v>41275.00291887982</v>
       </c>
       <c r="G27" t="n">
-        <v>38262.35766693469</v>
+        <v>41275.00291887982</v>
       </c>
       <c r="H27" t="n">
-        <v>-4663.658354799151</v>
+        <v>-5490.34831700168</v>
       </c>
       <c r="I27" t="n">
-        <v>-4663.658354799151</v>
+        <v>-5490.34831700168</v>
       </c>
       <c r="J27" t="n">
-        <v>-4663.658354799151</v>
+        <v>-5490.34831700168</v>
       </c>
       <c r="K27" t="n">
-        <v>-4663.658354799151</v>
+        <v>-5490.34831700168</v>
       </c>
       <c r="L27" t="n">
-        <v>-4663.658354799151</v>
+        <v>-5490.34831700168</v>
       </c>
       <c r="M27" t="n">
-        <v>-4663.658354799151</v>
+        <v>-5490.34831700168</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>33598.69931213554</v>
+        <v>35784.65460187814</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>38149.77524389738</v>
+        <v>41357.77630940867</v>
       </c>
       <c r="D28" t="n">
-        <v>33541.3560778413</v>
+        <v>31618.99212160201</v>
       </c>
       <c r="E28" t="n">
-        <v>40362.46022678886</v>
+        <v>43906.18957904225</v>
       </c>
       <c r="F28" t="n">
-        <v>38149.77524389738</v>
+        <v>41357.77630940867</v>
       </c>
       <c r="G28" t="n">
-        <v>38149.77524389738</v>
+        <v>41357.77630940867</v>
       </c>
       <c r="H28" t="n">
-        <v>-1204.836257251344</v>
+        <v>-3509.00721233411</v>
       </c>
       <c r="I28" t="n">
-        <v>-1204.836257251344</v>
+        <v>-3509.00721233411</v>
       </c>
       <c r="J28" t="n">
-        <v>-1204.836257251344</v>
+        <v>-3509.00721233411</v>
       </c>
       <c r="K28" t="n">
-        <v>-1204.836257251344</v>
+        <v>-3509.00721233411</v>
       </c>
       <c r="L28" t="n">
-        <v>-1204.836257251344</v>
+        <v>-3509.00721233411</v>
       </c>
       <c r="M28" t="n">
-        <v>-1204.836257251344</v>
+        <v>-3509.00721233411</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36944.93898664604</v>
+        <v>37848.76909707456</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>38025.13041839179</v>
+        <v>41449.41827749417</v>
       </c>
       <c r="D29" t="n">
-        <v>32301.84155850261</v>
+        <v>31417.07009904159</v>
       </c>
       <c r="E29" t="n">
-        <v>38875.4128108208</v>
+        <v>44144.21652763317</v>
       </c>
       <c r="F29" t="n">
-        <v>38025.13041839179</v>
+        <v>41449.41827749417</v>
       </c>
       <c r="G29" t="n">
-        <v>38025.13041839179</v>
+        <v>41449.41827749417</v>
       </c>
       <c r="H29" t="n">
-        <v>-2375.080869182782</v>
+        <v>-3562.544994855431</v>
       </c>
       <c r="I29" t="n">
-        <v>-2375.080869182782</v>
+        <v>-3562.544994855431</v>
       </c>
       <c r="J29" t="n">
-        <v>-2375.080869182782</v>
+        <v>-3562.544994855431</v>
       </c>
       <c r="K29" t="n">
-        <v>-2375.080869182782</v>
+        <v>-3562.544994855431</v>
       </c>
       <c r="L29" t="n">
-        <v>-2375.080869182782</v>
+        <v>-3562.544994855431</v>
       </c>
       <c r="M29" t="n">
-        <v>-2375.080869182782</v>
+        <v>-3562.544994855431</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>35650.049549209</v>
+        <v>37886.87328263874</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>37904.62372900884</v>
+        <v>41538.52275786172</v>
       </c>
       <c r="D30" t="n">
-        <v>33384.00146549186</v>
+        <v>36669.04383951568</v>
       </c>
       <c r="E30" t="n">
-        <v>39944.76272849676</v>
+        <v>49327.56996768611</v>
       </c>
       <c r="F30" t="n">
-        <v>37904.62372900884</v>
+        <v>41538.52275786172</v>
       </c>
       <c r="G30" t="n">
-        <v>37904.62372900884</v>
+        <v>41538.52275786172</v>
       </c>
       <c r="H30" t="n">
-        <v>-1354.75230314281</v>
+        <v>1433.394849736852</v>
       </c>
       <c r="I30" t="n">
-        <v>-1354.75230314281</v>
+        <v>1433.394849736852</v>
       </c>
       <c r="J30" t="n">
-        <v>-1354.75230314281</v>
+        <v>1433.394849736852</v>
       </c>
       <c r="K30" t="n">
-        <v>-1354.75230314281</v>
+        <v>1433.394849736852</v>
       </c>
       <c r="L30" t="n">
-        <v>-1354.75230314281</v>
+        <v>1433.394849736852</v>
       </c>
       <c r="M30" t="n">
-        <v>-1354.75230314281</v>
+        <v>1433.394849736852</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>36549.87142586603</v>
+        <v>42971.91760759857</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>37780.10014997979</v>
+        <v>41630.59738757485</v>
       </c>
       <c r="D31" t="n">
-        <v>34137.6432328053</v>
+        <v>34608.81348427408</v>
       </c>
       <c r="E31" t="n">
-        <v>40787.44035504455</v>
+        <v>46897.73909279529</v>
       </c>
       <c r="F31" t="n">
-        <v>37780.10014997979</v>
+        <v>41630.59738757485</v>
       </c>
       <c r="G31" t="n">
-        <v>37780.10014997979</v>
+        <v>41630.59738757485</v>
       </c>
       <c r="H31" t="n">
-        <v>-396.0191734108013</v>
+        <v>-534.5576855370845</v>
       </c>
       <c r="I31" t="n">
-        <v>-396.0191734108013</v>
+        <v>-534.5576855370845</v>
       </c>
       <c r="J31" t="n">
-        <v>-396.0191734108013</v>
+        <v>-534.5576855370845</v>
       </c>
       <c r="K31" t="n">
-        <v>-396.0191734108013</v>
+        <v>-534.5576855370845</v>
       </c>
       <c r="L31" t="n">
-        <v>-396.0191734108013</v>
+        <v>-534.5576855370845</v>
       </c>
       <c r="M31" t="n">
-        <v>-396.0191734108013</v>
+        <v>-534.5576855370845</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37384.08097656898</v>
+        <v>41096.03970203776</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>37756.55653498114</v>
+        <v>41719.73621714817</v>
       </c>
       <c r="D32" t="n">
-        <v>36061.06001072167</v>
+        <v>36732.65528519448</v>
       </c>
       <c r="E32" t="n">
-        <v>42672.55211707129</v>
+        <v>49537.79020097109</v>
       </c>
       <c r="F32" t="n">
-        <v>37756.55653498114</v>
+        <v>41719.73621714817</v>
       </c>
       <c r="G32" t="n">
-        <v>37756.55653498114</v>
+        <v>41719.73621714817</v>
       </c>
       <c r="H32" t="n">
-        <v>1608.583719831418</v>
+        <v>1142.169719637375</v>
       </c>
       <c r="I32" t="n">
-        <v>1608.583719831418</v>
+        <v>1142.169719637375</v>
       </c>
       <c r="J32" t="n">
-        <v>1608.583719831418</v>
+        <v>1142.169719637375</v>
       </c>
       <c r="K32" t="n">
-        <v>1608.583719831418</v>
+        <v>1142.169719637375</v>
       </c>
       <c r="L32" t="n">
-        <v>1608.583719831418</v>
+        <v>1142.169719637375</v>
       </c>
       <c r="M32" t="n">
-        <v>1608.583719831418</v>
+        <v>1142.169719637375</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>39365.14025481256</v>
+        <v>42861.90593678554</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>37732.22813281589</v>
+        <v>41811.84634104059</v>
       </c>
       <c r="D33" t="n">
-        <v>39532.79213758538</v>
+        <v>40072.2327588144</v>
       </c>
       <c r="E33" t="n">
-        <v>45899.021518826</v>
+        <v>52698.64288431805</v>
       </c>
       <c r="F33" t="n">
-        <v>37732.22813281589</v>
+        <v>41811.84634104059</v>
       </c>
       <c r="G33" t="n">
-        <v>37732.22813281589</v>
+        <v>41811.84634104059</v>
       </c>
       <c r="H33" t="n">
-        <v>4990.43088233146</v>
+        <v>4836.060779554174</v>
       </c>
       <c r="I33" t="n">
-        <v>4990.43088233146</v>
+        <v>4836.060779554174</v>
       </c>
       <c r="J33" t="n">
-        <v>4990.43088233146</v>
+        <v>4836.060779554174</v>
       </c>
       <c r="K33" t="n">
-        <v>4990.43088233146</v>
+        <v>4836.060779554174</v>
       </c>
       <c r="L33" t="n">
-        <v>4990.43088233146</v>
+        <v>4836.060779554174</v>
       </c>
       <c r="M33" t="n">
-        <v>4990.43088233146</v>
+        <v>4836.060779554174</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>42722.65901514735</v>
+        <v>46647.90712059476</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>37707.99772208308</v>
+        <v>41903.95646561361</v>
       </c>
       <c r="D34" t="n">
-        <v>34187.70551832479</v>
+        <v>33327.3343253267</v>
       </c>
       <c r="E34" t="n">
-        <v>40692.20108251413</v>
+        <v>45942.17402474213</v>
       </c>
       <c r="F34" t="n">
-        <v>37707.99772208308</v>
+        <v>41903.95646561361</v>
       </c>
       <c r="G34" t="n">
-        <v>37707.99772208308</v>
+        <v>41903.95646561361</v>
       </c>
       <c r="H34" t="n">
-        <v>-341.7680503798814</v>
+        <v>-1755.1122776311</v>
       </c>
       <c r="I34" t="n">
-        <v>-341.7680503798814</v>
+        <v>-1755.1122776311</v>
       </c>
       <c r="J34" t="n">
-        <v>-341.7680503798814</v>
+        <v>-1755.1122776311</v>
       </c>
       <c r="K34" t="n">
-        <v>-341.7680503798814</v>
+        <v>-1755.1122776311</v>
       </c>
       <c r="L34" t="n">
-        <v>-341.7680503798814</v>
+        <v>-1755.1122776311</v>
       </c>
       <c r="M34" t="n">
-        <v>-341.7680503798814</v>
+        <v>-1755.1122776311</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37366.22967170319</v>
+        <v>40148.84418798251</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>37684.94408797597</v>
+        <v>41993.09529584556</v>
       </c>
       <c r="D35" t="n">
-        <v>35260.08774301927</v>
+        <v>38090.45680580532</v>
       </c>
       <c r="E35" t="n">
-        <v>42232.70699521695</v>
+        <v>50504.3369998306</v>
       </c>
       <c r="F35" t="n">
-        <v>37684.94408797597</v>
+        <v>41993.09529584556</v>
       </c>
       <c r="G35" t="n">
-        <v>37684.94408797597</v>
+        <v>41993.09529584556</v>
       </c>
       <c r="H35" t="n">
-        <v>1195.501825251533</v>
+        <v>2231.247924497084</v>
       </c>
       <c r="I35" t="n">
-        <v>1195.501825251533</v>
+        <v>2231.247924497084</v>
       </c>
       <c r="J35" t="n">
-        <v>1195.501825251533</v>
+        <v>2231.247924497084</v>
       </c>
       <c r="K35" t="n">
-        <v>1195.501825251533</v>
+        <v>2231.247924497084</v>
       </c>
       <c r="L35" t="n">
-        <v>1195.501825251533</v>
+        <v>2231.247924497084</v>
       </c>
       <c r="M35" t="n">
-        <v>1195.501825251533</v>
+        <v>2231.247924497084</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>38880.44591322751</v>
+        <v>44224.34322034264</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>37661.12199939863</v>
+        <v>42085.20542059607</v>
       </c>
       <c r="D36" t="n">
-        <v>30919.91614176943</v>
+        <v>33047.13639384303</v>
       </c>
       <c r="E36" t="n">
-        <v>37773.82325959018</v>
+        <v>45907.35953290495</v>
       </c>
       <c r="F36" t="n">
-        <v>37661.12199939863</v>
+        <v>42085.20542059607</v>
       </c>
       <c r="G36" t="n">
-        <v>37661.12199939863</v>
+        <v>42085.20542059607</v>
       </c>
       <c r="H36" t="n">
-        <v>-3249.494739644568</v>
+        <v>-2915.864860283</v>
       </c>
       <c r="I36" t="n">
-        <v>-3249.494739644568</v>
+        <v>-2915.864860283</v>
       </c>
       <c r="J36" t="n">
-        <v>-3249.494739644568</v>
+        <v>-2915.864860283</v>
       </c>
       <c r="K36" t="n">
-        <v>-3249.494739644568</v>
+        <v>-2915.864860283</v>
       </c>
       <c r="L36" t="n">
-        <v>-3249.494739644568</v>
+        <v>-2915.864860283</v>
       </c>
       <c r="M36" t="n">
-        <v>-3249.494739644568</v>
+        <v>-2915.864860283</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34411.62725975406</v>
+        <v>39169.34056031307</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>37638.35498800543</v>
+        <v>42174.3442509998</v>
       </c>
       <c r="D37" t="n">
-        <v>34301.20983236944</v>
+        <v>33296.14932329972</v>
       </c>
       <c r="E37" t="n">
-        <v>40710.21352393909</v>
+        <v>45501.34518088429</v>
       </c>
       <c r="F37" t="n">
-        <v>37638.35498800543</v>
+        <v>42174.3442509998</v>
       </c>
       <c r="G37" t="n">
-        <v>37638.35498800543</v>
+        <v>42174.3442509998</v>
       </c>
       <c r="H37" t="n">
-        <v>-157.6749561170761</v>
+        <v>-2796.679230953953</v>
       </c>
       <c r="I37" t="n">
-        <v>-157.6749561170761</v>
+        <v>-2796.679230953953</v>
       </c>
       <c r="J37" t="n">
-        <v>-157.6749561170761</v>
+        <v>-2796.679230953953</v>
       </c>
       <c r="K37" t="n">
-        <v>-157.6749561170761</v>
+        <v>-2796.679230953953</v>
       </c>
       <c r="L37" t="n">
-        <v>-157.6749561170761</v>
+        <v>-2796.679230953953</v>
       </c>
       <c r="M37" t="n">
-        <v>-157.6749561170761</v>
+        <v>-2796.679230953953</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37480.68003188836</v>
+        <v>39377.66502004585</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>37614.82907623246</v>
+        <v>42266.45437595985</v>
       </c>
       <c r="D38" t="n">
-        <v>35846.7580863046</v>
+        <v>36828.142337291</v>
       </c>
       <c r="E38" t="n">
-        <v>42502.65159071307</v>
+        <v>49577.55027905156</v>
       </c>
       <c r="F38" t="n">
-        <v>37614.82907623246</v>
+        <v>42266.45437595985</v>
       </c>
       <c r="G38" t="n">
-        <v>37614.82907623246</v>
+        <v>42266.45437595985</v>
       </c>
       <c r="H38" t="n">
-        <v>1521.154834418773</v>
+        <v>1030.689694170181</v>
       </c>
       <c r="I38" t="n">
-        <v>1521.154834418773</v>
+        <v>1030.689694170181</v>
       </c>
       <c r="J38" t="n">
-        <v>1521.154834418773</v>
+        <v>1030.689694170181</v>
       </c>
       <c r="K38" t="n">
-        <v>1521.154834418773</v>
+        <v>1030.689694170181</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.154834418773</v>
+        <v>1030.689694170181</v>
       </c>
       <c r="M38" t="n">
-        <v>1521.154834418773</v>
+        <v>1030.689694170181</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>39135.98391065124</v>
+        <v>43297.14407013003</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>37591.38057949747</v>
+        <v>42358.56450091991</v>
       </c>
       <c r="D39" t="n">
-        <v>30718.79540888723</v>
+        <v>31883.26129088182</v>
       </c>
       <c r="E39" t="n">
-        <v>37516.76794085658</v>
+        <v>44567.20088086445</v>
       </c>
       <c r="F39" t="n">
-        <v>37591.38057949747</v>
+        <v>42358.56450091991</v>
       </c>
       <c r="G39" t="n">
-        <v>37591.38057949747</v>
+        <v>42358.56450091991</v>
       </c>
       <c r="H39" t="n">
-        <v>-3421.141258969899</v>
+        <v>-4199.471057053464</v>
       </c>
       <c r="I39" t="n">
-        <v>-3421.141258969899</v>
+        <v>-4199.471057053464</v>
       </c>
       <c r="J39" t="n">
-        <v>-3421.141258969899</v>
+        <v>-4199.471057053464</v>
       </c>
       <c r="K39" t="n">
-        <v>-3421.141258969899</v>
+        <v>-4199.471057053464</v>
       </c>
       <c r="L39" t="n">
-        <v>-3421.141258969899</v>
+        <v>-4199.471057053464</v>
       </c>
       <c r="M39" t="n">
-        <v>-3421.141258969899</v>
+        <v>-4199.471057053464</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34170.23932052757</v>
+        <v>38159.09344386644</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>37570.70878221507</v>
+        <v>42444.7320369249</v>
       </c>
       <c r="D40" t="n">
-        <v>32047.07582167551</v>
+        <v>39963.67691530764</v>
       </c>
       <c r="E40" t="n">
-        <v>38592.25375221797</v>
+        <v>52509.76994348711</v>
       </c>
       <c r="F40" t="n">
-        <v>37570.70878221507</v>
+        <v>42444.7320369249</v>
       </c>
       <c r="G40" t="n">
-        <v>37570.70878221507</v>
+        <v>42444.7320369249</v>
       </c>
       <c r="H40" t="n">
-        <v>-2217.764702663104</v>
+        <v>3483.117391179183</v>
       </c>
       <c r="I40" t="n">
-        <v>-2217.764702663104</v>
+        <v>3483.117391179183</v>
       </c>
       <c r="J40" t="n">
-        <v>-2217.764702663104</v>
+        <v>3483.117391179183</v>
       </c>
       <c r="K40" t="n">
-        <v>-2217.764702663104</v>
+        <v>3483.117391179183</v>
       </c>
       <c r="L40" t="n">
-        <v>-2217.764702663104</v>
+        <v>3483.117391179183</v>
       </c>
       <c r="M40" t="n">
-        <v>-2217.764702663104</v>
+        <v>3483.117391179183</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35352.94407955197</v>
+        <v>45927.84942810408</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>37547.82214950956</v>
+        <v>42536.84216161988</v>
       </c>
       <c r="D41" t="n">
-        <v>32081.05935870282</v>
+        <v>34389.90762785081</v>
       </c>
       <c r="E41" t="n">
-        <v>38766.47466986842</v>
+        <v>47618.1346775768</v>
       </c>
       <c r="F41" t="n">
-        <v>37547.82214950956</v>
+        <v>42536.84216161988</v>
       </c>
       <c r="G41" t="n">
-        <v>37547.82214950956</v>
+        <v>42536.84216161988</v>
       </c>
       <c r="H41" t="n">
-        <v>-2054.652543723033</v>
+        <v>-1357.302133029524</v>
       </c>
       <c r="I41" t="n">
-        <v>-2054.652543723033</v>
+        <v>-1357.302133029524</v>
       </c>
       <c r="J41" t="n">
-        <v>-2054.652543723033</v>
+        <v>-1357.302133029524</v>
       </c>
       <c r="K41" t="n">
-        <v>-2054.652543723033</v>
+        <v>-1357.302133029524</v>
       </c>
       <c r="L41" t="n">
-        <v>-2054.652543723033</v>
+        <v>-1357.302133029524</v>
       </c>
       <c r="M41" t="n">
-        <v>-2054.652543723033</v>
+        <v>-1357.302133029524</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>35493.16960578653</v>
+        <v>41179.54002859036</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>37638.4592884378</v>
+        <v>42625.98099173161</v>
       </c>
       <c r="D42" t="n">
-        <v>33140.89646555155</v>
+        <v>32877.40652668164</v>
       </c>
       <c r="E42" t="n">
-        <v>39593.72877123741</v>
+        <v>46082.68030765001</v>
       </c>
       <c r="F42" t="n">
-        <v>37638.4592884378</v>
+        <v>42625.98099173161</v>
       </c>
       <c r="G42" t="n">
-        <v>37638.4592884378</v>
+        <v>42625.98099173161</v>
       </c>
       <c r="H42" t="n">
-        <v>-1302.437075857286</v>
+        <v>-3355.810683480479</v>
       </c>
       <c r="I42" t="n">
-        <v>-1302.437075857286</v>
+        <v>-3355.810683480479</v>
       </c>
       <c r="J42" t="n">
-        <v>-1302.437075857286</v>
+        <v>-3355.810683480479</v>
       </c>
       <c r="K42" t="n">
-        <v>-1302.437075857286</v>
+        <v>-3355.810683480479</v>
       </c>
       <c r="L42" t="n">
-        <v>-1302.437075857286</v>
+        <v>-3355.810683480479</v>
       </c>
       <c r="M42" t="n">
-        <v>-1302.437075857286</v>
+        <v>-3355.810683480479</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>36336.02221258052</v>
+        <v>39270.17030825113</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>37732.11766533033</v>
+        <v>42718.0911161804</v>
       </c>
       <c r="D43" t="n">
-        <v>33010.12114959922</v>
+        <v>34813.51824540494</v>
       </c>
       <c r="E43" t="n">
-        <v>39700.60432199852</v>
+        <v>47645.68214516633</v>
       </c>
       <c r="F43" t="n">
-        <v>37732.11766533033</v>
+        <v>42718.0911161804</v>
       </c>
       <c r="G43" t="n">
-        <v>37732.11766533033</v>
+        <v>42718.0911161804</v>
       </c>
       <c r="H43" t="n">
-        <v>-1350.257601689932</v>
+        <v>-1778.665822200926</v>
       </c>
       <c r="I43" t="n">
-        <v>-1350.257601689932</v>
+        <v>-1778.665822200926</v>
       </c>
       <c r="J43" t="n">
-        <v>-1350.257601689932</v>
+        <v>-1778.665822200926</v>
       </c>
       <c r="K43" t="n">
-        <v>-1350.257601689932</v>
+        <v>-1778.665822200926</v>
       </c>
       <c r="L43" t="n">
-        <v>-1350.257601689932</v>
+        <v>-1778.665822200926</v>
       </c>
       <c r="M43" t="n">
-        <v>-1350.257601689932</v>
+        <v>-1778.665822200926</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36381.86006364039</v>
+        <v>40939.42529397947</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>37822.9805892697</v>
+        <v>42807.22994634049</v>
       </c>
       <c r="D44" t="n">
-        <v>36971.18350934738</v>
+        <v>37741.30120730478</v>
       </c>
       <c r="E44" t="n">
-        <v>43626.52697220725</v>
+        <v>50466.51012545428</v>
       </c>
       <c r="F44" t="n">
-        <v>37822.9805892697</v>
+        <v>42807.22994634049</v>
       </c>
       <c r="G44" t="n">
-        <v>37822.9805892697</v>
+        <v>42807.22994634049</v>
       </c>
       <c r="H44" t="n">
-        <v>2601.486494321904</v>
+        <v>1403.942992556208</v>
       </c>
       <c r="I44" t="n">
-        <v>2601.486494321904</v>
+        <v>1403.942992556208</v>
       </c>
       <c r="J44" t="n">
-        <v>2601.486494321904</v>
+        <v>1403.942992556208</v>
       </c>
       <c r="K44" t="n">
-        <v>2601.486494321904</v>
+        <v>1403.942992556208</v>
       </c>
       <c r="L44" t="n">
-        <v>2601.486494321904</v>
+        <v>1403.942992556208</v>
       </c>
       <c r="M44" t="n">
-        <v>2601.486494321904</v>
+        <v>1403.942992556208</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40424.4670835916</v>
+        <v>44211.1729388967</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>37917.22608306733</v>
+        <v>42899.34007083925</v>
       </c>
       <c r="D45" t="n">
-        <v>40055.50268714627</v>
+        <v>40673.18107057883</v>
       </c>
       <c r="E45" t="n">
-        <v>46617.41782619874</v>
+        <v>52952.31848829253</v>
       </c>
       <c r="F45" t="n">
-        <v>37917.22608306733</v>
+        <v>42899.34007083925</v>
       </c>
       <c r="G45" t="n">
-        <v>37917.22608306733</v>
+        <v>42899.34007083925</v>
       </c>
       <c r="H45" t="n">
-        <v>5298.150733464472</v>
+        <v>3837.740686111119</v>
       </c>
       <c r="I45" t="n">
-        <v>5298.150733464472</v>
+        <v>3837.740686111119</v>
       </c>
       <c r="J45" t="n">
-        <v>5298.150733464472</v>
+        <v>3837.740686111119</v>
       </c>
       <c r="K45" t="n">
-        <v>5298.150733464472</v>
+        <v>3837.740686111119</v>
       </c>
       <c r="L45" t="n">
-        <v>5298.150733464472</v>
+        <v>3837.740686111119</v>
       </c>
       <c r="M45" t="n">
-        <v>5298.150733464472</v>
+        <v>3837.740686111119</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>43215.3768165318</v>
+        <v>46737.08075695037</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>38011.47157686497</v>
+        <v>42991.4201836533</v>
       </c>
       <c r="D46" t="n">
-        <v>33630.42383812465</v>
+        <v>39310.73159528029</v>
       </c>
       <c r="E46" t="n">
-        <v>40130.41672825276</v>
+        <v>51716.47017926317</v>
       </c>
       <c r="F46" t="n">
-        <v>38011.47157686497</v>
+        <v>42991.4201836533</v>
       </c>
       <c r="G46" t="n">
-        <v>38011.47157686497</v>
+        <v>42991.4201836533</v>
       </c>
       <c r="H46" t="n">
-        <v>-1113.549253289877</v>
+        <v>2558.438900897191</v>
       </c>
       <c r="I46" t="n">
-        <v>-1113.549253289877</v>
+        <v>2558.438900897191</v>
       </c>
       <c r="J46" t="n">
-        <v>-1113.549253289877</v>
+        <v>2558.438900897191</v>
       </c>
       <c r="K46" t="n">
-        <v>-1113.549253289877</v>
+        <v>2558.438900897191</v>
       </c>
       <c r="L46" t="n">
-        <v>-1113.549253289877</v>
+        <v>2558.438900897191</v>
       </c>
       <c r="M46" t="n">
-        <v>-1113.549253289877</v>
+        <v>2558.438900897191</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36897.92232357509</v>
+        <v>45549.8590845505</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>38102.68333701755</v>
+        <v>43080.52997024755</v>
       </c>
       <c r="D47" t="n">
-        <v>36645.59805075751</v>
+        <v>37340.62886020718</v>
       </c>
       <c r="E47" t="n">
-        <v>43313.67901527374</v>
+        <v>50073.36170569277</v>
       </c>
       <c r="F47" t="n">
-        <v>38102.68333701755</v>
+        <v>43080.52997024755</v>
       </c>
       <c r="G47" t="n">
-        <v>38102.68333701755</v>
+        <v>43080.52997024755</v>
       </c>
       <c r="H47" t="n">
-        <v>1915.967410448573</v>
+        <v>867.2821561899264</v>
       </c>
       <c r="I47" t="n">
-        <v>1915.967410448573</v>
+        <v>867.2821561899264</v>
       </c>
       <c r="J47" t="n">
-        <v>1915.967410448573</v>
+        <v>867.2821561899264</v>
       </c>
       <c r="K47" t="n">
-        <v>1915.967410448573</v>
+        <v>867.2821561899264</v>
       </c>
       <c r="L47" t="n">
-        <v>1915.967410448573</v>
+        <v>867.2821561899264</v>
       </c>
       <c r="M47" t="n">
-        <v>1915.967410448573</v>
+        <v>867.2821561899264</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>40018.65074746613</v>
+        <v>43947.81212643747</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>38196.93548917523</v>
+        <v>43172.61008259621</v>
       </c>
       <c r="D48" t="n">
-        <v>30771.44496337063</v>
+        <v>34871.50054688269</v>
       </c>
       <c r="E48" t="n">
-        <v>37608.33696365785</v>
+        <v>47649.12772610734</v>
       </c>
       <c r="F48" t="n">
-        <v>38196.93548917523</v>
+        <v>43172.61008259621</v>
       </c>
       <c r="G48" t="n">
-        <v>38196.93548917523</v>
+        <v>43172.61008259621</v>
       </c>
       <c r="H48" t="n">
-        <v>-4044.525173370063</v>
+        <v>-1772.850589345036</v>
       </c>
       <c r="I48" t="n">
-        <v>-4044.525173370063</v>
+        <v>-1772.850589345036</v>
       </c>
       <c r="J48" t="n">
-        <v>-4044.525173370063</v>
+        <v>-1772.850589345036</v>
       </c>
       <c r="K48" t="n">
-        <v>-4044.525173370063</v>
+        <v>-1772.850589345036</v>
       </c>
       <c r="L48" t="n">
-        <v>-4044.525173370063</v>
+        <v>-1772.850589345036</v>
       </c>
       <c r="M48" t="n">
-        <v>-4044.525173370063</v>
+        <v>-1772.850589345036</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>34152.41031580517</v>
+        <v>41399.75949325118</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>38288.21297865607</v>
+        <v>43261.71986874009</v>
       </c>
       <c r="D49" t="n">
-        <v>35095.41473837724</v>
+        <v>32345.57450735339</v>
       </c>
       <c r="E49" t="n">
-        <v>41675.33420638872</v>
+        <v>45336.3730568088</v>
       </c>
       <c r="F49" t="n">
-        <v>38288.21297865607</v>
+        <v>43261.71986874009</v>
       </c>
       <c r="G49" t="n">
-        <v>38288.21297865607</v>
+        <v>43261.71986874009</v>
       </c>
       <c r="H49" t="n">
-        <v>130.9726334187397</v>
+        <v>-4192.866667868844</v>
       </c>
       <c r="I49" t="n">
-        <v>130.9726334187397</v>
+        <v>-4192.866667868844</v>
       </c>
       <c r="J49" t="n">
-        <v>130.9726334187397</v>
+        <v>-4192.866667868844</v>
       </c>
       <c r="K49" t="n">
-        <v>130.9726334187397</v>
+        <v>-4192.866667868844</v>
       </c>
       <c r="L49" t="n">
-        <v>130.9726334187397</v>
+        <v>-4192.866667868844</v>
       </c>
       <c r="M49" t="n">
-        <v>130.9726334187397</v>
+        <v>-4192.866667868844</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>38419.18561207481</v>
+        <v>39068.85320087124</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>38382.53305190056</v>
+        <v>43353.7998067323</v>
       </c>
       <c r="D50" t="n">
-        <v>36222.29967097855</v>
+        <v>36058.54124798308</v>
       </c>
       <c r="E50" t="n">
-        <v>42874.2107364357</v>
+        <v>49189.10759357225</v>
       </c>
       <c r="F50" t="n">
-        <v>38382.53305190056</v>
+        <v>43353.7998067323</v>
       </c>
       <c r="G50" t="n">
-        <v>38382.53305190056</v>
+        <v>43353.7998067323</v>
       </c>
       <c r="H50" t="n">
-        <v>1108.48270024638</v>
+        <v>-672.2060238937402</v>
       </c>
       <c r="I50" t="n">
-        <v>1108.48270024638</v>
+        <v>-672.2060238937402</v>
       </c>
       <c r="J50" t="n">
-        <v>1108.48270024638</v>
+        <v>-672.2060238937402</v>
       </c>
       <c r="K50" t="n">
-        <v>1108.48270024638</v>
+        <v>-672.2060238937402</v>
       </c>
       <c r="L50" t="n">
-        <v>1108.48270024638</v>
+        <v>-672.2060238937402</v>
       </c>
       <c r="M50" t="n">
-        <v>1108.48270024638</v>
+        <v>-672.2060238937402</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>39491.01575214694</v>
+        <v>42681.59378283856</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>38476.85312514504</v>
+        <v>43445.87974472452</v>
       </c>
       <c r="D51" t="n">
-        <v>32839.07741654007</v>
+        <v>28864.0704953972</v>
       </c>
       <c r="E51" t="n">
-        <v>39710.61110929085</v>
+        <v>42063.59907768548</v>
       </c>
       <c r="F51" t="n">
-        <v>38476.85312514504</v>
+        <v>43445.87974472452</v>
       </c>
       <c r="G51" t="n">
-        <v>38476.85312514504</v>
+        <v>43445.87974472452</v>
       </c>
       <c r="H51" t="n">
-        <v>-2181.457569929252</v>
+        <v>-8188.646334892908</v>
       </c>
       <c r="I51" t="n">
-        <v>-2181.457569929252</v>
+        <v>-8188.646334892908</v>
       </c>
       <c r="J51" t="n">
-        <v>-2181.457569929252</v>
+        <v>-8188.646334892908</v>
       </c>
       <c r="K51" t="n">
-        <v>-2181.457569929252</v>
+        <v>-8188.646334892908</v>
       </c>
       <c r="L51" t="n">
-        <v>-2181.457569929252</v>
+        <v>-8188.646334892908</v>
       </c>
       <c r="M51" t="n">
-        <v>-2181.457569929252</v>
+        <v>-8188.646334892908</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>36295.39555521579</v>
+        <v>35257.23340983161</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>38565.08803613963</v>
+        <v>43529.04872054219</v>
       </c>
       <c r="D52" t="n">
-        <v>36067.98522812573</v>
+        <v>38337.21433451599</v>
       </c>
       <c r="E52" t="n">
-        <v>42614.26832633957</v>
+        <v>50894.73702443305</v>
       </c>
       <c r="F52" t="n">
-        <v>38565.08803613963</v>
+        <v>43529.04872054219</v>
       </c>
       <c r="G52" t="n">
-        <v>38565.08803613963</v>
+        <v>43529.04872054219</v>
       </c>
       <c r="H52" t="n">
-        <v>787.8224444904531</v>
+        <v>1170.504512809481</v>
       </c>
       <c r="I52" t="n">
-        <v>787.8224444904531</v>
+        <v>1170.504512809481</v>
       </c>
       <c r="J52" t="n">
-        <v>787.8224444904531</v>
+        <v>1170.504512809481</v>
       </c>
       <c r="K52" t="n">
-        <v>787.8224444904531</v>
+        <v>1170.504512809481</v>
       </c>
       <c r="L52" t="n">
-        <v>787.8224444904531</v>
+        <v>1170.504512809481</v>
       </c>
       <c r="M52" t="n">
-        <v>787.8224444904531</v>
+        <v>1170.504512809481</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>39352.91048063009</v>
+        <v>44699.55323335167</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>38659.40811340972</v>
+        <v>43621.12865805461</v>
       </c>
       <c r="D53" t="n">
-        <v>32202.83299949524</v>
+        <v>34816.95654757298</v>
       </c>
       <c r="E53" t="n">
-        <v>38892.28915165772</v>
+        <v>47679.6606173215</v>
       </c>
       <c r="F53" t="n">
-        <v>38659.40811340972</v>
+        <v>43621.12865805461</v>
       </c>
       <c r="G53" t="n">
-        <v>38659.40811340972</v>
+        <v>43621.12865805461</v>
       </c>
       <c r="H53" t="n">
-        <v>-2992.479681748645</v>
+        <v>-2145.834170264357</v>
       </c>
       <c r="I53" t="n">
-        <v>-2992.479681748645</v>
+        <v>-2145.834170264357</v>
       </c>
       <c r="J53" t="n">
-        <v>-2992.479681748645</v>
+        <v>-2145.834170264357</v>
       </c>
       <c r="K53" t="n">
-        <v>-2992.479681748645</v>
+        <v>-2145.834170264357</v>
       </c>
       <c r="L53" t="n">
-        <v>-2992.479681748645</v>
+        <v>-2145.834170264357</v>
       </c>
       <c r="M53" t="n">
-        <v>-2992.479681748645</v>
+        <v>-2145.834170264357</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>35666.92843166108</v>
+        <v>41475.29448779026</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>38750.68560754206</v>
+        <v>43710.23827457106</v>
       </c>
       <c r="D54" t="n">
-        <v>33771.74797434897</v>
+        <v>35696.92670106888</v>
       </c>
       <c r="E54" t="n">
-        <v>40761.96026828221</v>
+        <v>48113.70701149356</v>
       </c>
       <c r="F54" t="n">
-        <v>38750.68560754206</v>
+        <v>43710.23827457106</v>
       </c>
       <c r="G54" t="n">
-        <v>38750.68560754206</v>
+        <v>43710.23827457106</v>
       </c>
       <c r="H54" t="n">
-        <v>-1488.631489765098</v>
+        <v>-1784.685457029568</v>
       </c>
       <c r="I54" t="n">
-        <v>-1488.631489765098</v>
+        <v>-1784.685457029568</v>
       </c>
       <c r="J54" t="n">
-        <v>-1488.631489765098</v>
+        <v>-1784.685457029568</v>
       </c>
       <c r="K54" t="n">
-        <v>-1488.631489765098</v>
+        <v>-1784.685457029568</v>
       </c>
       <c r="L54" t="n">
-        <v>-1488.631489765098</v>
+        <v>-1784.685457029568</v>
       </c>
       <c r="M54" t="n">
-        <v>-1488.631489765098</v>
+        <v>-1784.685457029568</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>37262.05411777696</v>
+        <v>41925.55281754149</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>38845.00568481214</v>
+        <v>43802.31821163806</v>
       </c>
       <c r="D55" t="n">
-        <v>37161.07954824789</v>
+        <v>36015.45293963602</v>
       </c>
       <c r="E55" t="n">
-        <v>43663.56529370716</v>
+        <v>49282.26292233296</v>
       </c>
       <c r="F55" t="n">
-        <v>38845.00568481214</v>
+        <v>43802.31821163806</v>
       </c>
       <c r="G55" t="n">
-        <v>38845.00568481214</v>
+        <v>43802.31821163806</v>
       </c>
       <c r="H55" t="n">
-        <v>1551.599732696639</v>
+        <v>-1347.824953602656</v>
       </c>
       <c r="I55" t="n">
-        <v>1551.599732696639</v>
+        <v>-1347.824953602656</v>
       </c>
       <c r="J55" t="n">
-        <v>1551.599732696639</v>
+        <v>-1347.824953602656</v>
       </c>
       <c r="K55" t="n">
-        <v>1551.599732696639</v>
+        <v>-1347.824953602656</v>
       </c>
       <c r="L55" t="n">
-        <v>1551.599732696639</v>
+        <v>-1347.824953602656</v>
       </c>
       <c r="M55" t="n">
-        <v>1551.599732696639</v>
+        <v>-1347.824953602656</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>40396.60541750878</v>
+        <v>42454.49325803541</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>38936.28317894448</v>
+        <v>43891.42782815451</v>
       </c>
       <c r="D56" t="n">
-        <v>35157.650629257</v>
+        <v>39132.58648454957</v>
       </c>
       <c r="E56" t="n">
-        <v>41679.82742005</v>
+        <v>51328.01268066173</v>
       </c>
       <c r="F56" t="n">
-        <v>38936.28317894448</v>
+        <v>43891.42782815451</v>
       </c>
       <c r="G56" t="n">
-        <v>38936.28317894448</v>
+        <v>43891.42782815451</v>
       </c>
       <c r="H56" t="n">
-        <v>-334.4993233837669</v>
+        <v>1331.651963457193</v>
       </c>
       <c r="I56" t="n">
-        <v>-334.4993233837669</v>
+        <v>1331.651963457193</v>
       </c>
       <c r="J56" t="n">
-        <v>-334.4993233837669</v>
+        <v>1331.651963457193</v>
       </c>
       <c r="K56" t="n">
-        <v>-334.4993233837669</v>
+        <v>1331.651963457193</v>
       </c>
       <c r="L56" t="n">
-        <v>-334.4993233837669</v>
+        <v>1331.651963457193</v>
       </c>
       <c r="M56" t="n">
-        <v>-334.4993233837669</v>
+        <v>1331.651963457193</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>38601.78385556071</v>
+        <v>45223.07979161171</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>39030.60325621456</v>
+        <v>43983.5077652215</v>
       </c>
       <c r="D57" t="n">
-        <v>40107.74220812423</v>
+        <v>41644.83781356825</v>
       </c>
       <c r="E57" t="n">
-        <v>46812.56905534831</v>
+        <v>54821.75369245948</v>
       </c>
       <c r="F57" t="n">
-        <v>39030.60325621456</v>
+        <v>43983.5077652215</v>
       </c>
       <c r="G57" t="n">
-        <v>39030.60325621456</v>
+        <v>43983.5077652215</v>
       </c>
       <c r="H57" t="n">
-        <v>4312.835292608177</v>
+        <v>4196.276970127365</v>
       </c>
       <c r="I57" t="n">
-        <v>4312.835292608177</v>
+        <v>4196.276970127365</v>
       </c>
       <c r="J57" t="n">
-        <v>4312.835292608177</v>
+        <v>4196.276970127365</v>
       </c>
       <c r="K57" t="n">
-        <v>4312.835292608177</v>
+        <v>4196.276970127365</v>
       </c>
       <c r="L57" t="n">
-        <v>4312.835292608177</v>
+        <v>4196.276970127365</v>
       </c>
       <c r="M57" t="n">
-        <v>4312.835292608177</v>
+        <v>4196.276970127365</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>43343.43854882273</v>
+        <v>48179.78473534887</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>39124.92333348464</v>
+        <v>44075.5877022885</v>
       </c>
       <c r="D58" t="n">
-        <v>36909.78524049134</v>
+        <v>39015.7505952084</v>
       </c>
       <c r="E58" t="n">
-        <v>43571.74492785758</v>
+        <v>51521.48633370598</v>
       </c>
       <c r="F58" t="n">
-        <v>39124.92333348464</v>
+        <v>44075.5877022885</v>
       </c>
       <c r="G58" t="n">
-        <v>39124.92333348464</v>
+        <v>44075.5877022885</v>
       </c>
       <c r="H58" t="n">
-        <v>1197.863171882767</v>
+        <v>1122.495287451928</v>
       </c>
       <c r="I58" t="n">
-        <v>1197.863171882767</v>
+        <v>1122.495287451928</v>
       </c>
       <c r="J58" t="n">
-        <v>1197.863171882767</v>
+        <v>1122.495287451928</v>
       </c>
       <c r="K58" t="n">
-        <v>1197.863171882767</v>
+        <v>1122.495287451928</v>
       </c>
       <c r="L58" t="n">
-        <v>1197.863171882767</v>
+        <v>1122.495287451928</v>
       </c>
       <c r="M58" t="n">
-        <v>1197.863171882767</v>
+        <v>1122.495287451928</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>40322.78650536741</v>
+        <v>45198.08298974043</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>39216.20082761698</v>
+        <v>44164.69731880496</v>
       </c>
       <c r="D59" t="n">
-        <v>35755.90479047868</v>
+        <v>38996.62587209093</v>
       </c>
       <c r="E59" t="n">
-        <v>42312.73768746027</v>
+        <v>52104.80088489885</v>
       </c>
       <c r="F59" t="n">
-        <v>39216.20082761698</v>
+        <v>44164.69731880496</v>
       </c>
       <c r="G59" t="n">
-        <v>39216.20082761698</v>
+        <v>44164.69731880496</v>
       </c>
       <c r="H59" t="n">
-        <v>-255.4608110608992</v>
+        <v>1304.849874357866</v>
       </c>
       <c r="I59" t="n">
-        <v>-255.4608110608992</v>
+        <v>1304.849874357866</v>
       </c>
       <c r="J59" t="n">
-        <v>-255.4608110608992</v>
+        <v>1304.849874357866</v>
       </c>
       <c r="K59" t="n">
-        <v>-255.4608110608992</v>
+        <v>1304.849874357866</v>
       </c>
       <c r="L59" t="n">
-        <v>-255.4608110608992</v>
+        <v>1304.849874357866</v>
       </c>
       <c r="M59" t="n">
-        <v>-255.4608110608992</v>
+        <v>1304.849874357866</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>38960.74001655608</v>
+        <v>45469.54719316283</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>39310.52090488706</v>
+        <v>44256.77725587195</v>
       </c>
       <c r="D60" t="n">
-        <v>34441.54931349994</v>
+        <v>35759.92171445725</v>
       </c>
       <c r="E60" t="n">
-        <v>41152.718710704</v>
+        <v>48918.19422337149</v>
       </c>
       <c r="F60" t="n">
-        <v>39310.52090488706</v>
+        <v>44256.77725587195</v>
       </c>
       <c r="G60" t="n">
-        <v>39310.52090488706</v>
+        <v>44256.77725587195</v>
       </c>
       <c r="H60" t="n">
-        <v>-1668.184391286055</v>
+        <v>-2166.257453240262</v>
       </c>
       <c r="I60" t="n">
-        <v>-1668.184391286055</v>
+        <v>-2166.257453240262</v>
       </c>
       <c r="J60" t="n">
-        <v>-1668.184391286055</v>
+        <v>-2166.257453240262</v>
       </c>
       <c r="K60" t="n">
-        <v>-1668.184391286055</v>
+        <v>-2166.257453240262</v>
       </c>
       <c r="L60" t="n">
-        <v>-1668.184391286055</v>
+        <v>-2166.257453240262</v>
       </c>
       <c r="M60" t="n">
-        <v>-1668.184391286055</v>
+        <v>-2166.257453240262</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>37642.336513601</v>
+        <v>42090.51980263169</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>39401.7983990194</v>
+        <v>44345.8868723884</v>
       </c>
       <c r="D61" t="n">
-        <v>35528.07950265821</v>
+        <v>34256.83373176067</v>
       </c>
       <c r="E61" t="n">
-        <v>41979.88975255172</v>
+        <v>47196.35898514167</v>
       </c>
       <c r="F61" t="n">
-        <v>39401.7983990194</v>
+        <v>44345.8868723884</v>
       </c>
       <c r="G61" t="n">
-        <v>39401.7983990194</v>
+        <v>44345.8868723884</v>
       </c>
       <c r="H61" t="n">
-        <v>-710.9075659193508</v>
+        <v>-3744.499957507169</v>
       </c>
       <c r="I61" t="n">
-        <v>-710.9075659193508</v>
+        <v>-3744.499957507169</v>
       </c>
       <c r="J61" t="n">
-        <v>-710.9075659193508</v>
+        <v>-3744.499957507169</v>
       </c>
       <c r="K61" t="n">
-        <v>-710.9075659193508</v>
+        <v>-3744.499957507169</v>
       </c>
       <c r="L61" t="n">
-        <v>-710.9075659193508</v>
+        <v>-3744.499957507169</v>
       </c>
       <c r="M61" t="n">
-        <v>-710.9075659193508</v>
+        <v>-3744.499957507169</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>38690.89083310005</v>
+        <v>40601.38691488123</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>39496.11847628948</v>
+        <v>44437.9668094554</v>
       </c>
       <c r="D62" t="n">
-        <v>38257.24589739231</v>
+        <v>38263.69093429884</v>
       </c>
       <c r="E62" t="n">
-        <v>45189.2716744811</v>
+        <v>51021.78844728895</v>
       </c>
       <c r="F62" t="n">
-        <v>39496.11847628948</v>
+        <v>44437.9668094554</v>
       </c>
       <c r="G62" t="n">
-        <v>39496.11847628948</v>
+        <v>44437.9668094554</v>
       </c>
       <c r="H62" t="n">
-        <v>2383.509151634873</v>
+        <v>-105.1862578566361</v>
       </c>
       <c r="I62" t="n">
-        <v>2383.509151634873</v>
+        <v>-105.1862578566361</v>
       </c>
       <c r="J62" t="n">
-        <v>2383.509151634873</v>
+        <v>-105.1862578566361</v>
       </c>
       <c r="K62" t="n">
-        <v>2383.509151634873</v>
+        <v>-105.1862578566361</v>
       </c>
       <c r="L62" t="n">
-        <v>2383.509151634873</v>
+        <v>-105.1862578566361</v>
       </c>
       <c r="M62" t="n">
-        <v>2383.509151634873</v>
+        <v>-105.1862578566361</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>41879.62762792435</v>
+        <v>44332.78055159876</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>39590.43855355956</v>
+        <v>44530.0467465224</v>
       </c>
       <c r="D63" t="n">
-        <v>30596.83852429794</v>
+        <v>31421.26496402625</v>
       </c>
       <c r="E63" t="n">
-        <v>36806.11885685086</v>
+        <v>44292.05495150867</v>
       </c>
       <c r="F63" t="n">
-        <v>39590.43855355956</v>
+        <v>44530.0467465224</v>
       </c>
       <c r="G63" t="n">
-        <v>39590.43855355956</v>
+        <v>44530.0467465224</v>
       </c>
       <c r="H63" t="n">
-        <v>-5907.838647165359</v>
+        <v>-6820.499373231445</v>
       </c>
       <c r="I63" t="n">
-        <v>-5907.838647165359</v>
+        <v>-6820.499373231445</v>
       </c>
       <c r="J63" t="n">
-        <v>-5907.838647165359</v>
+        <v>-6820.499373231445</v>
       </c>
       <c r="K63" t="n">
-        <v>-5907.838647165359</v>
+        <v>-6820.499373231445</v>
       </c>
       <c r="L63" t="n">
-        <v>-5907.838647165359</v>
+        <v>-6820.499373231445</v>
       </c>
       <c r="M63" t="n">
-        <v>-5907.838647165359</v>
+        <v>-6820.499373231445</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>33682.59990639421</v>
+        <v>37709.54737329095</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>39675.63088141641</v>
+        <v>44613.21572193775</v>
       </c>
       <c r="D64" t="n">
-        <v>36120.63431592046</v>
+        <v>36990.24494435947</v>
       </c>
       <c r="E64" t="n">
-        <v>42605.84932942025</v>
+        <v>49428.13551038973</v>
       </c>
       <c r="F64" t="n">
-        <v>39675.63088141641</v>
+        <v>44613.21572193775</v>
       </c>
       <c r="G64" t="n">
-        <v>39675.63088141641</v>
+        <v>44613.21572193775</v>
       </c>
       <c r="H64" t="n">
-        <v>-202.6984475092406</v>
+        <v>-1161.131389159345</v>
       </c>
       <c r="I64" t="n">
-        <v>-202.6984475092406</v>
+        <v>-1161.131389159345</v>
       </c>
       <c r="J64" t="n">
-        <v>-202.6984475092406</v>
+        <v>-1161.131389159345</v>
       </c>
       <c r="K64" t="n">
-        <v>-202.6984475092406</v>
+        <v>-1161.131389159345</v>
       </c>
       <c r="L64" t="n">
-        <v>-202.6984475092406</v>
+        <v>-1161.131389159345</v>
       </c>
       <c r="M64" t="n">
-        <v>-202.6984475092406</v>
+        <v>-1161.131389159345</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>39472.93243390718</v>
+        <v>43452.0843327784</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>39769.95095868649</v>
+        <v>44705.29565900475</v>
       </c>
       <c r="D65" t="n">
-        <v>33928.95423301429</v>
+        <v>35371.68175331729</v>
       </c>
       <c r="E65" t="n">
-        <v>40639.9108166427</v>
+        <v>48478.42284749027</v>
       </c>
       <c r="F65" t="n">
-        <v>39769.95095868649</v>
+        <v>44705.29565900475</v>
       </c>
       <c r="G65" t="n">
-        <v>39769.95095868649</v>
+        <v>44705.29565900475</v>
       </c>
       <c r="H65" t="n">
-        <v>-2687.716674366501</v>
+        <v>-2881.305587997545</v>
       </c>
       <c r="I65" t="n">
-        <v>-2687.716674366501</v>
+        <v>-2881.305587997545</v>
       </c>
       <c r="J65" t="n">
-        <v>-2687.716674366501</v>
+        <v>-2881.305587997545</v>
       </c>
       <c r="K65" t="n">
-        <v>-2687.716674366501</v>
+        <v>-2881.305587997545</v>
       </c>
       <c r="L65" t="n">
-        <v>-2687.716674366501</v>
+        <v>-2881.305587997545</v>
       </c>
       <c r="M65" t="n">
-        <v>-2687.716674366501</v>
+        <v>-2881.305587997545</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>37082.23428431999</v>
+        <v>41823.99007100721</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>39861.22845281883</v>
+        <v>44794.4052755212</v>
       </c>
       <c r="D66" t="n">
-        <v>34850.3532761211</v>
+        <v>38319.77584996396</v>
       </c>
       <c r="E66" t="n">
-        <v>41889.12210277392</v>
+        <v>51248.5686171294</v>
       </c>
       <c r="F66" t="n">
-        <v>39861.22845281883</v>
+        <v>44794.4052755212</v>
       </c>
       <c r="G66" t="n">
-        <v>39861.22845281883</v>
+        <v>44794.4052755212</v>
       </c>
       <c r="H66" t="n">
-        <v>-1416.776281379317</v>
+        <v>-187.6686915783636</v>
       </c>
       <c r="I66" t="n">
-        <v>-1416.776281379317</v>
+        <v>-187.6686915783636</v>
       </c>
       <c r="J66" t="n">
-        <v>-1416.776281379317</v>
+        <v>-187.6686915783636</v>
       </c>
       <c r="K66" t="n">
-        <v>-1416.776281379317</v>
+        <v>-187.6686915783636</v>
       </c>
       <c r="L66" t="n">
-        <v>-1416.776281379317</v>
+        <v>-187.6686915783636</v>
       </c>
       <c r="M66" t="n">
-        <v>-1416.776281379317</v>
+        <v>-187.6686915783636</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>38444.45217143952</v>
+        <v>44606.73658394283</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>39955.5485300889</v>
+        <v>44886.4852125882</v>
       </c>
       <c r="D67" t="n">
-        <v>37300.34963072768</v>
+        <v>37711.24581701446</v>
       </c>
       <c r="E67" t="n">
-        <v>43607.47555520603</v>
+        <v>50424.79932785182</v>
       </c>
       <c r="F67" t="n">
-        <v>39955.5485300889</v>
+        <v>44886.47917295971</v>
       </c>
       <c r="G67" t="n">
-        <v>39955.5485300889</v>
+        <v>44886.4931135628</v>
       </c>
       <c r="H67" t="n">
-        <v>571.5462991221344</v>
+        <v>-932.7781336092838</v>
       </c>
       <c r="I67" t="n">
-        <v>571.5462991221344</v>
+        <v>-932.7781336092838</v>
       </c>
       <c r="J67" t="n">
-        <v>571.5462991221344</v>
+        <v>-932.7781336092838</v>
       </c>
       <c r="K67" t="n">
-        <v>571.5462991221344</v>
+        <v>-932.7781336092838</v>
       </c>
       <c r="L67" t="n">
-        <v>571.5462991221344</v>
+        <v>-932.7781336092838</v>
       </c>
       <c r="M67" t="n">
-        <v>571.5462991221344</v>
+        <v>-932.7781336092838</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>40527.09482921104</v>
+        <v>43953.70707897891</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>40046.82602422125</v>
+        <v>44975.59482910464</v>
       </c>
       <c r="D68" t="n">
-        <v>37299.85997046382</v>
+        <v>40033.54254723463</v>
       </c>
       <c r="E68" t="n">
-        <v>43995.98732740819</v>
+        <v>52360.57835874613</v>
       </c>
       <c r="F68" t="n">
-        <v>40046.82602422125</v>
+        <v>44975.56389034155</v>
       </c>
       <c r="G68" t="n">
-        <v>40046.82602422125</v>
+        <v>44975.63588432542</v>
       </c>
       <c r="H68" t="n">
-        <v>629.577807436393</v>
+        <v>1244.447906507538</v>
       </c>
       <c r="I68" t="n">
-        <v>629.577807436393</v>
+        <v>1244.447906507538</v>
       </c>
       <c r="J68" t="n">
-        <v>629.577807436393</v>
+        <v>1244.447906507538</v>
       </c>
       <c r="K68" t="n">
-        <v>629.577807436393</v>
+        <v>1244.447906507538</v>
       </c>
       <c r="L68" t="n">
-        <v>629.577807436393</v>
+        <v>1244.447906507538</v>
       </c>
       <c r="M68" t="n">
-        <v>629.577807436393</v>
+        <v>1244.447906507538</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>40676.40383165764</v>
+        <v>46220.04273561218</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>40141.14610149133</v>
+        <v>45067.67476617164</v>
       </c>
       <c r="D69" t="n">
-        <v>41316.48497291763</v>
+        <v>43576.35816464971</v>
       </c>
       <c r="E69" t="n">
-        <v>48290.41233505895</v>
+        <v>55391.75522586375</v>
       </c>
       <c r="F69" t="n">
-        <v>40141.14610149133</v>
+        <v>45067.60175562395</v>
       </c>
       <c r="G69" t="n">
-        <v>40141.14610149133</v>
+        <v>45067.75696504419</v>
       </c>
       <c r="H69" t="n">
-        <v>4661.840545079777</v>
+        <v>4529.028639913176</v>
       </c>
       <c r="I69" t="n">
-        <v>4661.840545079777</v>
+        <v>4529.028639913176</v>
       </c>
       <c r="J69" t="n">
-        <v>4661.840545079777</v>
+        <v>4529.028639913176</v>
       </c>
       <c r="K69" t="n">
-        <v>4661.840545079777</v>
+        <v>4529.028639913176</v>
       </c>
       <c r="L69" t="n">
-        <v>4661.840545079777</v>
+        <v>4529.028639913176</v>
       </c>
       <c r="M69" t="n">
-        <v>4661.840545079777</v>
+        <v>4529.028639913176</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>44802.98664657111</v>
+        <v>49596.70340608482</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>40235.46617876141</v>
+        <v>45159.75470323864</v>
       </c>
       <c r="D70" t="n">
-        <v>37365.18575708484</v>
+        <v>38588.45041523589</v>
       </c>
       <c r="E70" t="n">
-        <v>43785.92095160943</v>
+        <v>51389.89999882139</v>
       </c>
       <c r="F70" t="n">
-        <v>40235.46617876141</v>
+        <v>45159.6381094866</v>
       </c>
       <c r="G70" t="n">
-        <v>40235.46617876141</v>
+        <v>45159.88799402181</v>
       </c>
       <c r="H70" t="n">
-        <v>428.9117164160901</v>
+        <v>-315.8830493083663</v>
       </c>
       <c r="I70" t="n">
-        <v>428.9117164160901</v>
+        <v>-315.8830493083663</v>
       </c>
       <c r="J70" t="n">
-        <v>428.9117164160901</v>
+        <v>-315.8830493083663</v>
       </c>
       <c r="K70" t="n">
-        <v>428.9117164160901</v>
+        <v>-315.8830493083663</v>
       </c>
       <c r="L70" t="n">
-        <v>428.9117164160901</v>
+        <v>-315.8830493083663</v>
       </c>
       <c r="M70" t="n">
-        <v>428.9117164160901</v>
+        <v>-315.8830493083663</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>40664.3778951775</v>
+        <v>44843.87165393028</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>40326.74367289375</v>
+        <v>45248.86431975509</v>
       </c>
       <c r="D71" t="n">
-        <v>37606.75464932666</v>
+        <v>41507.06760877803</v>
       </c>
       <c r="E71" t="n">
-        <v>44046.51745805184</v>
+        <v>53205.11752778481</v>
       </c>
       <c r="F71" t="n">
-        <v>40326.74367289375</v>
+        <v>45248.69047811134</v>
       </c>
       <c r="G71" t="n">
-        <v>40326.74367289375</v>
+        <v>45249.04100583732</v>
       </c>
       <c r="H71" t="n">
-        <v>471.5636716222406</v>
+        <v>1759.501069439196</v>
       </c>
       <c r="I71" t="n">
-        <v>471.5636716222406</v>
+        <v>1759.501069439196</v>
       </c>
       <c r="J71" t="n">
-        <v>471.5636716222406</v>
+        <v>1759.501069439196</v>
       </c>
       <c r="K71" t="n">
-        <v>471.5636716222406</v>
+        <v>1759.501069439196</v>
       </c>
       <c r="L71" t="n">
-        <v>471.5636716222406</v>
+        <v>1759.501069439196</v>
       </c>
       <c r="M71" t="n">
-        <v>471.5636716222406</v>
+        <v>1759.501069439196</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>40798.30734451599</v>
+        <v>47008.36538919429</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>40421.06375016383</v>
+        <v>45340.94425682208</v>
       </c>
       <c r="D72" t="n">
-        <v>34629.23809338768</v>
+        <v>36470.45863739711</v>
       </c>
       <c r="E72" t="n">
-        <v>41277.00937746187</v>
+        <v>48810.162099696</v>
       </c>
       <c r="F72" t="n">
-        <v>40421.06375016383</v>
+        <v>45340.70371647568</v>
       </c>
       <c r="G72" t="n">
-        <v>40421.06375016383</v>
+        <v>45341.17694086322</v>
       </c>
       <c r="H72" t="n">
-        <v>-2457.144321695256</v>
+        <v>-2547.346556764312</v>
       </c>
       <c r="I72" t="n">
-        <v>-2457.144321695256</v>
+        <v>-2547.346556764312</v>
       </c>
       <c r="J72" t="n">
-        <v>-2457.144321695256</v>
+        <v>-2547.346556764312</v>
       </c>
       <c r="K72" t="n">
-        <v>-2457.144321695256</v>
+        <v>-2547.346556764312</v>
       </c>
       <c r="L72" t="n">
-        <v>-2457.144321695256</v>
+        <v>-2547.346556764312</v>
       </c>
       <c r="M72" t="n">
-        <v>-2457.144321695256</v>
+        <v>-2547.346556764312</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>37963.91942846857</v>
+        <v>42793.59770005777</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>40512.34124429617</v>
+        <v>45430.05387333854</v>
       </c>
       <c r="D73" t="n">
-        <v>36652.60176005925</v>
+        <v>36153.07677036446</v>
       </c>
       <c r="E73" t="n">
-        <v>43265.33554787985</v>
+        <v>48151.1797374864</v>
       </c>
       <c r="F73" t="n">
-        <v>40512.34124429617</v>
+        <v>45429.74858566593</v>
       </c>
       <c r="G73" t="n">
-        <v>40512.34124429617</v>
+        <v>45430.35699085777</v>
       </c>
       <c r="H73" t="n">
-        <v>-438.3231525350422</v>
+        <v>-3278.8540370586</v>
       </c>
       <c r="I73" t="n">
-        <v>-438.3231525350422</v>
+        <v>-3278.8540370586</v>
       </c>
       <c r="J73" t="n">
-        <v>-438.3231525350422</v>
+        <v>-3278.8540370586</v>
       </c>
       <c r="K73" t="n">
-        <v>-438.3231525350422</v>
+        <v>-3278.8540370586</v>
       </c>
       <c r="L73" t="n">
-        <v>-438.3231525350422</v>
+        <v>-3278.8540370586</v>
       </c>
       <c r="M73" t="n">
-        <v>-438.3231525350422</v>
+        <v>-3278.8540370586</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>40074.01809176113</v>
+        <v>42151.19983627994</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>40606.66132156625</v>
+        <v>45522.13381040553</v>
       </c>
       <c r="D74" t="n">
-        <v>39147.85286892</v>
+        <v>39607.30475201157</v>
       </c>
       <c r="E74" t="n">
-        <v>46020.29796498991</v>
+        <v>52084.21185409134</v>
       </c>
       <c r="F74" t="n">
-        <v>40606.66132156625</v>
+        <v>45521.75227967013</v>
       </c>
       <c r="G74" t="n">
-        <v>40606.66132156625</v>
+        <v>45522.51210180496</v>
       </c>
       <c r="H74" t="n">
-        <v>1946.19607369629</v>
+        <v>462.840667014243</v>
       </c>
       <c r="I74" t="n">
-        <v>1946.19607369629</v>
+        <v>462.840667014243</v>
       </c>
       <c r="J74" t="n">
-        <v>1946.19607369629</v>
+        <v>462.840667014243</v>
       </c>
       <c r="K74" t="n">
-        <v>1946.19607369629</v>
+        <v>462.840667014243</v>
       </c>
       <c r="L74" t="n">
-        <v>1946.19607369629</v>
+        <v>462.840667014243</v>
       </c>
       <c r="M74" t="n">
-        <v>1946.19607369629</v>
+        <v>462.840667014243</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>42552.85739526254</v>
+        <v>45984.97447741978</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>40700.98139883633</v>
+        <v>45614.21374747254</v>
       </c>
       <c r="D75" t="n">
-        <v>32663.86307743042</v>
+        <v>33978.14256579879</v>
       </c>
       <c r="E75" t="n">
-        <v>39418.45829674129</v>
+        <v>46547.26924689901</v>
       </c>
       <c r="F75" t="n">
-        <v>40700.98139883633</v>
+        <v>45613.72986155334</v>
       </c>
       <c r="G75" t="n">
-        <v>40700.98139883633</v>
+        <v>45614.67613925729</v>
       </c>
       <c r="H75" t="n">
-        <v>-4663.658354800041</v>
+        <v>-5490.348316998355</v>
       </c>
       <c r="I75" t="n">
-        <v>-4663.658354800041</v>
+        <v>-5490.348316998355</v>
       </c>
       <c r="J75" t="n">
-        <v>-4663.658354800041</v>
+        <v>-5490.348316998355</v>
       </c>
       <c r="K75" t="n">
-        <v>-4663.658354800041</v>
+        <v>-5490.348316998355</v>
       </c>
       <c r="L75" t="n">
-        <v>-4663.658354800041</v>
+        <v>-5490.348316998355</v>
       </c>
       <c r="M75" t="n">
-        <v>-4663.658354800041</v>
+        <v>-5490.348316998355</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>36037.32304403629</v>
+        <v>40123.86543047419</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>40786.17372669318</v>
+        <v>45697.38272288789</v>
       </c>
       <c r="D76" t="n">
-        <v>36073.67591447123</v>
+        <v>36333.69266961066</v>
       </c>
       <c r="E76" t="n">
-        <v>42942.95237023268</v>
+        <v>48125.24652295588</v>
       </c>
       <c r="F76" t="n">
-        <v>40786.17372669318</v>
+        <v>45696.83204666889</v>
       </c>
       <c r="G76" t="n">
-        <v>40786.17372669318</v>
+        <v>45697.92402856411</v>
       </c>
       <c r="H76" t="n">
-        <v>-1204.836257246937</v>
+        <v>-3509.007212331527</v>
       </c>
       <c r="I76" t="n">
-        <v>-1204.836257246937</v>
+        <v>-3509.007212331527</v>
       </c>
       <c r="J76" t="n">
-        <v>-1204.836257246937</v>
+        <v>-3509.007212331527</v>
       </c>
       <c r="K76" t="n">
-        <v>-1204.836257246937</v>
+        <v>-3509.007212331527</v>
       </c>
       <c r="L76" t="n">
-        <v>-1204.836257246937</v>
+        <v>-3509.007212331527</v>
       </c>
       <c r="M76" t="n">
-        <v>-1204.836257246937</v>
+        <v>-3509.007212331527</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>39581.33746944625</v>
+        <v>42188.37551055636</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>40880.49380396326</v>
+        <v>45789.46265995489</v>
       </c>
       <c r="D77" t="n">
-        <v>35196.62605710245</v>
+        <v>35819.84257745106</v>
       </c>
       <c r="E77" t="n">
-        <v>41800.71504441067</v>
+        <v>48405.9044550312</v>
       </c>
       <c r="F77" t="n">
-        <v>40880.49380396326</v>
+        <v>45788.82122275233</v>
       </c>
       <c r="G77" t="n">
-        <v>40880.49380396326</v>
+        <v>45790.09657197924</v>
       </c>
       <c r="H77" t="n">
-        <v>-2375.080869181956</v>
+        <v>-3562.544994851489</v>
       </c>
       <c r="I77" t="n">
-        <v>-2375.080869181956</v>
+        <v>-3562.544994851489</v>
       </c>
       <c r="J77" t="n">
-        <v>-2375.080869181956</v>
+        <v>-3562.544994851489</v>
       </c>
       <c r="K77" t="n">
-        <v>-2375.080869181956</v>
+        <v>-3562.544994851489</v>
       </c>
       <c r="L77" t="n">
-        <v>-2375.080869181956</v>
+        <v>-3562.544994851489</v>
       </c>
       <c r="M77" t="n">
-        <v>-2375.080869181956</v>
+        <v>-3562.544994851489</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>38505.41293478131</v>
+        <v>42226.9176651034</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>40971.77129809561</v>
+        <v>45878.57227647133</v>
       </c>
       <c r="D78" t="n">
-        <v>36506.45227787403</v>
+        <v>41396.23335238921</v>
       </c>
       <c r="E78" t="n">
-        <v>42872.5179757291</v>
+        <v>53605.50185176243</v>
       </c>
       <c r="F78" t="n">
-        <v>40970.17162990745</v>
+        <v>45877.84929608409</v>
       </c>
       <c r="G78" t="n">
-        <v>40972.87677122407</v>
+        <v>45879.3037473619</v>
       </c>
       <c r="H78" t="n">
-        <v>-1354.752303139179</v>
+        <v>1433.394849731012</v>
       </c>
       <c r="I78" t="n">
-        <v>-1354.752303139179</v>
+        <v>1433.394849731012</v>
       </c>
       <c r="J78" t="n">
-        <v>-1354.752303139179</v>
+        <v>1433.394849731012</v>
       </c>
       <c r="K78" t="n">
-        <v>-1354.752303139179</v>
+        <v>1433.394849731012</v>
       </c>
       <c r="L78" t="n">
-        <v>-1354.752303139179</v>
+        <v>1433.394849731012</v>
       </c>
       <c r="M78" t="n">
-        <v>-1354.752303139179</v>
+        <v>1433.394849731012</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>39617.01899495643</v>
+        <v>47311.96712620234</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>41066.09137536568</v>
+        <v>45970.65221353833</v>
       </c>
       <c r="D79" t="n">
-        <v>37255.35846164494</v>
+        <v>39536.21983179817</v>
       </c>
       <c r="E79" t="n">
-        <v>43849.93730399235</v>
+        <v>51942.76745410089</v>
       </c>
       <c r="F79" t="n">
-        <v>41055.4267063762</v>
+        <v>45969.82528510288</v>
       </c>
       <c r="G79" t="n">
-        <v>41075.53017783003</v>
+        <v>45971.47402035883</v>
       </c>
       <c r="H79" t="n">
-        <v>-396.0191734072602</v>
+        <v>-534.557685522291</v>
       </c>
       <c r="I79" t="n">
-        <v>-396.0191734072602</v>
+        <v>-534.557685522291</v>
       </c>
       <c r="J79" t="n">
-        <v>-396.0191734072602</v>
+        <v>-534.557685522291</v>
       </c>
       <c r="K79" t="n">
-        <v>-396.0191734072602</v>
+        <v>-534.557685522291</v>
       </c>
       <c r="L79" t="n">
-        <v>-396.0191734072602</v>
+        <v>-534.557685522291</v>
       </c>
       <c r="M79" t="n">
-        <v>-396.0191734072602</v>
+        <v>-534.557685522291</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>40670.07220195842</v>
+        <v>45436.09452801604</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>41157.36886949802</v>
+        <v>46059.76183005478</v>
       </c>
       <c r="D80" t="n">
-        <v>39283.41973007807</v>
+        <v>40938.56348782113</v>
       </c>
       <c r="E80" t="n">
-        <v>46145.3674236369</v>
+        <v>53793.4261040023</v>
       </c>
       <c r="F80" t="n">
-        <v>41134.84480347447</v>
+        <v>46058.86397694582</v>
       </c>
       <c r="G80" t="n">
-        <v>41179.14753571078</v>
+        <v>46060.67620381761</v>
       </c>
       <c r="H80" t="n">
-        <v>1608.583719829312</v>
+        <v>1142.169719631258</v>
       </c>
       <c r="I80" t="n">
-        <v>1608.583719829312</v>
+        <v>1142.169719631258</v>
       </c>
       <c r="J80" t="n">
-        <v>1608.583719829312</v>
+        <v>1142.169719631258</v>
       </c>
       <c r="K80" t="n">
-        <v>1608.583719829312</v>
+        <v>1142.169719631258</v>
       </c>
       <c r="L80" t="n">
-        <v>1608.583719829312</v>
+        <v>1142.169719631258</v>
       </c>
       <c r="M80" t="n">
-        <v>1608.583719829312</v>
+        <v>1142.169719631258</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>42765.95258932733</v>
+        <v>47201.93154968604</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>41251.6889467681</v>
+        <v>46151.84176712178</v>
       </c>
       <c r="D81" t="n">
-        <v>43071.55545574297</v>
+        <v>44779.28225920515</v>
       </c>
       <c r="E81" t="n">
-        <v>49813.3482025773</v>
+        <v>57252.26407499792</v>
       </c>
       <c r="F81" t="n">
-        <v>41214.73906610669</v>
+        <v>46150.84841799676</v>
       </c>
       <c r="G81" t="n">
-        <v>41285.54109234941</v>
+        <v>46152.86553294151</v>
       </c>
       <c r="H81" t="n">
-        <v>4990.430882333844</v>
+        <v>4836.060779549832</v>
       </c>
       <c r="I81" t="n">
-        <v>4990.430882333844</v>
+        <v>4836.060779549832</v>
       </c>
       <c r="J81" t="n">
-        <v>4990.430882333844</v>
+        <v>4836.060779549832</v>
       </c>
       <c r="K81" t="n">
-        <v>4990.430882333844</v>
+        <v>4836.060779549832</v>
       </c>
       <c r="L81" t="n">
-        <v>4990.430882333844</v>
+        <v>4836.060779549832</v>
       </c>
       <c r="M81" t="n">
-        <v>4990.430882333844</v>
+        <v>4836.060779549832</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>46242.11982910194</v>
+        <v>50987.9025466716</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>41346.00902403818</v>
+        <v>46243.92170418878</v>
       </c>
       <c r="D82" t="n">
-        <v>37726.76920440386</v>
+        <v>38826.78622945442</v>
       </c>
       <c r="E82" t="n">
-        <v>44403.09190679613</v>
+        <v>50763.5186431092</v>
       </c>
       <c r="F82" t="n">
-        <v>41289.60335694246</v>
+        <v>46242.83785880775</v>
       </c>
       <c r="G82" t="n">
-        <v>41394.01402017749</v>
+        <v>46245.01606262153</v>
       </c>
       <c r="H82" t="n">
-        <v>-341.7680503843694</v>
+        <v>-1755.112277622369</v>
       </c>
       <c r="I82" t="n">
-        <v>-341.7680503843694</v>
+        <v>-1755.112277622369</v>
       </c>
       <c r="J82" t="n">
-        <v>-341.7680503843694</v>
+        <v>-1755.112277622369</v>
       </c>
       <c r="K82" t="n">
-        <v>-341.7680503843694</v>
+        <v>-1755.112277622369</v>
       </c>
       <c r="L82" t="n">
-        <v>-341.7680503843694</v>
+        <v>-1755.112277622369</v>
       </c>
       <c r="M82" t="n">
-        <v>-341.7680503843694</v>
+        <v>-1755.112277622369</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>41004.24097365382</v>
+        <v>44488.80942656641</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>41437.28651817052</v>
+        <v>46333.03132070522</v>
       </c>
       <c r="D83" t="n">
-        <v>39354.51716529674</v>
+        <v>42048.04283564951</v>
       </c>
       <c r="E83" t="n">
-        <v>45991.0660218136</v>
+        <v>54922.26083068323</v>
       </c>
       <c r="F83" t="n">
-        <v>41362.5479860167</v>
+        <v>46331.83744889896</v>
       </c>
       <c r="G83" t="n">
-        <v>41503.96535829176</v>
+        <v>46334.25401793682</v>
       </c>
       <c r="H83" t="n">
-        <v>1195.501825247604</v>
+        <v>2231.24792450814</v>
       </c>
       <c r="I83" t="n">
-        <v>1195.501825247604</v>
+        <v>2231.24792450814</v>
       </c>
       <c r="J83" t="n">
-        <v>1195.501825247604</v>
+        <v>2231.24792450814</v>
       </c>
       <c r="K83" t="n">
-        <v>1195.501825247604</v>
+        <v>2231.24792450814</v>
       </c>
       <c r="L83" t="n">
-        <v>1195.501825247604</v>
+        <v>2231.24792450814</v>
       </c>
       <c r="M83" t="n">
-        <v>1195.501825247604</v>
+        <v>2231.24792450814</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>42632.78834341813</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>41531.6065954406</v>
-      </c>
-      <c r="D84" t="n">
-        <v>34824.96163146289</v>
-      </c>
-      <c r="E84" t="n">
-        <v>41525.85690596921</v>
-      </c>
-      <c r="F84" t="n">
-        <v>41439.91192263635</v>
-      </c>
-      <c r="G84" t="n">
-        <v>41615.34138284607</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-3249.494739644947</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-3249.494739644947</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-3249.494739644947</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-3249.494739644947</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-3249.494739644947</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-3249.494739644947</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>38282.11185579565</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>41622.88408957294</v>
-      </c>
-      <c r="D85" t="n">
-        <v>38183.73376461455</v>
-      </c>
-      <c r="E85" t="n">
-        <v>44855.365087339</v>
-      </c>
-      <c r="F85" t="n">
-        <v>41506.92137374662</v>
-      </c>
-      <c r="G85" t="n">
-        <v>41723.43290905497</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-157.6749561105401</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-157.6749561105401</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-157.6749561105401</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-157.6749561105401</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-157.6749561105401</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-157.6749561105401</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>41465.2091334624</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>41717.20416684302</v>
-      </c>
-      <c r="D86" t="n">
-        <v>39691.5470771423</v>
-      </c>
-      <c r="E86" t="n">
-        <v>46296.72542009675</v>
-      </c>
-      <c r="F86" t="n">
-        <v>41579.29404743554</v>
-      </c>
-      <c r="G86" t="n">
-        <v>41834.25534732532</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1521.154834419779</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1521.154834419779</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1521.154834419779</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1521.154834419779</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1521.154834419779</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1521.154834419779</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>43238.3590012628</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>41811.5242441131</v>
-      </c>
-      <c r="D87" t="n">
-        <v>35016.50386846234</v>
-      </c>
-      <c r="E87" t="n">
-        <v>41872.10253784594</v>
-      </c>
-      <c r="F87" t="n">
-        <v>41650.67960156647</v>
-      </c>
-      <c r="G87" t="n">
-        <v>41946.77513181676</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-3421.141258969477</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-3421.141258969477</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-3421.141258969477</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-3421.141258969477</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-3421.141258969477</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-3421.141258969477</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>38390.38298514363</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>41896.71657196996</v>
-      </c>
-      <c r="D88" t="n">
-        <v>36265.55869596159</v>
-      </c>
-      <c r="E88" t="n">
-        <v>42985.13767629126</v>
-      </c>
-      <c r="F88" t="n">
-        <v>41712.19990422585</v>
-      </c>
-      <c r="G88" t="n">
-        <v>42053.50967057861</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-2217.764702667935</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-2217.764702667935</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-2217.764702667935</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-2217.764702667935</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-2217.764702667935</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-2217.764702667935</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>39678.95186930202</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>41991.03664924004</v>
-      </c>
-      <c r="D89" t="n">
-        <v>36433.93455601514</v>
-      </c>
-      <c r="E89" t="n">
-        <v>43154.77328785143</v>
-      </c>
-      <c r="F89" t="n">
-        <v>41780.40990383057</v>
-      </c>
-      <c r="G89" t="n">
-        <v>42168.10288723428</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-2054.652543718245</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-2054.652543718245</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-2054.652543718245</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-2054.652543718245</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-2054.652543718245</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-2054.652543718245</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>39936.38410552179</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>42082.31414337237</v>
-      </c>
-      <c r="D90" t="n">
-        <v>37457.85112172837</v>
-      </c>
-      <c r="E90" t="n">
-        <v>44178.25353563426</v>
-      </c>
-      <c r="F90" t="n">
-        <v>41845.3157959559</v>
-      </c>
-      <c r="G90" t="n">
-        <v>42283.97809118342</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-1302.437075859541</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-1302.437075859541</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-1302.437075859541</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-1302.437075859541</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-1302.437075859541</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-1302.437075859541</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>40779.87706751283</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>42176.63422064245</v>
-      </c>
-      <c r="D91" t="n">
-        <v>37480.62747813843</v>
-      </c>
-      <c r="E91" t="n">
-        <v>44187.03211800658</v>
-      </c>
-      <c r="F91" t="n">
-        <v>41908.26313910843</v>
-      </c>
-      <c r="G91" t="n">
-        <v>42405.94098967227</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-1350.257601683536</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-1350.257601683536</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-1350.257601683536</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-1350.257601683536</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-1350.257601683536</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-1350.257601683536</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>40826.37661895892</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>42267.91171477479</v>
-      </c>
-      <c r="D92" t="n">
-        <v>41366.38886906777</v>
-      </c>
-      <c r="E92" t="n">
-        <v>47940.60276928453</v>
-      </c>
-      <c r="F92" t="n">
-        <v>41966.51986544242</v>
-      </c>
-      <c r="G92" t="n">
-        <v>42529.62350359361</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2601.486494319928</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2601.486494319928</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2601.486494319928</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2601.486494319928</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2601.486494319928</v>
-      </c>
-      <c r="M92" t="n">
-        <v>2601.486494319928</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>44869.39820909472</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>42362.23179204488</v>
-      </c>
-      <c r="D93" t="n">
-        <v>44258.56122007047</v>
-      </c>
-      <c r="E93" t="n">
-        <v>50971.43964700842</v>
-      </c>
-      <c r="F93" t="n">
-        <v>42025.39871620025</v>
-      </c>
-      <c r="G93" t="n">
-        <v>42652.78828025987</v>
-      </c>
-      <c r="H93" t="n">
-        <v>5298.150733467012</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5298.150733467012</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5298.150733467012</v>
-      </c>
-      <c r="K93" t="n">
-        <v>5298.150733467012</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5298.150733467012</v>
-      </c>
-      <c r="M93" t="n">
-        <v>5298.150733467012</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>47660.38252551189</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>42456.55186931496</v>
-      </c>
-      <c r="D94" t="n">
-        <v>37863.532459905</v>
-      </c>
-      <c r="E94" t="n">
-        <v>44688.08610125327</v>
-      </c>
-      <c r="F94" t="n">
-        <v>42087.23185378214</v>
-      </c>
-      <c r="G94" t="n">
-        <v>42777.57672249683</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-1113.54925328291</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-1113.54925328291</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-1113.54925328291</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-1113.54925328291</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-1113.54925328291</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-1113.54925328291</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>41343.00261603205</v>
+        <v>48564.27924521337</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/wl_sales_monthly.xlsx
+++ b/outputs/wl_sales_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>39029.74680719076</v>
+        <v>38940.11672608712</v>
       </c>
       <c r="D2" t="n">
-        <v>31883.12790672134</v>
+        <v>32174.83968466019</v>
       </c>
       <c r="E2" t="n">
-        <v>45111.54623238136</v>
+        <v>44994.98823636418</v>
       </c>
       <c r="F2" t="n">
-        <v>39029.74680719076</v>
+        <v>38940.11672608712</v>
       </c>
       <c r="G2" t="n">
-        <v>39029.74680719076</v>
+        <v>38940.11672608712</v>
       </c>
       <c r="H2" t="n">
-        <v>-672.2060238956976</v>
+        <v>-789.6765340649598</v>
       </c>
       <c r="I2" t="n">
-        <v>-672.2060238956976</v>
+        <v>-789.6765340649598</v>
       </c>
       <c r="J2" t="n">
-        <v>-672.2060238956976</v>
+        <v>-789.6765340649598</v>
       </c>
       <c r="K2" t="n">
-        <v>-672.2060238956976</v>
+        <v>-789.6765340649598</v>
       </c>
       <c r="L2" t="n">
-        <v>-672.2060238956976</v>
+        <v>-789.6765340649598</v>
       </c>
       <c r="M2" t="n">
-        <v>-672.2060238956976</v>
+        <v>-789.6765340649598</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>38357.54078329507</v>
+        <v>38150.44019202216</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>39121.15698757137</v>
+        <v>39038.10082921205</v>
       </c>
       <c r="D3" t="n">
-        <v>24260.4207786482</v>
+        <v>24496.9649002994</v>
       </c>
       <c r="E3" t="n">
-        <v>36498.09148748103</v>
+        <v>36873.19489660505</v>
       </c>
       <c r="F3" t="n">
-        <v>39121.15698757137</v>
+        <v>39038.10082921205</v>
       </c>
       <c r="G3" t="n">
-        <v>39121.15698757137</v>
+        <v>39038.10082921205</v>
       </c>
       <c r="H3" t="n">
-        <v>-8188.646334896782</v>
+        <v>-8293.628731901488</v>
       </c>
       <c r="I3" t="n">
-        <v>-8188.646334896782</v>
+        <v>-8293.628731901488</v>
       </c>
       <c r="J3" t="n">
-        <v>-8188.646334896782</v>
+        <v>-8293.628731901488</v>
       </c>
       <c r="K3" t="n">
-        <v>-8188.646334896782</v>
+        <v>-8293.628731901488</v>
       </c>
       <c r="L3" t="n">
-        <v>-8188.646334896782</v>
+        <v>-8293.628731901488</v>
       </c>
       <c r="M3" t="n">
-        <v>-8188.646334896782</v>
+        <v>-8293.628731901488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>30932.51065267459</v>
+        <v>30744.47209731056</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>39203.72102146352</v>
+        <v>39126.6025997765</v>
       </c>
       <c r="D4" t="n">
-        <v>33996.90044050047</v>
+        <v>33915.21985882434</v>
       </c>
       <c r="E4" t="n">
-        <v>46632.78638174808</v>
+        <v>46950.83599300086</v>
       </c>
       <c r="F4" t="n">
-        <v>39203.72102146352</v>
+        <v>39126.6025997765</v>
       </c>
       <c r="G4" t="n">
-        <v>39203.72102146352</v>
+        <v>39126.6025997765</v>
       </c>
       <c r="H4" t="n">
-        <v>1170.504512808975</v>
+        <v>1065.686990467325</v>
       </c>
       <c r="I4" t="n">
-        <v>1170.504512808975</v>
+        <v>1065.686990467325</v>
       </c>
       <c r="J4" t="n">
-        <v>1170.504512808975</v>
+        <v>1065.686990467325</v>
       </c>
       <c r="K4" t="n">
-        <v>1170.504512808975</v>
+        <v>1065.686990467325</v>
       </c>
       <c r="L4" t="n">
-        <v>1170.504512808975</v>
+        <v>1065.686990467325</v>
       </c>
       <c r="M4" t="n">
-        <v>1170.504512808975</v>
+        <v>1065.686990467325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40374.2255342725</v>
+        <v>40192.28959024382</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>39295.13120183012</v>
+        <v>39224.58670285649</v>
       </c>
       <c r="D5" t="n">
-        <v>30906.40515283105</v>
+        <v>30643.70015894113</v>
       </c>
       <c r="E5" t="n">
-        <v>43645.0033262116</v>
+        <v>43302.33048054313</v>
       </c>
       <c r="F5" t="n">
-        <v>39295.13120183012</v>
+        <v>39224.58670285649</v>
       </c>
       <c r="G5" t="n">
-        <v>39295.13120183012</v>
+        <v>39224.58670285649</v>
       </c>
       <c r="H5" t="n">
-        <v>-2145.834170271637</v>
+        <v>-2234.810591554558</v>
       </c>
       <c r="I5" t="n">
-        <v>-2145.834170271637</v>
+        <v>-2234.810591554558</v>
       </c>
       <c r="J5" t="n">
-        <v>-2145.834170271637</v>
+        <v>-2234.810591554558</v>
       </c>
       <c r="K5" t="n">
-        <v>-2145.834170271637</v>
+        <v>-2234.810591554558</v>
       </c>
       <c r="L5" t="n">
-        <v>-2145.834170271637</v>
+        <v>-2234.810591554558</v>
       </c>
       <c r="M5" t="n">
-        <v>-2145.834170271637</v>
+        <v>-2234.810591554558</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>37149.29703155848</v>
+        <v>36989.77611130193</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>39383.59266670102</v>
+        <v>39319.41002841778</v>
       </c>
       <c r="D6" t="n">
-        <v>31509.58941037713</v>
+        <v>30936.4958722543</v>
       </c>
       <c r="E6" t="n">
-        <v>43800.68117620948</v>
+        <v>43326.85224110426</v>
       </c>
       <c r="F6" t="n">
-        <v>39383.59266670102</v>
+        <v>39319.41002841778</v>
       </c>
       <c r="G6" t="n">
-        <v>39383.59266670102</v>
+        <v>39319.41002841778</v>
       </c>
       <c r="H6" t="n">
-        <v>-1784.685457033464</v>
+        <v>-1865.764131978766</v>
       </c>
       <c r="I6" t="n">
-        <v>-1784.685457033464</v>
+        <v>-1865.764131978766</v>
       </c>
       <c r="J6" t="n">
-        <v>-1784.685457033464</v>
+        <v>-1865.764131978766</v>
       </c>
       <c r="K6" t="n">
-        <v>-1784.685457033464</v>
+        <v>-1865.764131978766</v>
       </c>
       <c r="L6" t="n">
-        <v>-1784.685457033464</v>
+        <v>-1865.764131978766</v>
       </c>
       <c r="M6" t="n">
-        <v>-1784.685457033464</v>
+        <v>-1865.764131978766</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>37598.90720966756</v>
+        <v>37453.64589643901</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>39475.00284741898</v>
+        <v>39417.39413152831</v>
       </c>
       <c r="D7" t="n">
-        <v>31824.03989480373</v>
+        <v>33093.52908569392</v>
       </c>
       <c r="E7" t="n">
-        <v>44244.19299006835</v>
+        <v>45008.81015188458</v>
       </c>
       <c r="F7" t="n">
-        <v>39475.00284741898</v>
+        <v>39417.39413152831</v>
       </c>
       <c r="G7" t="n">
-        <v>39475.00284741898</v>
+        <v>39417.39413152831</v>
       </c>
       <c r="H7" t="n">
-        <v>-1347.824953590778</v>
+        <v>-741.9643771611992</v>
       </c>
       <c r="I7" t="n">
-        <v>-1347.824953590778</v>
+        <v>-741.9643771611992</v>
       </c>
       <c r="J7" t="n">
-        <v>-1347.824953590778</v>
+        <v>-741.9643771611992</v>
       </c>
       <c r="K7" t="n">
-        <v>-1347.824953590778</v>
+        <v>-741.9643771611992</v>
       </c>
       <c r="L7" t="n">
-        <v>-1347.824953590778</v>
+        <v>-741.9643771611992</v>
       </c>
       <c r="M7" t="n">
-        <v>-1347.824953590778</v>
+        <v>-741.9643771611992</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38127.17789382821</v>
+        <v>38675.42975436711</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>39563.46431262993</v>
+        <v>39512.21745711915</v>
       </c>
       <c r="D8" t="n">
-        <v>34356.86792840978</v>
+        <v>34601.34296563748</v>
       </c>
       <c r="E8" t="n">
-        <v>46982.9256565006</v>
+        <v>46930.41194718282</v>
       </c>
       <c r="F8" t="n">
-        <v>39563.46431262993</v>
+        <v>39512.21745711915</v>
       </c>
       <c r="G8" t="n">
-        <v>39563.46431262993</v>
+        <v>39512.21745711915</v>
       </c>
       <c r="H8" t="n">
-        <v>1331.651963446973</v>
+        <v>1275.66474612405</v>
       </c>
       <c r="I8" t="n">
-        <v>1331.651963446973</v>
+        <v>1275.66474612405</v>
       </c>
       <c r="J8" t="n">
-        <v>1331.651963446973</v>
+        <v>1275.66474612405</v>
       </c>
       <c r="K8" t="n">
-        <v>1331.651963446973</v>
+        <v>1275.66474612405</v>
       </c>
       <c r="L8" t="n">
-        <v>1331.651963446973</v>
+        <v>1275.66474612405</v>
       </c>
       <c r="M8" t="n">
-        <v>1331.651963446973</v>
+        <v>1275.66474612405</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>40895.1162760769</v>
+        <v>40787.8822032432</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>39654.87449376826</v>
+        <v>39610.20156033771</v>
       </c>
       <c r="D9" t="n">
-        <v>37520.06976770348</v>
+        <v>37098.77708651155</v>
       </c>
       <c r="E9" t="n">
-        <v>50075.88729043158</v>
+        <v>49979.26785886722</v>
       </c>
       <c r="F9" t="n">
-        <v>39654.87449376826</v>
+        <v>39610.20156033771</v>
       </c>
       <c r="G9" t="n">
-        <v>39654.87449376826</v>
+        <v>39610.20156033771</v>
       </c>
       <c r="H9" t="n">
-        <v>4196.27697012477</v>
+        <v>4118.488740242743</v>
       </c>
       <c r="I9" t="n">
-        <v>4196.27697012477</v>
+        <v>4118.488740242743</v>
       </c>
       <c r="J9" t="n">
-        <v>4196.27697012477</v>
+        <v>4118.488740242743</v>
       </c>
       <c r="K9" t="n">
-        <v>4196.27697012477</v>
+        <v>4118.488740242743</v>
       </c>
       <c r="L9" t="n">
-        <v>4196.27697012477</v>
+        <v>4118.488740242743</v>
       </c>
       <c r="M9" t="n">
-        <v>4196.27697012477</v>
+        <v>4118.488740242743</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>43851.15146389303</v>
+        <v>43728.69030058045</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>39746.28467490661</v>
+        <v>39708.18566355627</v>
       </c>
       <c r="D10" t="n">
-        <v>34714.1577865795</v>
+        <v>34241.09563886026</v>
       </c>
       <c r="E10" t="n">
-        <v>47406.06963054092</v>
+        <v>46824.7493890746</v>
       </c>
       <c r="F10" t="n">
-        <v>39746.28467490661</v>
+        <v>39708.18566355627</v>
       </c>
       <c r="G10" t="n">
-        <v>39746.28467490661</v>
+        <v>39708.18566355627</v>
       </c>
       <c r="H10" t="n">
-        <v>1122.495287460273</v>
+        <v>1022.980884424904</v>
       </c>
       <c r="I10" t="n">
-        <v>1122.495287460273</v>
+        <v>1022.980884424904</v>
       </c>
       <c r="J10" t="n">
-        <v>1122.495287460273</v>
+        <v>1022.980884424904</v>
       </c>
       <c r="K10" t="n">
-        <v>1122.495287460273</v>
+        <v>1022.980884424904</v>
       </c>
       <c r="L10" t="n">
-        <v>1122.495287460273</v>
+        <v>1022.980884424904</v>
       </c>
       <c r="M10" t="n">
-        <v>1122.495287460273</v>
+        <v>1022.980884424904</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>40868.77996236688</v>
+        <v>40731.16654798118</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>39834.74614035399</v>
+        <v>39803.00898923307</v>
       </c>
       <c r="D11" t="n">
-        <v>34682.53880413866</v>
+        <v>34599.94929192116</v>
       </c>
       <c r="E11" t="n">
-        <v>47644.05983852028</v>
+        <v>47124.64150583299</v>
       </c>
       <c r="F11" t="n">
-        <v>39834.74614035399</v>
+        <v>39803.00898923307</v>
       </c>
       <c r="G11" t="n">
-        <v>39834.74614035399</v>
+        <v>39803.00898923307</v>
       </c>
       <c r="H11" t="n">
-        <v>1304.849874359284</v>
+        <v>1179.210491079149</v>
       </c>
       <c r="I11" t="n">
-        <v>1304.849874359284</v>
+        <v>1179.210491079149</v>
       </c>
       <c r="J11" t="n">
-        <v>1304.849874359284</v>
+        <v>1179.210491079149</v>
       </c>
       <c r="K11" t="n">
-        <v>1304.849874359284</v>
+        <v>1179.210491079149</v>
       </c>
       <c r="L11" t="n">
-        <v>1304.849874359284</v>
+        <v>1179.210491079149</v>
       </c>
       <c r="M11" t="n">
-        <v>1304.849874359284</v>
+        <v>1179.210491079149</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>41139.59601471327</v>
+        <v>40982.21948031221</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>39926.15632131627</v>
+        <v>39900.99309243242</v>
       </c>
       <c r="D12" t="n">
-        <v>31099.98557947409</v>
+        <v>31508.76420335651</v>
       </c>
       <c r="E12" t="n">
-        <v>44167.98019566842</v>
+        <v>44065.89971373901</v>
       </c>
       <c r="F12" t="n">
-        <v>39926.15632131627</v>
+        <v>39900.99309243242</v>
       </c>
       <c r="G12" t="n">
-        <v>39926.15632131627</v>
+        <v>39900.99309243242</v>
       </c>
       <c r="H12" t="n">
-        <v>-2166.257453243524</v>
+        <v>-2315.369314249533</v>
       </c>
       <c r="I12" t="n">
-        <v>-2166.257453243524</v>
+        <v>-2315.369314249533</v>
       </c>
       <c r="J12" t="n">
-        <v>-2166.257453243524</v>
+        <v>-2315.369314249533</v>
       </c>
       <c r="K12" t="n">
-        <v>-2166.257453243524</v>
+        <v>-2315.369314249533</v>
       </c>
       <c r="L12" t="n">
-        <v>-2166.257453243524</v>
+        <v>-2315.369314249533</v>
       </c>
       <c r="M12" t="n">
-        <v>-2166.257453243524</v>
+        <v>-2315.369314249533</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>37759.89886807275</v>
+        <v>37585.62377818289</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>40014.6177872585</v>
+        <v>39995.81641821683</v>
       </c>
       <c r="D13" t="n">
-        <v>29817.19429024295</v>
+        <v>29860.89570293125</v>
       </c>
       <c r="E13" t="n">
-        <v>42598.8309618211</v>
+        <v>42937.12817551354</v>
       </c>
       <c r="F13" t="n">
-        <v>40014.6177872585</v>
+        <v>39995.81641821683</v>
       </c>
       <c r="G13" t="n">
-        <v>40014.6177872585</v>
+        <v>39995.81641821683</v>
       </c>
       <c r="H13" t="n">
-        <v>-3744.499957515473</v>
+        <v>-3909.649415199977</v>
       </c>
       <c r="I13" t="n">
-        <v>-3744.499957515473</v>
+        <v>-3909.649415199977</v>
       </c>
       <c r="J13" t="n">
-        <v>-3744.499957515473</v>
+        <v>-3909.649415199977</v>
       </c>
       <c r="K13" t="n">
-        <v>-3744.499957515473</v>
+        <v>-3909.649415199977</v>
       </c>
       <c r="L13" t="n">
-        <v>-3744.499957515473</v>
+        <v>-3909.649415199977</v>
       </c>
       <c r="M13" t="n">
-        <v>-3744.499957515473</v>
+        <v>-3909.649415199977</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36270.11782974302</v>
+        <v>36086.16700301685</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>40106.02796873212</v>
+        <v>40093.8005215274</v>
       </c>
       <c r="D14" t="n">
-        <v>33550.00039273855</v>
+        <v>33894.12761733416</v>
       </c>
       <c r="E14" t="n">
-        <v>46166.90340024461</v>
+        <v>46490.32564141712</v>
       </c>
       <c r="F14" t="n">
-        <v>40106.02796873212</v>
+        <v>40093.8005215274</v>
       </c>
       <c r="G14" t="n">
-        <v>40106.02796873212</v>
+        <v>40093.8005215274</v>
       </c>
       <c r="H14" t="n">
-        <v>-105.1862578564026</v>
+        <v>-212.4460156313037</v>
       </c>
       <c r="I14" t="n">
-        <v>-105.1862578564026</v>
+        <v>-212.4460156313037</v>
       </c>
       <c r="J14" t="n">
-        <v>-105.1862578564026</v>
+        <v>-212.4460156313037</v>
       </c>
       <c r="K14" t="n">
-        <v>-105.1862578564026</v>
+        <v>-212.4460156313037</v>
       </c>
       <c r="L14" t="n">
-        <v>-105.1862578564026</v>
+        <v>-212.4460156313037</v>
       </c>
       <c r="M14" t="n">
-        <v>-105.1862578564026</v>
+        <v>-212.4460156313037</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>40000.84171087572</v>
+        <v>39881.3545058961</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>40197.43815064738</v>
+        <v>40191.78462517745</v>
       </c>
       <c r="D15" t="n">
-        <v>27207.62335045318</v>
+        <v>26263.51928439735</v>
       </c>
       <c r="E15" t="n">
-        <v>39583.66403935091</v>
+        <v>39802.93478886336</v>
       </c>
       <c r="F15" t="n">
-        <v>40197.43815064738</v>
+        <v>40191.78462517745</v>
       </c>
       <c r="G15" t="n">
-        <v>40197.43815064738</v>
+        <v>40191.78462517745</v>
       </c>
       <c r="H15" t="n">
-        <v>-6820.499373239668</v>
+        <v>-6931.929056596885</v>
       </c>
       <c r="I15" t="n">
-        <v>-6820.499373239668</v>
+        <v>-6931.929056596885</v>
       </c>
       <c r="J15" t="n">
-        <v>-6820.499373239668</v>
+        <v>-6931.929056596885</v>
       </c>
       <c r="K15" t="n">
-        <v>-6820.499373239668</v>
+        <v>-6931.929056596885</v>
       </c>
       <c r="L15" t="n">
-        <v>-6820.499373239668</v>
+        <v>-6931.929056596885</v>
       </c>
       <c r="M15" t="n">
-        <v>-6820.499373239668</v>
+        <v>-6931.929056596885</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>33376.93877740771</v>
+        <v>33259.85556858057</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>40280.00218592567</v>
+        <v>40280.28639621621</v>
       </c>
       <c r="D16" t="n">
-        <v>32436.39597769508</v>
+        <v>32635.62411675085</v>
       </c>
       <c r="E16" t="n">
-        <v>45704.50204852426</v>
+        <v>45140.75126485381</v>
       </c>
       <c r="F16" t="n">
-        <v>40280.00218592567</v>
+        <v>40280.28639621621</v>
       </c>
       <c r="G16" t="n">
-        <v>40280.00218592567</v>
+        <v>40280.28639621621</v>
       </c>
       <c r="H16" t="n">
-        <v>-1161.131389163308</v>
+        <v>-1294.222371006391</v>
       </c>
       <c r="I16" t="n">
-        <v>-1161.131389163308</v>
+        <v>-1294.222371006391</v>
       </c>
       <c r="J16" t="n">
-        <v>-1161.131389163308</v>
+        <v>-1294.222371006391</v>
       </c>
       <c r="K16" t="n">
-        <v>-1161.131389163308</v>
+        <v>-1294.222371006391</v>
       </c>
       <c r="L16" t="n">
-        <v>-1161.131389163308</v>
+        <v>-1294.222371006391</v>
       </c>
       <c r="M16" t="n">
-        <v>-1161.131389163308</v>
+        <v>-1294.222371006391</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39118.87079676236</v>
+        <v>38986.06402520982</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>40371.41236831893</v>
+        <v>40378.33002990841</v>
       </c>
       <c r="D17" t="n">
-        <v>30803.80675802646</v>
+        <v>30935.04547086945</v>
       </c>
       <c r="E17" t="n">
-        <v>43700.48904688619</v>
+        <v>43417.77172865946</v>
       </c>
       <c r="F17" t="n">
-        <v>40371.41236831893</v>
+        <v>40378.33002990841</v>
       </c>
       <c r="G17" t="n">
-        <v>40371.41236831893</v>
+        <v>40378.33002990841</v>
       </c>
       <c r="H17" t="n">
-        <v>-2881.305588001644</v>
+        <v>-3044.131103362575</v>
       </c>
       <c r="I17" t="n">
-        <v>-2881.305588001644</v>
+        <v>-3044.131103362575</v>
       </c>
       <c r="J17" t="n">
-        <v>-2881.305588001644</v>
+        <v>-3044.131103362575</v>
       </c>
       <c r="K17" t="n">
-        <v>-2881.305588001644</v>
+        <v>-3044.131103362575</v>
       </c>
       <c r="L17" t="n">
-        <v>-2881.305588001644</v>
+        <v>-3044.131103362575</v>
       </c>
       <c r="M17" t="n">
-        <v>-2881.305588001644</v>
+        <v>-3044.131103362575</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>37490.10678031728</v>
+        <v>37334.19892654584</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>40459.87383515111</v>
+        <v>40473.21096573959</v>
       </c>
       <c r="D18" t="n">
-        <v>33582.31869295907</v>
+        <v>33517.12435512088</v>
       </c>
       <c r="E18" t="n">
-        <v>46519.84012419479</v>
+        <v>46170.21112267608</v>
       </c>
       <c r="F18" t="n">
-        <v>40459.87383515111</v>
+        <v>40473.21096573959</v>
       </c>
       <c r="G18" t="n">
-        <v>40459.87383515111</v>
+        <v>40473.21096573959</v>
       </c>
       <c r="H18" t="n">
-        <v>-187.6686915771462</v>
+        <v>-375.1669147612035</v>
       </c>
       <c r="I18" t="n">
-        <v>-187.6686915771462</v>
+        <v>-375.1669147612035</v>
       </c>
       <c r="J18" t="n">
-        <v>-187.6686915771462</v>
+        <v>-375.1669147612035</v>
       </c>
       <c r="K18" t="n">
-        <v>-187.6686915771462</v>
+        <v>-375.1669147612035</v>
       </c>
       <c r="L18" t="n">
-        <v>-187.6686915771462</v>
+        <v>-375.1669147612035</v>
       </c>
       <c r="M18" t="n">
-        <v>-187.6686915771462</v>
+        <v>-375.1669147612035</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40272.20514357396</v>
+        <v>40098.04405097839</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>40551.36355638873</v>
+        <v>40571.26442651218</v>
       </c>
       <c r="D19" t="n">
-        <v>33192.77519387602</v>
+        <v>34146.44771577378</v>
       </c>
       <c r="E19" t="n">
-        <v>45824.42187934842</v>
+        <v>46715.6588131427</v>
       </c>
       <c r="F19" t="n">
-        <v>40551.36355638873</v>
+        <v>40571.26442651218</v>
       </c>
       <c r="G19" t="n">
-        <v>40551.36355638873</v>
+        <v>40571.26442651218</v>
       </c>
       <c r="H19" t="n">
-        <v>-932.7781336108295</v>
+        <v>46.10900175156335</v>
       </c>
       <c r="I19" t="n">
-        <v>-932.7781336108295</v>
+        <v>46.10900175156335</v>
       </c>
       <c r="J19" t="n">
-        <v>-932.7781336108295</v>
+        <v>46.10900175156335</v>
       </c>
       <c r="K19" t="n">
-        <v>-932.7781336108295</v>
+        <v>46.10900175156335</v>
       </c>
       <c r="L19" t="n">
-        <v>-932.7781336108295</v>
+        <v>46.10900175156335</v>
       </c>
       <c r="M19" t="n">
-        <v>-932.7781336108295</v>
+        <v>46.10900175156335</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>39618.5854227779</v>
+        <v>40617.37342826374</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>40639.9019962961</v>
+        <v>40666.15487242114</v>
       </c>
       <c r="D20" t="n">
-        <v>35783.32534454601</v>
+        <v>35133.67364928033</v>
       </c>
       <c r="E20" t="n">
-        <v>47960.2462400153</v>
+        <v>48145.08961094858</v>
       </c>
       <c r="F20" t="n">
-        <v>40639.9019962961</v>
+        <v>40666.15487242114</v>
       </c>
       <c r="G20" t="n">
-        <v>40639.9019962961</v>
+        <v>40666.15487242114</v>
       </c>
       <c r="H20" t="n">
-        <v>1244.447906507757</v>
+        <v>1069.037021451926</v>
       </c>
       <c r="I20" t="n">
-        <v>1244.447906507757</v>
+        <v>1069.037021451926</v>
       </c>
       <c r="J20" t="n">
-        <v>1244.447906507757</v>
+        <v>1069.037021451926</v>
       </c>
       <c r="K20" t="n">
-        <v>1244.447906507757</v>
+        <v>1069.037021451926</v>
       </c>
       <c r="L20" t="n">
-        <v>1244.447906507757</v>
+        <v>1069.037021451926</v>
       </c>
       <c r="M20" t="n">
-        <v>1244.447906507757</v>
+        <v>1069.037021451926</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>41884.34990280386</v>
+        <v>41735.19189387307</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>40731.40560053493</v>
+        <v>40764.31832903684</v>
       </c>
       <c r="D21" t="n">
-        <v>38967.12479883767</v>
+        <v>39061.20220765399</v>
       </c>
       <c r="E21" t="n">
-        <v>51593.85253507749</v>
+        <v>51195.32146038193</v>
       </c>
       <c r="F21" t="n">
-        <v>40731.40560053493</v>
+        <v>40764.31832903684</v>
       </c>
       <c r="G21" t="n">
-        <v>40731.40560053493</v>
+        <v>40764.31832903684</v>
       </c>
       <c r="H21" t="n">
-        <v>4529.028639917326</v>
+        <v>4364.544230441838</v>
       </c>
       <c r="I21" t="n">
-        <v>4529.028639917326</v>
+        <v>4364.544230441838</v>
       </c>
       <c r="J21" t="n">
-        <v>4529.028639917326</v>
+        <v>4364.544230441838</v>
       </c>
       <c r="K21" t="n">
-        <v>4529.028639917326</v>
+        <v>4364.544230441838</v>
       </c>
       <c r="L21" t="n">
-        <v>4529.028639917326</v>
+        <v>4364.544230441838</v>
       </c>
       <c r="M21" t="n">
-        <v>4529.028639917326</v>
+        <v>4364.544230441838</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>45260.43424045226</v>
+        <v>45128.86255947868</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>40822.90920477376</v>
+        <v>40862.48178565254</v>
       </c>
       <c r="D22" t="n">
-        <v>34655.30029022265</v>
+        <v>34134.73015653512</v>
       </c>
       <c r="E22" t="n">
-        <v>46696.02229519275</v>
+        <v>46857.48091268195</v>
       </c>
       <c r="F22" t="n">
-        <v>40822.90920477376</v>
+        <v>40862.48178565254</v>
       </c>
       <c r="G22" t="n">
-        <v>40822.90920477376</v>
+        <v>40862.48178565254</v>
       </c>
       <c r="H22" t="n">
-        <v>-315.8830493013035</v>
+        <v>-467.3324000919644</v>
       </c>
       <c r="I22" t="n">
-        <v>-315.8830493013035</v>
+        <v>-467.3324000919644</v>
       </c>
       <c r="J22" t="n">
-        <v>-315.8830493013035</v>
+        <v>-467.3324000919644</v>
       </c>
       <c r="K22" t="n">
-        <v>-315.8830493013035</v>
+        <v>-467.3324000919644</v>
       </c>
       <c r="L22" t="n">
-        <v>-315.8830493013035</v>
+        <v>-467.3324000919644</v>
       </c>
       <c r="M22" t="n">
-        <v>-315.8830493013035</v>
+        <v>-467.3324000919644</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40507.02615547246</v>
+        <v>40395.14938556057</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>40911.51760274783</v>
+        <v>40957.49064230065</v>
       </c>
       <c r="D23" t="n">
-        <v>36553.02088905196</v>
+        <v>36329.78712415069</v>
       </c>
       <c r="E23" t="n">
-        <v>48857.86015134647</v>
+        <v>48790.25739356436</v>
       </c>
       <c r="F23" t="n">
-        <v>40911.51760274783</v>
+        <v>40957.49064230065</v>
       </c>
       <c r="G23" t="n">
-        <v>40911.51760274783</v>
+        <v>40957.49064230065</v>
       </c>
       <c r="H23" t="n">
-        <v>1759.501069444576</v>
+        <v>1629.728624723437</v>
       </c>
       <c r="I23" t="n">
-        <v>1759.501069444576</v>
+        <v>1629.728624723437</v>
       </c>
       <c r="J23" t="n">
-        <v>1759.501069444576</v>
+        <v>1629.728624723437</v>
       </c>
       <c r="K23" t="n">
-        <v>1759.501069444576</v>
+        <v>1629.728624723437</v>
       </c>
       <c r="L23" t="n">
-        <v>1759.501069444576</v>
+        <v>1629.728624723437</v>
       </c>
       <c r="M23" t="n">
-        <v>1759.501069444576</v>
+        <v>1629.728624723437</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>42671.0186721924</v>
+        <v>42587.21926702409</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>41003.07961398771</v>
+        <v>41055.66646083703</v>
       </c>
       <c r="D24" t="n">
-        <v>32693.12354328931</v>
+        <v>31875.13898425389</v>
       </c>
       <c r="E24" t="n">
-        <v>43853.95070152239</v>
+        <v>44912.14025643774</v>
       </c>
       <c r="F24" t="n">
-        <v>41003.07961398771</v>
+        <v>41055.66646083703</v>
       </c>
       <c r="G24" t="n">
-        <v>41003.07961398771</v>
+        <v>41055.66646083703</v>
       </c>
       <c r="H24" t="n">
-        <v>-2547.346556763513</v>
+        <v>-2658.535969062322</v>
       </c>
       <c r="I24" t="n">
-        <v>-2547.346556763513</v>
+        <v>-2658.535969062322</v>
       </c>
       <c r="J24" t="n">
-        <v>-2547.346556763513</v>
+        <v>-2658.535969062322</v>
       </c>
       <c r="K24" t="n">
-        <v>-2547.346556763513</v>
+        <v>-2658.535969062322</v>
       </c>
       <c r="L24" t="n">
-        <v>-2547.346556763513</v>
+        <v>-2658.535969062322</v>
       </c>
       <c r="M24" t="n">
-        <v>-2547.346556763513</v>
+        <v>-2658.535969062322</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>38455.7330572242</v>
+        <v>38397.13049177471</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>41091.74256651555</v>
+        <v>41150.77917287575</v>
       </c>
       <c r="D25" t="n">
-        <v>31685.274283426</v>
+        <v>31980.80513641296</v>
       </c>
       <c r="E25" t="n">
-        <v>44298.38165785222</v>
+        <v>44036.08348047014</v>
       </c>
       <c r="F25" t="n">
-        <v>41091.74256651555</v>
+        <v>41150.77917287575</v>
       </c>
       <c r="G25" t="n">
-        <v>41091.74256651555</v>
+        <v>41150.77917287575</v>
       </c>
       <c r="H25" t="n">
-        <v>-3278.8540370642</v>
+        <v>-3379.957570668827</v>
       </c>
       <c r="I25" t="n">
-        <v>-3278.8540370642</v>
+        <v>-3379.957570668827</v>
       </c>
       <c r="J25" t="n">
-        <v>-3278.8540370642</v>
+        <v>-3379.957570668827</v>
       </c>
       <c r="K25" t="n">
-        <v>-3278.8540370642</v>
+        <v>-3379.957570668827</v>
       </c>
       <c r="L25" t="n">
-        <v>-3278.8540370642</v>
+        <v>-3379.957570668827</v>
       </c>
       <c r="M25" t="n">
-        <v>-3278.8540370642</v>
+        <v>-3379.957570668827</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37812.88852945135</v>
+        <v>37770.82160220692</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>41183.36095079432</v>
+        <v>41249.0623086491</v>
       </c>
       <c r="D26" t="n">
-        <v>35306.99565950671</v>
+        <v>35452.539476358</v>
       </c>
       <c r="E26" t="n">
-        <v>47895.05578998345</v>
+        <v>48025.54865880295</v>
       </c>
       <c r="F26" t="n">
-        <v>41183.36095079432</v>
+        <v>41249.0623086491</v>
       </c>
       <c r="G26" t="n">
-        <v>41183.36095079432</v>
+        <v>41249.0623086491</v>
       </c>
       <c r="H26" t="n">
-        <v>462.8406670215804</v>
+        <v>364.1690530241684</v>
       </c>
       <c r="I26" t="n">
-        <v>462.8406670215804</v>
+        <v>364.1690530241684</v>
       </c>
       <c r="J26" t="n">
-        <v>462.8406670215804</v>
+        <v>364.1690530241684</v>
       </c>
       <c r="K26" t="n">
-        <v>462.8406670215804</v>
+        <v>364.1690530241684</v>
       </c>
       <c r="L26" t="n">
-        <v>462.8406670215804</v>
+        <v>364.1690530241684</v>
       </c>
       <c r="M26" t="n">
-        <v>462.8406670215804</v>
+        <v>364.1690530241684</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>41646.2016178159</v>
+        <v>41613.23136167326</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>41275.00291887982</v>
+        <v>41347.46507922377</v>
       </c>
       <c r="D27" t="n">
-        <v>29249.04258278382</v>
+        <v>29357.56766485343</v>
       </c>
       <c r="E27" t="n">
-        <v>41858.77728756656</v>
+        <v>41870.01903775922</v>
       </c>
       <c r="F27" t="n">
-        <v>41275.00291887982</v>
+        <v>41347.46507922377</v>
       </c>
       <c r="G27" t="n">
-        <v>41275.00291887982</v>
+        <v>41347.46507922377</v>
       </c>
       <c r="H27" t="n">
-        <v>-5490.34831700168</v>
+        <v>-5609.600202454647</v>
       </c>
       <c r="I27" t="n">
-        <v>-5490.34831700168</v>
+        <v>-5609.600202454647</v>
       </c>
       <c r="J27" t="n">
-        <v>-5490.34831700168</v>
+        <v>-5609.600202454647</v>
       </c>
       <c r="K27" t="n">
-        <v>-5490.34831700168</v>
+        <v>-5609.600202454647</v>
       </c>
       <c r="L27" t="n">
-        <v>-5490.34831700168</v>
+        <v>-5609.600202454647</v>
       </c>
       <c r="M27" t="n">
-        <v>-5490.34831700168</v>
+        <v>-5609.600202454647</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>35784.65460187814</v>
+        <v>35737.86487676912</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>41357.77630940867</v>
+        <v>41436.34500103315</v>
       </c>
       <c r="D28" t="n">
-        <v>31618.99212160201</v>
+        <v>31576.49196741891</v>
       </c>
       <c r="E28" t="n">
-        <v>43906.18957904225</v>
+        <v>44049.66045489676</v>
       </c>
       <c r="F28" t="n">
-        <v>41357.77630940867</v>
+        <v>41436.34500103315</v>
       </c>
       <c r="G28" t="n">
-        <v>41357.77630940867</v>
+        <v>41436.34500103315</v>
       </c>
       <c r="H28" t="n">
-        <v>-3509.00721233411</v>
+        <v>-3671.146913662733</v>
       </c>
       <c r="I28" t="n">
-        <v>-3509.00721233411</v>
+        <v>-3671.146913662733</v>
       </c>
       <c r="J28" t="n">
-        <v>-3509.00721233411</v>
+        <v>-3671.146913662733</v>
       </c>
       <c r="K28" t="n">
-        <v>-3509.00721233411</v>
+        <v>-3671.146913662733</v>
       </c>
       <c r="L28" t="n">
-        <v>-3509.00721233411</v>
+        <v>-3671.146913662733</v>
       </c>
       <c r="M28" t="n">
-        <v>-3509.00721233411</v>
+        <v>-3671.146913662733</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37848.76909707456</v>
+        <v>37765.19808737042</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>41449.41827749417</v>
+        <v>41534.74777160783</v>
       </c>
       <c r="D29" t="n">
-        <v>31417.07009904159</v>
+        <v>31986.46563673709</v>
       </c>
       <c r="E29" t="n">
-        <v>44144.21652763317</v>
+        <v>44581.22705445284</v>
       </c>
       <c r="F29" t="n">
-        <v>41449.41827749417</v>
+        <v>41534.74777160783</v>
       </c>
       <c r="G29" t="n">
-        <v>41449.41827749417</v>
+        <v>41534.74777160783</v>
       </c>
       <c r="H29" t="n">
-        <v>-3562.544994855431</v>
+        <v>-3798.603825583369</v>
       </c>
       <c r="I29" t="n">
-        <v>-3562.544994855431</v>
+        <v>-3798.603825583369</v>
       </c>
       <c r="J29" t="n">
-        <v>-3562.544994855431</v>
+        <v>-3798.603825583369</v>
       </c>
       <c r="K29" t="n">
-        <v>-3562.544994855431</v>
+        <v>-3798.603825583369</v>
       </c>
       <c r="L29" t="n">
-        <v>-3562.544994855431</v>
+        <v>-3798.603825583369</v>
       </c>
       <c r="M29" t="n">
-        <v>-3562.544994855431</v>
+        <v>-3798.603825583369</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>37886.87328263874</v>
+        <v>37736.14394602446</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>41538.52275786172</v>
+        <v>41630.14984467626</v>
       </c>
       <c r="D30" t="n">
-        <v>36669.04383951568</v>
+        <v>36238.63798685258</v>
       </c>
       <c r="E30" t="n">
-        <v>49327.56996768611</v>
+        <v>49442.48157593622</v>
       </c>
       <c r="F30" t="n">
-        <v>41538.52275786172</v>
+        <v>41630.14984467626</v>
       </c>
       <c r="G30" t="n">
-        <v>41538.52275786172</v>
+        <v>41630.14984467626</v>
       </c>
       <c r="H30" t="n">
-        <v>1433.394849736852</v>
+        <v>1145.664117529123</v>
       </c>
       <c r="I30" t="n">
-        <v>1433.394849736852</v>
+        <v>1145.664117529123</v>
       </c>
       <c r="J30" t="n">
-        <v>1433.394849736852</v>
+        <v>1145.664117529123</v>
       </c>
       <c r="K30" t="n">
-        <v>1433.394849736852</v>
+        <v>1145.664117529123</v>
       </c>
       <c r="L30" t="n">
-        <v>1433.394849736852</v>
+        <v>1145.664117529123</v>
       </c>
       <c r="M30" t="n">
-        <v>1433.394849736852</v>
+        <v>1145.664117529123</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>42971.91760759857</v>
+        <v>42775.81396220539</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>41630.59738757485</v>
+        <v>41728.73198684698</v>
       </c>
       <c r="D31" t="n">
-        <v>34608.81348427408</v>
+        <v>36395.89995512674</v>
       </c>
       <c r="E31" t="n">
-        <v>46897.73909279529</v>
+        <v>48510.71170356894</v>
       </c>
       <c r="F31" t="n">
-        <v>41630.59738757485</v>
+        <v>41728.73198684698</v>
       </c>
       <c r="G31" t="n">
-        <v>41630.59738757485</v>
+        <v>41728.73198684698</v>
       </c>
       <c r="H31" t="n">
-        <v>-534.5576855370845</v>
+        <v>816.8984108893764</v>
       </c>
       <c r="I31" t="n">
-        <v>-534.5576855370845</v>
+        <v>816.8984108893764</v>
       </c>
       <c r="J31" t="n">
-        <v>-534.5576855370845</v>
+        <v>816.8984108893764</v>
       </c>
       <c r="K31" t="n">
-        <v>-534.5576855370845</v>
+        <v>816.8984108893764</v>
       </c>
       <c r="L31" t="n">
-        <v>-534.5576855370845</v>
+        <v>816.8984108893764</v>
       </c>
       <c r="M31" t="n">
-        <v>-534.5576855370845</v>
+        <v>816.8984108893764</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>41096.03970203776</v>
+        <v>42545.63039773636</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>41719.73621714817</v>
+        <v>41824.22145577701</v>
       </c>
       <c r="D32" t="n">
-        <v>36732.65528519448</v>
+        <v>36624.61767123729</v>
       </c>
       <c r="E32" t="n">
-        <v>49537.79020097109</v>
+        <v>49038.07463985037</v>
       </c>
       <c r="F32" t="n">
-        <v>41719.73621714817</v>
+        <v>41824.22145577701</v>
       </c>
       <c r="G32" t="n">
-        <v>41719.73621714817</v>
+        <v>41824.22145577701</v>
       </c>
       <c r="H32" t="n">
-        <v>1142.169719637375</v>
+        <v>841.2491118254942</v>
       </c>
       <c r="I32" t="n">
-        <v>1142.169719637375</v>
+        <v>841.2491118254942</v>
       </c>
       <c r="J32" t="n">
-        <v>1142.169719637375</v>
+        <v>841.2491118254942</v>
       </c>
       <c r="K32" t="n">
-        <v>1142.169719637375</v>
+        <v>841.2491118254942</v>
       </c>
       <c r="L32" t="n">
-        <v>1142.169719637375</v>
+        <v>841.2491118254942</v>
       </c>
       <c r="M32" t="n">
-        <v>1142.169719637375</v>
+        <v>841.2491118254942</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>42861.90593678554</v>
+        <v>42665.4705676025</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>41811.84634104059</v>
+        <v>41922.8939070047</v>
       </c>
       <c r="D33" t="n">
-        <v>40072.2327588144</v>
+        <v>40420.13766013852</v>
       </c>
       <c r="E33" t="n">
-        <v>52698.64288431805</v>
+        <v>52965.26969307353</v>
       </c>
       <c r="F33" t="n">
-        <v>41811.84634104059</v>
+        <v>41922.8939070047</v>
       </c>
       <c r="G33" t="n">
-        <v>41811.84634104059</v>
+        <v>41922.8939070047</v>
       </c>
       <c r="H33" t="n">
-        <v>4836.060779554174</v>
+        <v>4584.206999363769</v>
       </c>
       <c r="I33" t="n">
-        <v>4836.060779554174</v>
+        <v>4584.206999363769</v>
       </c>
       <c r="J33" t="n">
-        <v>4836.060779554174</v>
+        <v>4584.206999363769</v>
       </c>
       <c r="K33" t="n">
-        <v>4836.060779554174</v>
+        <v>4584.206999363769</v>
       </c>
       <c r="L33" t="n">
-        <v>4836.060779554174</v>
+        <v>4584.206999363769</v>
       </c>
       <c r="M33" t="n">
-        <v>4836.060779554174</v>
+        <v>4584.206999363769</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46647.90712059476</v>
+        <v>46507.10090636847</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>41903.95646561361</v>
+        <v>42021.64508549787</v>
       </c>
       <c r="D34" t="n">
-        <v>33327.3343253267</v>
+        <v>33720.92690452582</v>
       </c>
       <c r="E34" t="n">
-        <v>45942.17402474213</v>
+        <v>46205.600270445</v>
       </c>
       <c r="F34" t="n">
-        <v>41903.95646561361</v>
+        <v>42021.64508549787</v>
       </c>
       <c r="G34" t="n">
-        <v>41903.95646561361</v>
+        <v>42021.64508549787</v>
       </c>
       <c r="H34" t="n">
-        <v>-1755.1122776311</v>
+        <v>-1957.088168369186</v>
       </c>
       <c r="I34" t="n">
-        <v>-1755.1122776311</v>
+        <v>-1957.088168369186</v>
       </c>
       <c r="J34" t="n">
-        <v>-1755.1122776311</v>
+        <v>-1957.088168369186</v>
       </c>
       <c r="K34" t="n">
-        <v>-1755.1122776311</v>
+        <v>-1957.088168369186</v>
       </c>
       <c r="L34" t="n">
-        <v>-1755.1122776311</v>
+        <v>-1957.088168369186</v>
       </c>
       <c r="M34" t="n">
-        <v>-1755.1122776311</v>
+        <v>-1957.088168369186</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40148.84418798251</v>
+        <v>40064.55691712868</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>41993.09529584556</v>
+        <v>42117.21074210416</v>
       </c>
       <c r="D35" t="n">
-        <v>38090.45680580532</v>
+        <v>38057.13671916667</v>
       </c>
       <c r="E35" t="n">
-        <v>50504.3369998306</v>
+        <v>50809.58431887161</v>
       </c>
       <c r="F35" t="n">
-        <v>41993.09529584556</v>
+        <v>42117.21074210416</v>
       </c>
       <c r="G35" t="n">
-        <v>41993.09529584556</v>
+        <v>42117.21074210416</v>
       </c>
       <c r="H35" t="n">
-        <v>2231.247924497084</v>
+        <v>2099.55458742877</v>
       </c>
       <c r="I35" t="n">
-        <v>2231.247924497084</v>
+        <v>2099.55458742877</v>
       </c>
       <c r="J35" t="n">
-        <v>2231.247924497084</v>
+        <v>2099.55458742877</v>
       </c>
       <c r="K35" t="n">
-        <v>2231.247924497084</v>
+        <v>2099.55458742877</v>
       </c>
       <c r="L35" t="n">
-        <v>2231.247924497084</v>
+        <v>2099.55458742877</v>
       </c>
       <c r="M35" t="n">
-        <v>2231.247924497084</v>
+        <v>2099.55458742877</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>44224.34322034264</v>
+        <v>44216.76532953293</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>42085.20542059607</v>
+        <v>42215.96192153984</v>
       </c>
       <c r="D36" t="n">
-        <v>33047.13639384303</v>
+        <v>32736.12726908314</v>
       </c>
       <c r="E36" t="n">
-        <v>45907.35953290495</v>
+        <v>45669.44721796493</v>
       </c>
       <c r="F36" t="n">
-        <v>42085.20542059607</v>
+        <v>42215.96192153984</v>
       </c>
       <c r="G36" t="n">
-        <v>42085.20542059607</v>
+        <v>42215.96192153984</v>
       </c>
       <c r="H36" t="n">
-        <v>-2915.864860283</v>
+        <v>-2987.560660616373</v>
       </c>
       <c r="I36" t="n">
-        <v>-2915.864860283</v>
+        <v>-2987.560660616373</v>
       </c>
       <c r="J36" t="n">
-        <v>-2915.864860283</v>
+        <v>-2987.560660616373</v>
       </c>
       <c r="K36" t="n">
-        <v>-2915.864860283</v>
+        <v>-2987.560660616373</v>
       </c>
       <c r="L36" t="n">
-        <v>-2915.864860283</v>
+        <v>-2987.560660616373</v>
       </c>
       <c r="M36" t="n">
-        <v>-2915.864860283</v>
+        <v>-2987.560660616373</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>39169.34056031307</v>
+        <v>39228.40126092347</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>42174.3442509998</v>
+        <v>42311.52757905825</v>
       </c>
       <c r="D37" t="n">
-        <v>33296.14932329972</v>
+        <v>33145.32159783208</v>
       </c>
       <c r="E37" t="n">
-        <v>45501.34518088429</v>
+        <v>46234.35243521746</v>
       </c>
       <c r="F37" t="n">
-        <v>42174.3442509998</v>
+        <v>42311.52757905825</v>
       </c>
       <c r="G37" t="n">
-        <v>42174.3442509998</v>
+        <v>42311.52757905825</v>
       </c>
       <c r="H37" t="n">
-        <v>-2796.679230953953</v>
+        <v>-2834.287402382254</v>
       </c>
       <c r="I37" t="n">
-        <v>-2796.679230953953</v>
+        <v>-2834.287402382254</v>
       </c>
       <c r="J37" t="n">
-        <v>-2796.679230953953</v>
+        <v>-2834.287402382254</v>
       </c>
       <c r="K37" t="n">
-        <v>-2796.679230953953</v>
+        <v>-2834.287402382254</v>
       </c>
       <c r="L37" t="n">
-        <v>-2796.679230953953</v>
+        <v>-2834.287402382254</v>
       </c>
       <c r="M37" t="n">
-        <v>-2796.679230953953</v>
+        <v>-2834.287402382254</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>39377.66502004585</v>
+        <v>39477.24017667599</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>42266.45437595985</v>
+        <v>42410.27875847151</v>
       </c>
       <c r="D38" t="n">
-        <v>36828.142337291</v>
+        <v>37611.81178325798</v>
       </c>
       <c r="E38" t="n">
-        <v>49577.55027905156</v>
+        <v>49630.56906851732</v>
       </c>
       <c r="F38" t="n">
-        <v>42266.45437595985</v>
+        <v>42410.27875847151</v>
       </c>
       <c r="G38" t="n">
-        <v>42266.45437595985</v>
+        <v>42410.27875847151</v>
       </c>
       <c r="H38" t="n">
-        <v>1030.689694170181</v>
+        <v>938.9525507722174</v>
       </c>
       <c r="I38" t="n">
-        <v>1030.689694170181</v>
+        <v>938.9525507722174</v>
       </c>
       <c r="J38" t="n">
-        <v>1030.689694170181</v>
+        <v>938.9525507722174</v>
       </c>
       <c r="K38" t="n">
-        <v>1030.689694170181</v>
+        <v>938.9525507722174</v>
       </c>
       <c r="L38" t="n">
-        <v>1030.689694170181</v>
+        <v>938.9525507722174</v>
       </c>
       <c r="M38" t="n">
-        <v>1030.689694170181</v>
+        <v>938.9525507722174</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>43297.14407013003</v>
+        <v>43349.23130924373</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>42358.56450091991</v>
+        <v>42509.02993788478</v>
       </c>
       <c r="D39" t="n">
-        <v>31883.26129088182</v>
+        <v>31613.85454179719</v>
       </c>
       <c r="E39" t="n">
-        <v>44567.20088086445</v>
+        <v>44440.51214203754</v>
       </c>
       <c r="F39" t="n">
-        <v>42358.56450091991</v>
+        <v>42509.02993788478</v>
       </c>
       <c r="G39" t="n">
-        <v>42358.56450091991</v>
+        <v>42509.02993788478</v>
       </c>
       <c r="H39" t="n">
-        <v>-4199.471057053464</v>
+        <v>-4327.908383162777</v>
       </c>
       <c r="I39" t="n">
-        <v>-4199.471057053464</v>
+        <v>-4327.908383162777</v>
       </c>
       <c r="J39" t="n">
-        <v>-4199.471057053464</v>
+        <v>-4327.908383162777</v>
       </c>
       <c r="K39" t="n">
-        <v>-4199.471057053464</v>
+        <v>-4327.908383162777</v>
       </c>
       <c r="L39" t="n">
-        <v>-4199.471057053464</v>
+        <v>-4327.908383162777</v>
       </c>
       <c r="M39" t="n">
-        <v>-4199.471057053464</v>
+        <v>-4327.908383162777</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>38159.09344386644</v>
+        <v>38181.121554722</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>42444.7320369249</v>
+        <v>42601.41007339562</v>
       </c>
       <c r="D40" t="n">
-        <v>39963.67691530764</v>
+        <v>39349.55295609632</v>
       </c>
       <c r="E40" t="n">
-        <v>52509.76994348711</v>
+        <v>52353.30853459068</v>
       </c>
       <c r="F40" t="n">
-        <v>42444.7320369249</v>
+        <v>42601.41007339562</v>
       </c>
       <c r="G40" t="n">
-        <v>42444.7320369249</v>
+        <v>42601.41007339562</v>
       </c>
       <c r="H40" t="n">
-        <v>3483.117391179183</v>
+        <v>3405.727833515018</v>
       </c>
       <c r="I40" t="n">
-        <v>3483.117391179183</v>
+        <v>3405.727833515018</v>
       </c>
       <c r="J40" t="n">
-        <v>3483.117391179183</v>
+        <v>3405.727833515018</v>
       </c>
       <c r="K40" t="n">
-        <v>3483.117391179183</v>
+        <v>3405.727833515018</v>
       </c>
       <c r="L40" t="n">
-        <v>3483.117391179183</v>
+        <v>3405.727833515018</v>
       </c>
       <c r="M40" t="n">
-        <v>3483.117391179183</v>
+        <v>3405.727833515018</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>45927.84942810408</v>
+        <v>46007.13790691064</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>42536.84216161988</v>
+        <v>42700.16125273481</v>
       </c>
       <c r="D41" t="n">
-        <v>34389.90762785081</v>
+        <v>34925.77247025218</v>
       </c>
       <c r="E41" t="n">
-        <v>47618.1346775768</v>
+        <v>48051.64989474785</v>
       </c>
       <c r="F41" t="n">
-        <v>42536.84216161988</v>
+        <v>42700.16125273481</v>
       </c>
       <c r="G41" t="n">
-        <v>42536.84216161988</v>
+        <v>42700.16125273481</v>
       </c>
       <c r="H41" t="n">
-        <v>-1357.302133029524</v>
+        <v>-1371.937937850802</v>
       </c>
       <c r="I41" t="n">
-        <v>-1357.302133029524</v>
+        <v>-1371.937937850802</v>
       </c>
       <c r="J41" t="n">
-        <v>-1357.302133029524</v>
+        <v>-1371.937937850802</v>
       </c>
       <c r="K41" t="n">
-        <v>-1357.302133029524</v>
+        <v>-1371.937937850802</v>
       </c>
       <c r="L41" t="n">
-        <v>-1357.302133029524</v>
+        <v>-1371.937937850802</v>
       </c>
       <c r="M41" t="n">
-        <v>-1357.302133029524</v>
+        <v>-1371.937937850802</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>41179.54002859036</v>
+        <v>41328.22331488401</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>42625.98099173161</v>
+        <v>42795.7269101216</v>
       </c>
       <c r="D42" t="n">
-        <v>32877.40652668164</v>
+        <v>33375.10393627377</v>
       </c>
       <c r="E42" t="n">
-        <v>46082.68030765001</v>
+        <v>45988.34927292215</v>
       </c>
       <c r="F42" t="n">
-        <v>42625.98099173161</v>
+        <v>42795.7269101216</v>
       </c>
       <c r="G42" t="n">
-        <v>42625.98099173161</v>
+        <v>42795.7269101216</v>
       </c>
       <c r="H42" t="n">
-        <v>-3355.810683480479</v>
+        <v>-3324.310439740895</v>
       </c>
       <c r="I42" t="n">
-        <v>-3355.810683480479</v>
+        <v>-3324.310439740895</v>
       </c>
       <c r="J42" t="n">
-        <v>-3355.810683480479</v>
+        <v>-3324.310439740895</v>
       </c>
       <c r="K42" t="n">
-        <v>-3355.810683480479</v>
+        <v>-3324.310439740895</v>
       </c>
       <c r="L42" t="n">
-        <v>-3355.810683480479</v>
+        <v>-3324.310439740895</v>
       </c>
       <c r="M42" t="n">
-        <v>-3355.810683480479</v>
+        <v>-3324.310439740895</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>39270.17030825113</v>
+        <v>39471.4164703807</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>42718.0911161804</v>
+        <v>42894.47808942129</v>
       </c>
       <c r="D43" t="n">
-        <v>34813.51824540494</v>
+        <v>34985.05958900005</v>
       </c>
       <c r="E43" t="n">
-        <v>47645.68214516633</v>
+        <v>47533.75877793377</v>
       </c>
       <c r="F43" t="n">
-        <v>42718.0911161804</v>
+        <v>42894.47808942129</v>
       </c>
       <c r="G43" t="n">
-        <v>42718.0911161804</v>
+        <v>42894.47808942129</v>
       </c>
       <c r="H43" t="n">
-        <v>-1778.665822200926</v>
+        <v>-1545.903896424064</v>
       </c>
       <c r="I43" t="n">
-        <v>-1778.665822200926</v>
+        <v>-1545.903896424064</v>
       </c>
       <c r="J43" t="n">
-        <v>-1778.665822200926</v>
+        <v>-1545.903896424064</v>
       </c>
       <c r="K43" t="n">
-        <v>-1778.665822200926</v>
+        <v>-1545.903896424064</v>
       </c>
       <c r="L43" t="n">
-        <v>-1778.665822200926</v>
+        <v>-1545.903896424064</v>
       </c>
       <c r="M43" t="n">
-        <v>-1778.665822200926</v>
+        <v>-1545.903896424064</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40939.42529397947</v>
+        <v>41348.57419299723</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>42807.22994634049</v>
+        <v>42990.04374670751</v>
       </c>
       <c r="D44" t="n">
-        <v>37741.30120730478</v>
+        <v>38061.61715535532</v>
       </c>
       <c r="E44" t="n">
-        <v>50466.51012545428</v>
+        <v>50479.86317014188</v>
       </c>
       <c r="F44" t="n">
-        <v>42807.22994634049</v>
+        <v>42990.04374670751</v>
       </c>
       <c r="G44" t="n">
-        <v>42807.22994634049</v>
+        <v>42990.04374670751</v>
       </c>
       <c r="H44" t="n">
-        <v>1403.942992556208</v>
+        <v>1461.219843461205</v>
       </c>
       <c r="I44" t="n">
-        <v>1403.942992556208</v>
+        <v>1461.219843461205</v>
       </c>
       <c r="J44" t="n">
-        <v>1403.942992556208</v>
+        <v>1461.219843461205</v>
       </c>
       <c r="K44" t="n">
-        <v>1403.942992556208</v>
+        <v>1461.219843461205</v>
       </c>
       <c r="L44" t="n">
-        <v>1403.942992556208</v>
+        <v>1461.219843461205</v>
       </c>
       <c r="M44" t="n">
-        <v>1403.942992556208</v>
+        <v>1461.219843461205</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>44211.1729388967</v>
+        <v>44451.26359016872</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>42899.34007083925</v>
+        <v>43088.79492590328</v>
       </c>
       <c r="D45" t="n">
-        <v>40673.18107057883</v>
+        <v>40679.23451109373</v>
       </c>
       <c r="E45" t="n">
-        <v>52952.31848829253</v>
+        <v>53318.56265547444</v>
       </c>
       <c r="F45" t="n">
-        <v>42899.34007083925</v>
+        <v>43088.79492590328</v>
       </c>
       <c r="G45" t="n">
-        <v>42899.34007083925</v>
+        <v>43088.79492590328</v>
       </c>
       <c r="H45" t="n">
-        <v>3837.740686111119</v>
+        <v>3845.82731428554</v>
       </c>
       <c r="I45" t="n">
-        <v>3837.740686111119</v>
+        <v>3845.82731428554</v>
       </c>
       <c r="J45" t="n">
-        <v>3837.740686111119</v>
+        <v>3845.82731428554</v>
       </c>
       <c r="K45" t="n">
-        <v>3837.740686111119</v>
+        <v>3845.82731428554</v>
       </c>
       <c r="L45" t="n">
-        <v>3837.740686111119</v>
+        <v>3845.82731428554</v>
       </c>
       <c r="M45" t="n">
-        <v>3837.740686111119</v>
+        <v>3845.82731428554</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46737.08075695037</v>
+        <v>46934.62224018882</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>42991.4201836533</v>
+        <v>43187.54610501151</v>
       </c>
       <c r="D46" t="n">
-        <v>39310.73159528029</v>
+        <v>39497.80460739321</v>
       </c>
       <c r="E46" t="n">
-        <v>51716.47017926317</v>
+        <v>52264.02932489264</v>
       </c>
       <c r="F46" t="n">
-        <v>42991.4201836533</v>
+        <v>43187.54610501151</v>
       </c>
       <c r="G46" t="n">
-        <v>42991.4201836533</v>
+        <v>43187.54610501151</v>
       </c>
       <c r="H46" t="n">
-        <v>2558.438900897191</v>
+        <v>2512.168550378115</v>
       </c>
       <c r="I46" t="n">
-        <v>2558.438900897191</v>
+        <v>2512.168550378115</v>
       </c>
       <c r="J46" t="n">
-        <v>2558.438900897191</v>
+        <v>2512.168550378115</v>
       </c>
       <c r="K46" t="n">
-        <v>2558.438900897191</v>
+        <v>2512.168550378115</v>
       </c>
       <c r="L46" t="n">
-        <v>2558.438900897191</v>
+        <v>2512.168550378115</v>
       </c>
       <c r="M46" t="n">
-        <v>2558.438900897191</v>
+        <v>2512.168550378115</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>45549.8590845505</v>
+        <v>45699.71465538962</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>43080.52997024755</v>
+        <v>43283.11176221303</v>
       </c>
       <c r="D47" t="n">
-        <v>37340.62886020718</v>
+        <v>37566.24471203342</v>
       </c>
       <c r="E47" t="n">
-        <v>50073.36170569277</v>
+        <v>49935.87226685837</v>
       </c>
       <c r="F47" t="n">
-        <v>43080.52997024755</v>
+        <v>43283.11176221303</v>
       </c>
       <c r="G47" t="n">
-        <v>43080.52997024755</v>
+        <v>43283.11176221303</v>
       </c>
       <c r="H47" t="n">
-        <v>867.2821561899264</v>
+        <v>747.9788861588572</v>
       </c>
       <c r="I47" t="n">
-        <v>867.2821561899264</v>
+        <v>747.9788861588572</v>
       </c>
       <c r="J47" t="n">
-        <v>867.2821561899264</v>
+        <v>747.9788861588572</v>
       </c>
       <c r="K47" t="n">
-        <v>867.2821561899264</v>
+        <v>747.9788861588572</v>
       </c>
       <c r="L47" t="n">
-        <v>867.2821561899264</v>
+        <v>747.9788861588572</v>
       </c>
       <c r="M47" t="n">
-        <v>867.2821561899264</v>
+        <v>747.9788861588572</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>43947.81212643747</v>
+        <v>44031.09064837189</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>43172.61008259621</v>
+        <v>43381.86284064058</v>
       </c>
       <c r="D48" t="n">
-        <v>34871.50054688269</v>
+        <v>35407.67577786548</v>
       </c>
       <c r="E48" t="n">
-        <v>47649.12772610734</v>
+        <v>47272.33034487718</v>
       </c>
       <c r="F48" t="n">
-        <v>43172.61008259621</v>
+        <v>43381.86284064058</v>
       </c>
       <c r="G48" t="n">
-        <v>43172.61008259621</v>
+        <v>43381.86284064058</v>
       </c>
       <c r="H48" t="n">
-        <v>-1772.850589345036</v>
+        <v>-1958.250192995275</v>
       </c>
       <c r="I48" t="n">
-        <v>-1772.850589345036</v>
+        <v>-1958.250192995275</v>
       </c>
       <c r="J48" t="n">
-        <v>-1772.850589345036</v>
+        <v>-1958.250192995275</v>
       </c>
       <c r="K48" t="n">
-        <v>-1772.850589345036</v>
+        <v>-1958.250192995275</v>
       </c>
       <c r="L48" t="n">
-        <v>-1772.850589345036</v>
+        <v>-1958.250192995275</v>
       </c>
       <c r="M48" t="n">
-        <v>-1772.850589345036</v>
+        <v>-1958.250192995275</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>41399.75949325118</v>
+        <v>41423.61264764531</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>43261.71986874009</v>
+        <v>43477.42840040918</v>
       </c>
       <c r="D49" t="n">
-        <v>32345.57450735339</v>
+        <v>33000.4344939557</v>
       </c>
       <c r="E49" t="n">
-        <v>45336.3730568088</v>
+        <v>45485.86093129239</v>
       </c>
       <c r="F49" t="n">
-        <v>43261.71986874009</v>
+        <v>43477.42840040918</v>
       </c>
       <c r="G49" t="n">
-        <v>43261.71986874009</v>
+        <v>43477.42840040918</v>
       </c>
       <c r="H49" t="n">
-        <v>-4192.866667868844</v>
+        <v>-4422.516702971815</v>
       </c>
       <c r="I49" t="n">
-        <v>-4192.866667868844</v>
+        <v>-4422.516702971815</v>
       </c>
       <c r="J49" t="n">
-        <v>-4192.866667868844</v>
+        <v>-4422.516702971815</v>
       </c>
       <c r="K49" t="n">
-        <v>-4192.866667868844</v>
+        <v>-4422.516702971815</v>
       </c>
       <c r="L49" t="n">
-        <v>-4192.866667868844</v>
+        <v>-4422.516702971815</v>
       </c>
       <c r="M49" t="n">
-        <v>-4192.866667868844</v>
+        <v>-4422.516702971815</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>39068.85320087124</v>
+        <v>39054.91169743737</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>43353.7998067323</v>
+        <v>43576.17947824378</v>
       </c>
       <c r="D50" t="n">
-        <v>36058.54124798308</v>
+        <v>36485.4955141647</v>
       </c>
       <c r="E50" t="n">
-        <v>49189.10759357225</v>
+        <v>48819.31823517985</v>
       </c>
       <c r="F50" t="n">
-        <v>43353.7998067323</v>
+        <v>43576.17947824378</v>
       </c>
       <c r="G50" t="n">
-        <v>43353.7998067323</v>
+        <v>43576.17947824378</v>
       </c>
       <c r="H50" t="n">
-        <v>-672.2060238937402</v>
+        <v>-789.676534061982</v>
       </c>
       <c r="I50" t="n">
-        <v>-672.2060238937402</v>
+        <v>-789.676534061982</v>
       </c>
       <c r="J50" t="n">
-        <v>-672.2060238937402</v>
+        <v>-789.676534061982</v>
       </c>
       <c r="K50" t="n">
-        <v>-672.2060238937402</v>
+        <v>-789.676534061982</v>
       </c>
       <c r="L50" t="n">
-        <v>-672.2060238937402</v>
+        <v>-789.676534061982</v>
       </c>
       <c r="M50" t="n">
-        <v>-672.2060238937402</v>
+        <v>-789.676534061982</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>42681.59378283856</v>
+        <v>42786.5029441818</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>43445.87974472452</v>
+        <v>43674.93055607838</v>
       </c>
       <c r="D51" t="n">
-        <v>28864.0704953972</v>
+        <v>29249.49739323797</v>
       </c>
       <c r="E51" t="n">
-        <v>42063.59907768548</v>
+        <v>42029.55787006293</v>
       </c>
       <c r="F51" t="n">
-        <v>43445.87974472452</v>
+        <v>43674.93055607838</v>
       </c>
       <c r="G51" t="n">
-        <v>43445.87974472452</v>
+        <v>43674.93055607838</v>
       </c>
       <c r="H51" t="n">
-        <v>-8188.646334892908</v>
+        <v>-8293.628731898098</v>
       </c>
       <c r="I51" t="n">
-        <v>-8188.646334892908</v>
+        <v>-8293.628731898098</v>
       </c>
       <c r="J51" t="n">
-        <v>-8188.646334892908</v>
+        <v>-8293.628731898098</v>
       </c>
       <c r="K51" t="n">
-        <v>-8188.646334892908</v>
+        <v>-8293.628731898098</v>
       </c>
       <c r="L51" t="n">
-        <v>-8188.646334892908</v>
+        <v>-8293.628731898098</v>
       </c>
       <c r="M51" t="n">
-        <v>-8188.646334892908</v>
+        <v>-8293.628731898098</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>35257.23340983161</v>
+        <v>35381.30182418029</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>43529.04872054219</v>
+        <v>43764.12507793488</v>
       </c>
       <c r="D52" t="n">
-        <v>38337.21433451599</v>
+        <v>37744.60942477977</v>
       </c>
       <c r="E52" t="n">
-        <v>50894.73702443305</v>
+        <v>50482.86581905343</v>
       </c>
       <c r="F52" t="n">
-        <v>43529.04872054219</v>
+        <v>43764.12507793488</v>
       </c>
       <c r="G52" t="n">
-        <v>43529.04872054219</v>
+        <v>43764.12507793488</v>
       </c>
       <c r="H52" t="n">
-        <v>1170.504512809481</v>
+        <v>1065.686990467323</v>
       </c>
       <c r="I52" t="n">
-        <v>1170.504512809481</v>
+        <v>1065.686990467323</v>
       </c>
       <c r="J52" t="n">
-        <v>1170.504512809481</v>
+        <v>1065.686990467323</v>
       </c>
       <c r="K52" t="n">
-        <v>1170.504512809481</v>
+        <v>1065.686990467323</v>
       </c>
       <c r="L52" t="n">
-        <v>1170.504512809481</v>
+        <v>1065.686990467323</v>
       </c>
       <c r="M52" t="n">
-        <v>1170.504512809481</v>
+        <v>1065.686990467323</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>44699.55323335167</v>
+        <v>44829.81206840221</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>43621.12865805461</v>
+        <v>43862.87615570458</v>
       </c>
       <c r="D53" t="n">
-        <v>34816.95654757298</v>
+        <v>35691.5832578272</v>
       </c>
       <c r="E53" t="n">
-        <v>47679.6606173215</v>
+        <v>47804.81999916073</v>
       </c>
       <c r="F53" t="n">
-        <v>43621.12865805461</v>
+        <v>43862.87615570458</v>
       </c>
       <c r="G53" t="n">
-        <v>43621.12865805461</v>
+        <v>43862.87615570458</v>
       </c>
       <c r="H53" t="n">
-        <v>-2145.834170264357</v>
+        <v>-2234.810591546459</v>
       </c>
       <c r="I53" t="n">
-        <v>-2145.834170264357</v>
+        <v>-2234.810591546459</v>
       </c>
       <c r="J53" t="n">
-        <v>-2145.834170264357</v>
+        <v>-2234.810591546459</v>
       </c>
       <c r="K53" t="n">
-        <v>-2145.834170264357</v>
+        <v>-2234.810591546459</v>
       </c>
       <c r="L53" t="n">
-        <v>-2145.834170264357</v>
+        <v>-2234.810591546459</v>
       </c>
       <c r="M53" t="n">
-        <v>-2145.834170264357</v>
+        <v>-2234.810591546459</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>41475.29448779026</v>
+        <v>41628.06556415812</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>43710.23827457106</v>
+        <v>43958.44171479381</v>
       </c>
       <c r="D54" t="n">
-        <v>35696.92670106888</v>
+        <v>35726.12318113403</v>
       </c>
       <c r="E54" t="n">
-        <v>48113.70701149356</v>
+        <v>48869.58459135779</v>
       </c>
       <c r="F54" t="n">
-        <v>43710.23827457106</v>
+        <v>43958.44171479381</v>
       </c>
       <c r="G54" t="n">
-        <v>43710.23827457106</v>
+        <v>43958.44171479381</v>
       </c>
       <c r="H54" t="n">
-        <v>-1784.685457029568</v>
+        <v>-1865.764131974821</v>
       </c>
       <c r="I54" t="n">
-        <v>-1784.685457029568</v>
+        <v>-1865.764131974821</v>
       </c>
       <c r="J54" t="n">
-        <v>-1784.685457029568</v>
+        <v>-1865.764131974821</v>
       </c>
       <c r="K54" t="n">
-        <v>-1784.685457029568</v>
+        <v>-1865.764131974821</v>
       </c>
       <c r="L54" t="n">
-        <v>-1784.685457029568</v>
+        <v>-1865.764131974821</v>
       </c>
       <c r="M54" t="n">
-        <v>-1784.685457029568</v>
+        <v>-1865.764131974821</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>41925.55281754149</v>
+        <v>42092.67758281899</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>43802.31821163806</v>
+        <v>44057.19279251936</v>
       </c>
       <c r="D55" t="n">
-        <v>36015.45293963602</v>
+        <v>36697.73094875543</v>
       </c>
       <c r="E55" t="n">
-        <v>49282.26292233296</v>
+        <v>49407.17505633987</v>
       </c>
       <c r="F55" t="n">
-        <v>43802.31821163806</v>
+        <v>44057.19279251936</v>
       </c>
       <c r="G55" t="n">
-        <v>43802.31821163806</v>
+        <v>44057.19279251936</v>
       </c>
       <c r="H55" t="n">
-        <v>-1347.824953602656</v>
+        <v>-741.9643771733776</v>
       </c>
       <c r="I55" t="n">
-        <v>-1347.824953602656</v>
+        <v>-741.9643771733776</v>
       </c>
       <c r="J55" t="n">
-        <v>-1347.824953602656</v>
+        <v>-741.9643771733776</v>
       </c>
       <c r="K55" t="n">
-        <v>-1347.824953602656</v>
+        <v>-741.9643771733776</v>
       </c>
       <c r="L55" t="n">
-        <v>-1347.824953602656</v>
+        <v>-741.9643771733776</v>
       </c>
       <c r="M55" t="n">
-        <v>-1347.824953602656</v>
+        <v>-741.9643771733776</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>42454.49325803541</v>
+        <v>43315.22841534598</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>43891.42782815451</v>
+        <v>44152.75835160859</v>
       </c>
       <c r="D56" t="n">
-        <v>39132.58648454957</v>
+        <v>38937.61772545084</v>
       </c>
       <c r="E56" t="n">
-        <v>51328.01268066173</v>
+        <v>51739.71722323539</v>
       </c>
       <c r="F56" t="n">
-        <v>43891.42782815451</v>
+        <v>44152.75835160859</v>
       </c>
       <c r="G56" t="n">
-        <v>43891.42782815451</v>
+        <v>44152.75835160859</v>
       </c>
       <c r="H56" t="n">
-        <v>1331.651963457193</v>
+        <v>1275.664746134115</v>
       </c>
       <c r="I56" t="n">
-        <v>1331.651963457193</v>
+        <v>1275.664746134115</v>
       </c>
       <c r="J56" t="n">
-        <v>1331.651963457193</v>
+        <v>1275.664746134115</v>
       </c>
       <c r="K56" t="n">
-        <v>1331.651963457193</v>
+        <v>1275.664746134115</v>
       </c>
       <c r="L56" t="n">
-        <v>1331.651963457193</v>
+        <v>1275.664746134115</v>
       </c>
       <c r="M56" t="n">
-        <v>1331.651963457193</v>
+        <v>1275.664746134115</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>45223.07979161171</v>
+        <v>45428.42309774271</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>43983.5077652215</v>
+        <v>44251.50942933413</v>
       </c>
       <c r="D57" t="n">
-        <v>41644.83781356825</v>
+        <v>42072.82836834103</v>
       </c>
       <c r="E57" t="n">
-        <v>54821.75369245948</v>
+        <v>54654.09596889462</v>
       </c>
       <c r="F57" t="n">
-        <v>43983.5077652215</v>
+        <v>44251.50942933413</v>
       </c>
       <c r="G57" t="n">
-        <v>43983.5077652215</v>
+        <v>44251.50942933413</v>
       </c>
       <c r="H57" t="n">
-        <v>4196.276970127365</v>
+        <v>4118.488740244697</v>
       </c>
       <c r="I57" t="n">
-        <v>4196.276970127365</v>
+        <v>4118.488740244697</v>
       </c>
       <c r="J57" t="n">
-        <v>4196.276970127365</v>
+        <v>4118.488740244697</v>
       </c>
       <c r="K57" t="n">
-        <v>4196.276970127365</v>
+        <v>4118.488740244697</v>
       </c>
       <c r="L57" t="n">
-        <v>4196.276970127365</v>
+        <v>4118.488740244697</v>
       </c>
       <c r="M57" t="n">
-        <v>4196.276970127365</v>
+        <v>4118.488740244697</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>48179.78473534887</v>
+        <v>48369.99816957883</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>44075.5877022885</v>
+        <v>44350.26050705968</v>
       </c>
       <c r="D58" t="n">
-        <v>39015.7505952084</v>
+        <v>39213.12088695827</v>
       </c>
       <c r="E58" t="n">
-        <v>51521.48633370598</v>
+        <v>52257.83680910384</v>
       </c>
       <c r="F58" t="n">
-        <v>44075.5877022885</v>
+        <v>44350.26050705968</v>
       </c>
       <c r="G58" t="n">
-        <v>44075.5877022885</v>
+        <v>44350.26050705968</v>
       </c>
       <c r="H58" t="n">
-        <v>1122.495287451928</v>
+        <v>1022.980884416595</v>
       </c>
       <c r="I58" t="n">
-        <v>1122.495287451928</v>
+        <v>1022.980884416595</v>
       </c>
       <c r="J58" t="n">
-        <v>1122.495287451928</v>
+        <v>1022.980884416595</v>
       </c>
       <c r="K58" t="n">
-        <v>1122.495287451928</v>
+        <v>1022.980884416595</v>
       </c>
       <c r="L58" t="n">
-        <v>1122.495287451928</v>
+        <v>1022.980884416595</v>
       </c>
       <c r="M58" t="n">
-        <v>1122.495287451928</v>
+        <v>1022.980884416595</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>45198.08298974043</v>
+        <v>45373.24139147627</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>44164.69731880496</v>
+        <v>44445.82606614892</v>
       </c>
       <c r="D59" t="n">
-        <v>38996.62587209093</v>
+        <v>39150.68832727236</v>
       </c>
       <c r="E59" t="n">
-        <v>52104.80088489885</v>
+        <v>51727.37083398828</v>
       </c>
       <c r="F59" t="n">
-        <v>44164.69731880496</v>
+        <v>44445.82606614892</v>
       </c>
       <c r="G59" t="n">
-        <v>44164.69731880496</v>
+        <v>44445.82606614892</v>
       </c>
       <c r="H59" t="n">
-        <v>1304.849874357866</v>
+        <v>1179.210491078305</v>
       </c>
       <c r="I59" t="n">
-        <v>1304.849874357866</v>
+        <v>1179.210491078305</v>
       </c>
       <c r="J59" t="n">
-        <v>1304.849874357866</v>
+        <v>1179.210491078305</v>
       </c>
       <c r="K59" t="n">
-        <v>1304.849874357866</v>
+        <v>1179.210491078305</v>
       </c>
       <c r="L59" t="n">
-        <v>1304.849874357866</v>
+        <v>1179.210491078305</v>
       </c>
       <c r="M59" t="n">
-        <v>1304.849874357866</v>
+        <v>1179.210491078305</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>45469.54719316283</v>
+        <v>45625.03655722722</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>44256.77725587195</v>
+        <v>44544.57714387446</v>
       </c>
       <c r="D60" t="n">
-        <v>35759.92171445725</v>
+        <v>35961.14172168046</v>
       </c>
       <c r="E60" t="n">
-        <v>48918.19422337149</v>
+        <v>48514.62258644962</v>
       </c>
       <c r="F60" t="n">
-        <v>44256.77725587195</v>
+        <v>44544.57714387446</v>
       </c>
       <c r="G60" t="n">
-        <v>44256.77725587195</v>
+        <v>44544.57714387446</v>
       </c>
       <c r="H60" t="n">
-        <v>-2166.257453240262</v>
+        <v>-2315.369314246361</v>
       </c>
       <c r="I60" t="n">
-        <v>-2166.257453240262</v>
+        <v>-2315.369314246361</v>
       </c>
       <c r="J60" t="n">
-        <v>-2166.257453240262</v>
+        <v>-2315.369314246361</v>
       </c>
       <c r="K60" t="n">
-        <v>-2166.257453240262</v>
+        <v>-2315.369314246361</v>
       </c>
       <c r="L60" t="n">
-        <v>-2166.257453240262</v>
+        <v>-2315.369314246361</v>
       </c>
       <c r="M60" t="n">
-        <v>-2166.257453240262</v>
+        <v>-2315.369314246361</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>42090.51980263169</v>
+        <v>42229.2078296281</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>44345.8868723884</v>
+        <v>44640.14270296369</v>
       </c>
       <c r="D61" t="n">
-        <v>34256.83373176067</v>
+        <v>34448.62144441629</v>
       </c>
       <c r="E61" t="n">
-        <v>47196.35898514167</v>
+        <v>46878.62075547784</v>
       </c>
       <c r="F61" t="n">
-        <v>44345.8868723884</v>
+        <v>44640.14270296369</v>
       </c>
       <c r="G61" t="n">
-        <v>44345.8868723884</v>
+        <v>44640.14270296369</v>
       </c>
       <c r="H61" t="n">
-        <v>-3744.499957507169</v>
+        <v>-3909.649415192834</v>
       </c>
       <c r="I61" t="n">
-        <v>-3744.499957507169</v>
+        <v>-3909.649415192834</v>
       </c>
       <c r="J61" t="n">
-        <v>-3744.499957507169</v>
+        <v>-3909.649415192834</v>
       </c>
       <c r="K61" t="n">
-        <v>-3744.499957507169</v>
+        <v>-3909.649415192834</v>
       </c>
       <c r="L61" t="n">
-        <v>-3744.499957507169</v>
+        <v>-3909.649415192834</v>
       </c>
       <c r="M61" t="n">
-        <v>-3744.499957507169</v>
+        <v>-3909.649415192834</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>40601.38691488123</v>
+        <v>40730.49328777086</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>44437.9668094554</v>
+        <v>44738.89378068923</v>
       </c>
       <c r="D62" t="n">
-        <v>38263.69093429884</v>
+        <v>37931.37813558857</v>
       </c>
       <c r="E62" t="n">
-        <v>51021.78844728895</v>
+        <v>50886.51335622557</v>
       </c>
       <c r="F62" t="n">
-        <v>44437.9668094554</v>
+        <v>44738.89378068923</v>
       </c>
       <c r="G62" t="n">
-        <v>44437.9668094554</v>
+        <v>44738.89378068923</v>
       </c>
       <c r="H62" t="n">
-        <v>-105.1862578566361</v>
+        <v>-212.4460156303706</v>
       </c>
       <c r="I62" t="n">
-        <v>-105.1862578566361</v>
+        <v>-212.4460156303706</v>
       </c>
       <c r="J62" t="n">
-        <v>-105.1862578566361</v>
+        <v>-212.4460156303706</v>
       </c>
       <c r="K62" t="n">
-        <v>-105.1862578566361</v>
+        <v>-212.4460156303706</v>
       </c>
       <c r="L62" t="n">
-        <v>-105.1862578566361</v>
+        <v>-212.4460156303706</v>
       </c>
       <c r="M62" t="n">
-        <v>-105.1862578566361</v>
+        <v>-212.4460156303706</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>44332.78055159876</v>
+        <v>44526.44776505886</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>44530.0467465224</v>
+        <v>44837.64485841477</v>
       </c>
       <c r="D63" t="n">
-        <v>31421.26496402625</v>
+        <v>31541.33081329046</v>
       </c>
       <c r="E63" t="n">
-        <v>44292.05495150867</v>
+        <v>44525.31098356263</v>
       </c>
       <c r="F63" t="n">
-        <v>44530.0467465224</v>
+        <v>44837.64485841477</v>
       </c>
       <c r="G63" t="n">
-        <v>44530.0467465224</v>
+        <v>44837.64485841477</v>
       </c>
       <c r="H63" t="n">
-        <v>-6820.499373231445</v>
+        <v>-6931.929056588049</v>
       </c>
       <c r="I63" t="n">
-        <v>-6820.499373231445</v>
+        <v>-6931.929056588049</v>
       </c>
       <c r="J63" t="n">
-        <v>-6820.499373231445</v>
+        <v>-6931.929056588049</v>
       </c>
       <c r="K63" t="n">
-        <v>-6820.499373231445</v>
+        <v>-6931.929056588049</v>
       </c>
       <c r="L63" t="n">
-        <v>-6820.499373231445</v>
+        <v>-6931.929056588049</v>
       </c>
       <c r="M63" t="n">
-        <v>-6820.499373231445</v>
+        <v>-6931.929056588049</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>37709.54737329095</v>
+        <v>37905.71580182672</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>44613.21572193775</v>
+        <v>44926.83938023139</v>
       </c>
       <c r="D64" t="n">
-        <v>36990.24494435947</v>
+        <v>37358.3640913744</v>
       </c>
       <c r="E64" t="n">
-        <v>49428.13551038973</v>
+        <v>50175.12135613269</v>
       </c>
       <c r="F64" t="n">
-        <v>44613.21572193775</v>
+        <v>44926.83938023139</v>
       </c>
       <c r="G64" t="n">
-        <v>44613.21572193775</v>
+        <v>44926.83938023139</v>
       </c>
       <c r="H64" t="n">
-        <v>-1161.131389159345</v>
+        <v>-1294.222371003321</v>
       </c>
       <c r="I64" t="n">
-        <v>-1161.131389159345</v>
+        <v>-1294.222371003321</v>
       </c>
       <c r="J64" t="n">
-        <v>-1161.131389159345</v>
+        <v>-1294.222371003321</v>
       </c>
       <c r="K64" t="n">
-        <v>-1161.131389159345</v>
+        <v>-1294.222371003321</v>
       </c>
       <c r="L64" t="n">
-        <v>-1161.131389159345</v>
+        <v>-1294.222371003321</v>
       </c>
       <c r="M64" t="n">
-        <v>-1161.131389159345</v>
+        <v>-1294.222371003321</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>43452.0843327784</v>
+        <v>43632.61700922807</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>44705.29565900475</v>
+        <v>45025.59045795694</v>
       </c>
       <c r="D65" t="n">
-        <v>35371.68175331729</v>
+        <v>35830.01121288846</v>
       </c>
       <c r="E65" t="n">
-        <v>48478.42284749027</v>
+        <v>48042.70629988398</v>
       </c>
       <c r="F65" t="n">
-        <v>44705.29565900475</v>
+        <v>45025.59045795694</v>
       </c>
       <c r="G65" t="n">
-        <v>44705.29565900475</v>
+        <v>45025.59045795694</v>
       </c>
       <c r="H65" t="n">
-        <v>-2881.305587997545</v>
+        <v>-3044.131103358362</v>
       </c>
       <c r="I65" t="n">
-        <v>-2881.305587997545</v>
+        <v>-3044.131103358362</v>
       </c>
       <c r="J65" t="n">
-        <v>-2881.305587997545</v>
+        <v>-3044.131103358362</v>
       </c>
       <c r="K65" t="n">
-        <v>-2881.305587997545</v>
+        <v>-3044.131103358362</v>
       </c>
       <c r="L65" t="n">
-        <v>-2881.305587997545</v>
+        <v>-3044.131103358362</v>
       </c>
       <c r="M65" t="n">
-        <v>-2881.305587997545</v>
+        <v>-3044.131103358362</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>41823.99007100721</v>
+        <v>41981.45935459858</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>44794.4052755212</v>
+        <v>45121.15601704617</v>
       </c>
       <c r="D66" t="n">
-        <v>38319.77584996396</v>
+        <v>38427.34241695931</v>
       </c>
       <c r="E66" t="n">
-        <v>51248.5686171294</v>
+        <v>51039.53744585243</v>
       </c>
       <c r="F66" t="n">
-        <v>44794.4052755212</v>
+        <v>45121.15601704617</v>
       </c>
       <c r="G66" t="n">
-        <v>44794.4052755212</v>
+        <v>45121.15601704617</v>
       </c>
       <c r="H66" t="n">
-        <v>-187.6686915783636</v>
+        <v>-375.16691476329</v>
       </c>
       <c r="I66" t="n">
-        <v>-187.6686915783636</v>
+        <v>-375.16691476329</v>
       </c>
       <c r="J66" t="n">
-        <v>-187.6686915783636</v>
+        <v>-375.16691476329</v>
       </c>
       <c r="K66" t="n">
-        <v>-187.6686915783636</v>
+        <v>-375.16691476329</v>
       </c>
       <c r="L66" t="n">
-        <v>-187.6686915783636</v>
+        <v>-375.16691476329</v>
       </c>
       <c r="M66" t="n">
-        <v>-187.6686915783636</v>
+        <v>-375.16691476329</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>44606.73658394283</v>
+        <v>44745.98910228287</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>44886.4852125882</v>
+        <v>45219.90709477171</v>
       </c>
       <c r="D67" t="n">
-        <v>37711.24581701446</v>
+        <v>38955.37850534346</v>
       </c>
       <c r="E67" t="n">
-        <v>50424.79932785182</v>
+        <v>51544.2697731531</v>
       </c>
       <c r="F67" t="n">
-        <v>44886.47917295971</v>
+        <v>45219.90709477171</v>
       </c>
       <c r="G67" t="n">
-        <v>44886.4931135628</v>
+        <v>45219.90709477171</v>
       </c>
       <c r="H67" t="n">
-        <v>-932.7781336092838</v>
+        <v>46.10900175141079</v>
       </c>
       <c r="I67" t="n">
-        <v>-932.7781336092838</v>
+        <v>46.10900175141079</v>
       </c>
       <c r="J67" t="n">
-        <v>-932.7781336092838</v>
+        <v>46.10900175141079</v>
       </c>
       <c r="K67" t="n">
-        <v>-932.7781336092838</v>
+        <v>46.10900175141079</v>
       </c>
       <c r="L67" t="n">
-        <v>-932.7781336092838</v>
+        <v>46.10900175141079</v>
       </c>
       <c r="M67" t="n">
-        <v>-932.7781336092838</v>
+        <v>46.10900175141079</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>43953.70707897891</v>
+        <v>45266.01609652313</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>44975.59482910464</v>
+        <v>45315.47265386095</v>
       </c>
       <c r="D68" t="n">
-        <v>40033.54254723463</v>
+        <v>39944.51081350756</v>
       </c>
       <c r="E68" t="n">
-        <v>52360.57835874613</v>
+        <v>52861.30781004742</v>
       </c>
       <c r="F68" t="n">
-        <v>44975.56389034155</v>
+        <v>45315.46641611319</v>
       </c>
       <c r="G68" t="n">
-        <v>44975.63588432542</v>
+        <v>45315.47731966511</v>
       </c>
       <c r="H68" t="n">
-        <v>1244.447906507538</v>
+        <v>1069.037021451661</v>
       </c>
       <c r="I68" t="n">
-        <v>1244.447906507538</v>
+        <v>1069.037021451661</v>
       </c>
       <c r="J68" t="n">
-        <v>1244.447906507538</v>
+        <v>1069.037021451661</v>
       </c>
       <c r="K68" t="n">
-        <v>1244.447906507538</v>
+        <v>1069.037021451661</v>
       </c>
       <c r="L68" t="n">
-        <v>1244.447906507538</v>
+        <v>1069.037021451661</v>
       </c>
       <c r="M68" t="n">
-        <v>1244.447906507538</v>
+        <v>1069.037021451661</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>46220.04273561218</v>
+        <v>46384.50967531261</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>45067.67476617164</v>
+        <v>45414.22373158649</v>
       </c>
       <c r="D69" t="n">
-        <v>43576.35816464971</v>
+        <v>43774.84598673566</v>
       </c>
       <c r="E69" t="n">
-        <v>55391.75522586375</v>
+        <v>55819.8093986429</v>
       </c>
       <c r="F69" t="n">
-        <v>45067.60175562395</v>
+        <v>45414.18636526396</v>
       </c>
       <c r="G69" t="n">
-        <v>45067.75696504419</v>
+        <v>45414.252790519</v>
       </c>
       <c r="H69" t="n">
-        <v>4529.028639913176</v>
+        <v>4364.54423043777</v>
       </c>
       <c r="I69" t="n">
-        <v>4529.028639913176</v>
+        <v>4364.54423043777</v>
       </c>
       <c r="J69" t="n">
-        <v>4529.028639913176</v>
+        <v>4364.54423043777</v>
       </c>
       <c r="K69" t="n">
-        <v>4529.028639913176</v>
+        <v>4364.54423043777</v>
       </c>
       <c r="L69" t="n">
-        <v>4529.028639913176</v>
+        <v>4364.54423043777</v>
       </c>
       <c r="M69" t="n">
-        <v>4529.028639913176</v>
+        <v>4364.54423043777</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>49596.70340608482</v>
+        <v>49778.76796202426</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>45159.75470323864</v>
+        <v>45512.97480931204</v>
       </c>
       <c r="D70" t="n">
-        <v>38588.45041523589</v>
+        <v>38897.22130811705</v>
       </c>
       <c r="E70" t="n">
-        <v>51389.89999882139</v>
+        <v>51276.2655690076</v>
       </c>
       <c r="F70" t="n">
-        <v>45159.6381094866</v>
+        <v>45512.89423460119</v>
       </c>
       <c r="G70" t="n">
-        <v>45159.88799402181</v>
+        <v>45513.04364651173</v>
       </c>
       <c r="H70" t="n">
-        <v>-315.8830493083663</v>
+        <v>-467.3324000984789</v>
       </c>
       <c r="I70" t="n">
-        <v>-315.8830493083663</v>
+        <v>-467.3324000984789</v>
       </c>
       <c r="J70" t="n">
-        <v>-315.8830493083663</v>
+        <v>-467.3324000984789</v>
       </c>
       <c r="K70" t="n">
-        <v>-315.8830493083663</v>
+        <v>-467.3324000984789</v>
       </c>
       <c r="L70" t="n">
-        <v>-315.8830493083663</v>
+        <v>-467.3324000984789</v>
       </c>
       <c r="M70" t="n">
-        <v>-315.8830493083663</v>
+        <v>-467.3324000984789</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>44843.87165393028</v>
+        <v>45045.64240921356</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>45248.86431975509</v>
+        <v>45608.54036840126</v>
       </c>
       <c r="D71" t="n">
-        <v>41507.06760877803</v>
+        <v>41224.54532743352</v>
       </c>
       <c r="E71" t="n">
-        <v>53205.11752778481</v>
+        <v>53504.6256158252</v>
       </c>
       <c r="F71" t="n">
-        <v>45248.69047811134</v>
+        <v>45608.40636562077</v>
       </c>
       <c r="G71" t="n">
-        <v>45249.04100583732</v>
+        <v>45608.65802639253</v>
       </c>
       <c r="H71" t="n">
-        <v>1759.501069439196</v>
+        <v>1629.728624718126</v>
       </c>
       <c r="I71" t="n">
-        <v>1759.501069439196</v>
+        <v>1629.728624718126</v>
       </c>
       <c r="J71" t="n">
-        <v>1759.501069439196</v>
+        <v>1629.728624718126</v>
       </c>
       <c r="K71" t="n">
-        <v>1759.501069439196</v>
+        <v>1629.728624718126</v>
       </c>
       <c r="L71" t="n">
-        <v>1759.501069439196</v>
+        <v>1629.728624718126</v>
       </c>
       <c r="M71" t="n">
-        <v>1759.501069439196</v>
+        <v>1629.728624718126</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>47008.36538919429</v>
+        <v>47238.26899311939</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>45340.94425682208</v>
+        <v>45707.29144612681</v>
       </c>
       <c r="D72" t="n">
-        <v>36470.45863739711</v>
+        <v>36723.94926806886</v>
       </c>
       <c r="E72" t="n">
-        <v>48810.162099696</v>
+        <v>49033.19424816829</v>
       </c>
       <c r="F72" t="n">
-        <v>45340.70371647568</v>
+        <v>45707.09491842338</v>
       </c>
       <c r="G72" t="n">
-        <v>45341.17694086322</v>
+        <v>45707.46402652423</v>
       </c>
       <c r="H72" t="n">
-        <v>-2547.346556764312</v>
+        <v>-2658.535969063249</v>
       </c>
       <c r="I72" t="n">
-        <v>-2547.346556764312</v>
+        <v>-2658.535969063249</v>
       </c>
       <c r="J72" t="n">
-        <v>-2547.346556764312</v>
+        <v>-2658.535969063249</v>
       </c>
       <c r="K72" t="n">
-        <v>-2547.346556764312</v>
+        <v>-2658.535969063249</v>
       </c>
       <c r="L72" t="n">
-        <v>-2547.346556764312</v>
+        <v>-2658.535969063249</v>
       </c>
       <c r="M72" t="n">
-        <v>-2547.346556764312</v>
+        <v>-2658.535969063249</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>42793.59770005777</v>
+        <v>43048.75547706356</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>45430.05387333854</v>
+        <v>45802.85700521604</v>
       </c>
       <c r="D73" t="n">
-        <v>36153.07677036446</v>
+        <v>36242.28212848302</v>
       </c>
       <c r="E73" t="n">
-        <v>48151.1797374864</v>
+        <v>48898.28654068331</v>
       </c>
       <c r="F73" t="n">
-        <v>45429.74858566593</v>
+        <v>45802.60265503637</v>
       </c>
       <c r="G73" t="n">
-        <v>45430.35699085777</v>
+        <v>45803.08118390996</v>
       </c>
       <c r="H73" t="n">
-        <v>-3278.8540370586</v>
+        <v>-3379.957570663908</v>
       </c>
       <c r="I73" t="n">
-        <v>-3278.8540370586</v>
+        <v>-3379.957570663908</v>
       </c>
       <c r="J73" t="n">
-        <v>-3278.8540370586</v>
+        <v>-3379.957570663908</v>
       </c>
       <c r="K73" t="n">
-        <v>-3278.8540370586</v>
+        <v>-3379.957570663908</v>
       </c>
       <c r="L73" t="n">
-        <v>-3278.8540370586</v>
+        <v>-3379.957570663908</v>
       </c>
       <c r="M73" t="n">
-        <v>-3278.8540370586</v>
+        <v>-3379.957570663908</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>42151.19983627994</v>
+        <v>42422.89943455214</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>45522.13381040553</v>
+        <v>45901.60808294159</v>
       </c>
       <c r="D74" t="n">
-        <v>39607.30475201157</v>
+        <v>39890.31103423201</v>
       </c>
       <c r="E74" t="n">
-        <v>52084.21185409134</v>
+        <v>52949.79545428971</v>
       </c>
       <c r="F74" t="n">
-        <v>45521.75227967013</v>
+        <v>45901.28815393665</v>
       </c>
       <c r="G74" t="n">
-        <v>45522.51210180496</v>
+        <v>45901.89122466541</v>
       </c>
       <c r="H74" t="n">
-        <v>462.840667014243</v>
+        <v>364.1690530159511</v>
       </c>
       <c r="I74" t="n">
-        <v>462.840667014243</v>
+        <v>364.1690530159511</v>
       </c>
       <c r="J74" t="n">
-        <v>462.840667014243</v>
+        <v>364.1690530159511</v>
       </c>
       <c r="K74" t="n">
-        <v>462.840667014243</v>
+        <v>364.1690530159511</v>
       </c>
       <c r="L74" t="n">
-        <v>462.840667014243</v>
+        <v>364.1690530159511</v>
       </c>
       <c r="M74" t="n">
-        <v>462.840667014243</v>
+        <v>364.1690530159511</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>45984.97447741978</v>
+        <v>46265.77713595754</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>45614.21374747254</v>
+        <v>46000.35916066713</v>
       </c>
       <c r="D75" t="n">
-        <v>33978.14256579879</v>
+        <v>33926.83636027855</v>
       </c>
       <c r="E75" t="n">
-        <v>46547.26924689901</v>
+        <v>46467.90116629032</v>
       </c>
       <c r="F75" t="n">
-        <v>45613.72986155334</v>
+        <v>45999.95248874393</v>
       </c>
       <c r="G75" t="n">
-        <v>45614.67613925729</v>
+        <v>46000.7156029545</v>
       </c>
       <c r="H75" t="n">
-        <v>-5490.348316998355</v>
+        <v>-5609.600202449981</v>
       </c>
       <c r="I75" t="n">
-        <v>-5490.348316998355</v>
+        <v>-5609.600202449981</v>
       </c>
       <c r="J75" t="n">
-        <v>-5490.348316998355</v>
+        <v>-5609.600202449981</v>
       </c>
       <c r="K75" t="n">
-        <v>-5490.348316998355</v>
+        <v>-5609.600202449981</v>
       </c>
       <c r="L75" t="n">
-        <v>-5490.348316998355</v>
+        <v>-5609.600202449981</v>
       </c>
       <c r="M75" t="n">
-        <v>-5490.348316998355</v>
+        <v>-5609.600202449981</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>40123.86543047419</v>
+        <v>40390.75895821714</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>45697.38272288789</v>
+        <v>46089.55368248374</v>
       </c>
       <c r="D76" t="n">
-        <v>36333.69266961066</v>
+        <v>35687.76264874467</v>
       </c>
       <c r="E76" t="n">
-        <v>48125.24652295588</v>
+        <v>48752.38392276354</v>
       </c>
       <c r="F76" t="n">
-        <v>45696.83204666889</v>
+        <v>46089.07919889916</v>
       </c>
       <c r="G76" t="n">
-        <v>45697.92402856411</v>
+        <v>46089.98842518074</v>
       </c>
       <c r="H76" t="n">
-        <v>-3509.007212331527</v>
+        <v>-3671.146913658845</v>
       </c>
       <c r="I76" t="n">
-        <v>-3509.007212331527</v>
+        <v>-3671.146913658845</v>
       </c>
       <c r="J76" t="n">
-        <v>-3509.007212331527</v>
+        <v>-3671.146913658845</v>
       </c>
       <c r="K76" t="n">
-        <v>-3509.007212331527</v>
+        <v>-3671.146913658845</v>
       </c>
       <c r="L76" t="n">
-        <v>-3509.007212331527</v>
+        <v>-3671.146913658845</v>
       </c>
       <c r="M76" t="n">
-        <v>-3509.007212331527</v>
+        <v>-3671.146913658845</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>42188.37551055636</v>
+        <v>42418.4067688249</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>45789.46265995489</v>
+        <v>46188.30476020928</v>
       </c>
       <c r="D77" t="n">
-        <v>35819.84257745106</v>
+        <v>36408.03522963016</v>
       </c>
       <c r="E77" t="n">
-        <v>48405.9044550312</v>
+        <v>48296.50762805771</v>
       </c>
       <c r="F77" t="n">
-        <v>45788.82122275233</v>
+        <v>46187.7042551705</v>
       </c>
       <c r="G77" t="n">
-        <v>45790.09657197924</v>
+        <v>46188.83318070212</v>
       </c>
       <c r="H77" t="n">
-        <v>-3562.544994851489</v>
+        <v>-3798.603825579744</v>
       </c>
       <c r="I77" t="n">
-        <v>-3562.544994851489</v>
+        <v>-3798.603825579744</v>
       </c>
       <c r="J77" t="n">
-        <v>-3562.544994851489</v>
+        <v>-3798.603825579744</v>
       </c>
       <c r="K77" t="n">
-        <v>-3562.544994851489</v>
+        <v>-3798.603825579744</v>
       </c>
       <c r="L77" t="n">
-        <v>-3562.544994851489</v>
+        <v>-3798.603825579744</v>
       </c>
       <c r="M77" t="n">
-        <v>-3562.544994851489</v>
+        <v>-3798.603825579744</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>42226.9176651034</v>
+        <v>42389.70093462954</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>45878.57227647133</v>
+        <v>46283.87031929852</v>
       </c>
       <c r="D78" t="n">
-        <v>41396.23335238921</v>
+        <v>41176.95498570563</v>
       </c>
       <c r="E78" t="n">
-        <v>53605.50185176243</v>
+        <v>53374.336829976</v>
       </c>
       <c r="F78" t="n">
-        <v>45877.84929608409</v>
+        <v>46283.16489027424</v>
       </c>
       <c r="G78" t="n">
-        <v>45879.3037473619</v>
+        <v>46284.50114017451</v>
       </c>
       <c r="H78" t="n">
-        <v>1433.394849731012</v>
+        <v>1145.664117523286</v>
       </c>
       <c r="I78" t="n">
-        <v>1433.394849731012</v>
+        <v>1145.664117523286</v>
       </c>
       <c r="J78" t="n">
-        <v>1433.394849731012</v>
+        <v>1145.664117523286</v>
       </c>
       <c r="K78" t="n">
-        <v>1433.394849731012</v>
+        <v>1145.664117523286</v>
       </c>
       <c r="L78" t="n">
-        <v>1433.394849731012</v>
+        <v>1145.664117523286</v>
       </c>
       <c r="M78" t="n">
-        <v>1433.394849731012</v>
+        <v>1145.664117523286</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>47311.96712620234</v>
+        <v>47429.53443682181</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>45970.65221353833</v>
+        <v>46382.62139702406</v>
       </c>
       <c r="D79" t="n">
-        <v>39536.21983179817</v>
+        <v>40627.6097910649</v>
       </c>
       <c r="E79" t="n">
-        <v>51942.76745410089</v>
+        <v>53611.6966893939</v>
       </c>
       <c r="F79" t="n">
-        <v>45969.82528510288</v>
+        <v>46381.80453046669</v>
       </c>
       <c r="G79" t="n">
-        <v>45971.47402035883</v>
+        <v>46383.3715701929</v>
       </c>
       <c r="H79" t="n">
-        <v>-534.557685522291</v>
+        <v>816.8984109046368</v>
       </c>
       <c r="I79" t="n">
-        <v>-534.557685522291</v>
+        <v>816.8984109046368</v>
       </c>
       <c r="J79" t="n">
-        <v>-534.557685522291</v>
+        <v>816.8984109046368</v>
       </c>
       <c r="K79" t="n">
-        <v>-534.557685522291</v>
+        <v>816.8984109046368</v>
       </c>
       <c r="L79" t="n">
-        <v>-534.557685522291</v>
+        <v>816.8984109046368</v>
       </c>
       <c r="M79" t="n">
-        <v>-534.557685522291</v>
+        <v>816.8984109046368</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>45436.09452801604</v>
+        <v>47199.5198079287</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>46059.76183005478</v>
+        <v>46478.1869561133</v>
       </c>
       <c r="D80" t="n">
-        <v>40938.56348782113</v>
+        <v>40747.4717813188</v>
       </c>
       <c r="E80" t="n">
-        <v>53793.4261040023</v>
+        <v>53621.95501611875</v>
       </c>
       <c r="F80" t="n">
-        <v>46058.86397694582</v>
+        <v>46477.27439342024</v>
       </c>
       <c r="G80" t="n">
-        <v>46060.67620381761</v>
+        <v>46479.04699190106</v>
       </c>
       <c r="H80" t="n">
-        <v>1142.169719631258</v>
+        <v>841.2491118194504</v>
       </c>
       <c r="I80" t="n">
-        <v>1142.169719631258</v>
+        <v>841.2491118194504</v>
       </c>
       <c r="J80" t="n">
-        <v>1142.169719631258</v>
+        <v>841.2491118194504</v>
       </c>
       <c r="K80" t="n">
-        <v>1142.169719631258</v>
+        <v>841.2491118194504</v>
       </c>
       <c r="L80" t="n">
-        <v>1142.169719631258</v>
+        <v>841.2491118194504</v>
       </c>
       <c r="M80" t="n">
-        <v>1142.169719631258</v>
+        <v>841.2491118194504</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>47201.93154968604</v>
+        <v>47319.43606793275</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>46151.84176712178</v>
+        <v>46576.93803383884</v>
       </c>
       <c r="D81" t="n">
-        <v>44779.28225920515</v>
+        <v>44694.13283628823</v>
       </c>
       <c r="E81" t="n">
-        <v>57252.26407499792</v>
+        <v>57515.28825085665</v>
       </c>
       <c r="F81" t="n">
-        <v>46150.84841799676</v>
+        <v>46575.89503372856</v>
       </c>
       <c r="G81" t="n">
-        <v>46152.86553294151</v>
+        <v>46577.87577981157</v>
       </c>
       <c r="H81" t="n">
-        <v>4836.060779549832</v>
+        <v>4584.206999359455</v>
       </c>
       <c r="I81" t="n">
-        <v>4836.060779549832</v>
+        <v>4584.206999359455</v>
       </c>
       <c r="J81" t="n">
-        <v>4836.060779549832</v>
+        <v>4584.206999359455</v>
       </c>
       <c r="K81" t="n">
-        <v>4836.060779549832</v>
+        <v>4584.206999359455</v>
       </c>
       <c r="L81" t="n">
-        <v>4836.060779549832</v>
+        <v>4584.206999359455</v>
       </c>
       <c r="M81" t="n">
-        <v>4836.060779549832</v>
+        <v>4584.206999359455</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>50987.9025466716</v>
+        <v>51161.14503319829</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>46243.92170418878</v>
+        <v>46675.68911156438</v>
       </c>
       <c r="D82" t="n">
-        <v>38826.78622945442</v>
+        <v>38199.27828759673</v>
       </c>
       <c r="E82" t="n">
-        <v>50763.5186431092</v>
+        <v>50438.22760633369</v>
       </c>
       <c r="F82" t="n">
-        <v>46242.83785880775</v>
+        <v>46674.5290719695</v>
       </c>
       <c r="G82" t="n">
-        <v>46245.01606262153</v>
+        <v>46676.75430684158</v>
       </c>
       <c r="H82" t="n">
-        <v>-1755.112277622369</v>
+        <v>-1957.088168360646</v>
       </c>
       <c r="I82" t="n">
-        <v>-1755.112277622369</v>
+        <v>-1957.088168360646</v>
       </c>
       <c r="J82" t="n">
-        <v>-1755.112277622369</v>
+        <v>-1957.088168360646</v>
       </c>
       <c r="K82" t="n">
-        <v>-1755.112277622369</v>
+        <v>-1957.088168360646</v>
       </c>
       <c r="L82" t="n">
-        <v>-1755.112277622369</v>
+        <v>-1957.088168360646</v>
       </c>
       <c r="M82" t="n">
-        <v>-1755.112277622369</v>
+        <v>-1957.088168360646</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>44488.80942656641</v>
+        <v>44718.60094320374</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>46333.03132070522</v>
+        <v>46771.25467065362</v>
       </c>
       <c r="D83" t="n">
-        <v>42048.04283564951</v>
+        <v>42456.07038675013</v>
       </c>
       <c r="E83" t="n">
-        <v>54922.26083068323</v>
+        <v>55040.63335639225</v>
       </c>
       <c r="F83" t="n">
-        <v>46331.83744889896</v>
+        <v>46769.94577465761</v>
       </c>
       <c r="G83" t="n">
-        <v>46334.25401793682</v>
+        <v>46772.44789887009</v>
       </c>
       <c r="H83" t="n">
-        <v>2231.24792450814</v>
+        <v>2099.554587441881</v>
       </c>
       <c r="I83" t="n">
-        <v>2231.24792450814</v>
+        <v>2099.554587441881</v>
       </c>
       <c r="J83" t="n">
-        <v>2231.24792450814</v>
+        <v>2099.554587441881</v>
       </c>
       <c r="K83" t="n">
-        <v>2231.24792450814</v>
+        <v>2099.554587441881</v>
       </c>
       <c r="L83" t="n">
-        <v>2231.24792450814</v>
+        <v>2099.554587441881</v>
       </c>
       <c r="M83" t="n">
-        <v>2231.24792450814</v>
+        <v>2099.554587441881</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>48564.27924521337</v>
+        <v>48870.80925809551</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>46870.00574837916</v>
+      </c>
+      <c r="D84" t="n">
+        <v>37323.00100072032</v>
+      </c>
+      <c r="E84" t="n">
+        <v>50426.844880118</v>
+      </c>
+      <c r="F84" t="n">
+        <v>46868.55277846359</v>
+      </c>
+      <c r="G84" t="n">
+        <v>46871.31321550612</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-2987.560660609633</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-2987.560660609633</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-2987.560660609633</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-2987.560660609633</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-2987.560660609633</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-2987.560660609633</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>43882.44508776953</v>
       </c>
     </row>
   </sheetData>
